--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB322F6-1048-49BB-9DC5-5BB7D00CBBA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10500"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -84,12 +85,15 @@
   </si>
   <si>
     <t>Meas Desc</t>
+  </si>
+  <si>
+    <t>LNO offset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,9 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -307,12 +308,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -324,34 +319,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -633,11 +637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,489 +659,561 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="L1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="23" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>51</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>15</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>16</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="23">
         <v>3895</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="24">
         <v>214</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>8</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>6</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>4</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="21">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>51</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>15</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>16</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="23">
         <v>3895</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="24">
         <v>214</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>8</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>4</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>6</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="21">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="L7" s="5">
+      <c r="A7" s="4">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="23">
+        <v>3895</v>
+      </c>
+      <c r="I7" s="24">
+        <v>214</v>
+      </c>
+      <c r="L7" s="4">
         <v>8</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>8</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="21">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="L8" s="5">
+      <c r="A8" s="4">
+        <v>52</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7">
+        <v>16</v>
+      </c>
+      <c r="H8" s="23">
+        <v>3895</v>
+      </c>
+      <c r="I8" s="24">
+        <v>214</v>
+      </c>
+      <c r="L8" s="4">
         <v>8</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>12</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="21">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="L9" s="5">
+      <c r="A9" s="4">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7">
+        <v>16</v>
+      </c>
+      <c r="H9" s="23">
+        <v>3895</v>
+      </c>
+      <c r="I9" s="24">
+        <v>214</v>
+      </c>
+      <c r="L9" s="4">
         <v>8</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>3</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>16</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="21">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="25"/>
+      <c r="A10" s="4">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7">
+        <v>16</v>
+      </c>
+      <c r="H10" s="23">
+        <v>3895</v>
+      </c>
+      <c r="I10" s="24">
+        <v>214</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="L11" s="5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+      <c r="L11" s="4">
         <v>15</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>6</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>4</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="21">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="L12" s="5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
+      <c r="L12" s="4">
         <v>15</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>4</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>6</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="21">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="L13" s="5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+      <c r="L13" s="4">
         <v>15</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>8</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="21">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="L14" s="5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+      <c r="L14" s="4">
         <v>15</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>12</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="21">
         <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="L15" s="9">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
+      <c r="L15" s="8">
         <v>15</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>3</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>16</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="22">
         <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB322F6-1048-49BB-9DC5-5BB7D00CBBA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3DF829-3DB6-4C53-87C4-A0F9EFEF1A7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -88,6 +88,63 @@
   </si>
   <si>
     <t>LNO offset</t>
+  </si>
+  <si>
+    <t>LNO -4</t>
+  </si>
+  <si>
+    <t>LNO -2</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS</t>
+  </si>
+  <si>
+    <t>3406,3416,3426,3436,3446,3452 # ORDERS 189 190 191 192 193 201 -- NADIR_12ROWS_15SECS_6SUBDS -- EXECTIME=14516MS</t>
+  </si>
+  <si>
+    <t>3591,0,0,0,0,0 # TARGETED_NADIR_FULLSCAN_FAST_142-6-184ORDERS_8ROWS_15SECS_3SUBDS -- EXECTIME=14523MS</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Subd COP</t>
+  </si>
+  <si>
+    <t>Carbonates: 174, 175, 176, 189, 190, 191</t>
+  </si>
+  <si>
+    <t>Phyllosilicates: 189, 190, 191, 192, 193, 201</t>
+  </si>
+  <si>
+    <t>Hydration band: 148, 153, 158, 164, 170, 177</t>
+  </si>
+  <si>
+    <t>Fullscan: 148 to 178 in steps of 6 orders</t>
+  </si>
+  <si>
+    <t>MTP051+</t>
+  </si>
+  <si>
+    <t>3238,3244,3262,3298,3344,3394 # ORDERS 148 153 158 164 170 177 -- NADIR_12ROWS_15SECS_6SUBDS -- EXECTIME=14516MS</t>
+  </si>
+  <si>
+    <t>3364,3374,3384,3406,3416,3426 # ORDERS 174 175 176 189 190 191 -- NADIR_12ROWS_15SECS_6SUBDS -- EXECTIME=14516MS</t>
+  </si>
+  <si>
+    <t>3338,3338,3338,0,0,0 # ORDERS 169 169 169 -- NADIR_16ROWS_15SECS_3SUBDS -- EXECTIME=14340MS</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Full row</t>
+  </si>
+  <si>
+    <t>HYDRATION BAND 148 153 158 164 170 177</t>
+  </si>
+  <si>
+    <t>CARBONATES 174 175 176 189 190 191</t>
   </si>
 </sst>
 </file>
@@ -125,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -276,11 +333,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,6 +414,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,37 +769,40 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="L1" s="25" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
       <c r="L3" s="16"/>
@@ -969,15 +1092,33 @@
       <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="4">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4">
+        <v>15</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3893</v>
+      </c>
+      <c r="I11" s="7">
+        <v>205</v>
+      </c>
       <c r="L11" s="4">
         <v>15</v>
       </c>
@@ -992,15 +1133,33 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="4">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3893</v>
+      </c>
+      <c r="I12" s="7">
+        <v>205</v>
+      </c>
       <c r="L12" s="4">
         <v>15</v>
       </c>
@@ -1015,15 +1174,33 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="4">
+        <v>56</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3799</v>
+      </c>
+      <c r="I13" s="7">
+        <v>205</v>
+      </c>
       <c r="L13" s="4">
         <v>15</v>
       </c>
@@ -1038,15 +1215,33 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="4">
+        <v>56</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3799</v>
+      </c>
+      <c r="I14" s="7">
+        <v>205</v>
+      </c>
       <c r="L14" s="4">
         <v>15</v>
       </c>
@@ -1061,15 +1256,33 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="4">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5">
+        <v>6</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="7">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3893</v>
+      </c>
+      <c r="I15" s="7">
+        <v>205</v>
+      </c>
       <c r="L15" s="8">
         <v>15</v>
       </c>
@@ -1094,7 +1307,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1104,8 +1317,11 @@
       <c r="G17" s="7"/>
       <c r="H17" s="5"/>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M17" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1116,7 +1332,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1126,8 +1342,16 @@
       <c r="G19" s="7"/>
       <c r="H19" s="5"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1137,8 +1361,32 @@
       <c r="G20" s="7"/>
       <c r="H20" s="5"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1148,8 +1396,33 @@
       <c r="G21" s="7"/>
       <c r="H21" s="5"/>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="39">
+        <v>15</v>
+      </c>
+      <c r="M21" s="40">
+        <v>3</v>
+      </c>
+      <c r="N21" s="40">
+        <v>16</v>
+      </c>
+      <c r="O21" s="41">
+        <v>3895</v>
+      </c>
+      <c r="P21" s="17">
+        <v>214</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21">
+        <f>O21+2</f>
+        <v>3897</v>
+      </c>
+      <c r="T21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1159,8 +1432,33 @@
       <c r="G22" s="7"/>
       <c r="H22" s="5"/>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="31">
+        <v>15</v>
+      </c>
+      <c r="M22" s="32">
+        <v>6</v>
+      </c>
+      <c r="N22" s="32">
+        <v>12</v>
+      </c>
+      <c r="O22" s="32">
+        <v>3799</v>
+      </c>
+      <c r="P22" s="33">
+        <v>205</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22">
+        <f>O22+2</f>
+        <v>3801</v>
+      </c>
+      <c r="T22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1170,8 +1468,33 @@
       <c r="G23" s="7"/>
       <c r="H23" s="5"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="31">
+        <v>15</v>
+      </c>
+      <c r="M23" s="32">
+        <v>6</v>
+      </c>
+      <c r="N23" s="32">
+        <v>12</v>
+      </c>
+      <c r="O23" s="32">
+        <v>3813</v>
+      </c>
+      <c r="P23" s="33">
+        <v>205</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23">
+        <f>O23+2</f>
+        <v>3815</v>
+      </c>
+      <c r="T23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1181,8 +1504,33 @@
       <c r="G24" s="7"/>
       <c r="H24" s="5"/>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L24" s="31">
+        <v>15</v>
+      </c>
+      <c r="M24" s="32">
+        <v>6</v>
+      </c>
+      <c r="N24" s="32">
+        <v>12</v>
+      </c>
+      <c r="O24" s="32">
+        <v>3893</v>
+      </c>
+      <c r="P24" s="33">
+        <v>205</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24">
+        <f>O24+2</f>
+        <v>3895</v>
+      </c>
+      <c r="T24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1192,8 +1540,33 @@
       <c r="G25" s="7"/>
       <c r="H25" s="5"/>
       <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L25" s="36">
+        <v>15</v>
+      </c>
+      <c r="M25" s="37">
+        <v>3</v>
+      </c>
+      <c r="N25" s="37">
+        <v>8</v>
+      </c>
+      <c r="O25" s="37">
+        <v>422</v>
+      </c>
+      <c r="P25" s="9">
+        <v>196</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25">
+        <f>O25+2</f>
+        <v>424</v>
+      </c>
+      <c r="T25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1204,7 +1577,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1215,7 +1588,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1226,7 +1599,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1237,7 +1610,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3DF829-3DB6-4C53-87C4-A0F9EFEF1A7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74ABFA-E8B8-4F5A-8936-A3A460AFBF11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>CARBONATES 174 175 176 189 190 191</t>
+  </si>
+  <si>
+    <t>PHYLLOSILICATES 189 190 191 192 193 201</t>
   </si>
 </sst>
 </file>
@@ -761,27 +764,27 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -793,7 +796,7 @@
       <c r="M1" s="45"/>
       <c r="N1" s="45"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -812,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -853,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>51</v>
       </c>
@@ -894,7 +897,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>51</v>
       </c>
@@ -935,7 +938,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>52</v>
       </c>
@@ -976,7 +979,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>52</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>52</v>
       </c>
@@ -1091,7 +1094,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>56</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="H11" s="5">
         <v>3893</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="24">
         <v>205</v>
       </c>
       <c r="L11" s="4">
@@ -1132,7 +1135,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>56</v>
       </c>
@@ -1157,7 +1160,7 @@
       <c r="H12" s="5">
         <v>3893</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="24">
         <v>205</v>
       </c>
       <c r="L12" s="4">
@@ -1173,7 +1176,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1198,7 +1201,7 @@
       <c r="H13" s="5">
         <v>3799</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="24">
         <v>205</v>
       </c>
       <c r="L13" s="4">
@@ -1214,7 +1217,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>56</v>
       </c>
@@ -1239,7 +1242,7 @@
       <c r="H14" s="5">
         <v>3799</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="24">
         <v>205</v>
       </c>
       <c r="L14" s="4">
@@ -1255,7 +1258,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>56</v>
       </c>
@@ -1280,7 +1283,7 @@
       <c r="H15" s="5">
         <v>3893</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="24">
         <v>205</v>
       </c>
       <c r="L15" s="8">
@@ -1296,52 +1299,124 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="7"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5">
+        <v>6</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7">
+        <v>12</v>
+      </c>
+      <c r="H16" s="32">
+        <v>3813</v>
+      </c>
+      <c r="I16" s="7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="7">
+        <v>12</v>
+      </c>
+      <c r="H17" s="32">
+        <v>3813</v>
+      </c>
+      <c r="I17" s="7">
+        <v>205</v>
+      </c>
       <c r="M17" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="7">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3893</v>
+      </c>
+      <c r="I18" s="7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>57</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5">
+        <v>6</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3893</v>
+      </c>
+      <c r="I19" s="7">
+        <v>205</v>
+      </c>
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
@@ -1351,7 +1426,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="28"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1386,7 +1461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1422,7 +1497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1458,7 +1533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1494,7 +1569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1530,7 +1605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1566,7 +1641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1577,7 +1652,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1588,7 +1663,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1599,7 +1674,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1610,7 +1685,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1627,6 +1702,18 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="L1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H5:H19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74ABFA-E8B8-4F5A-8936-A3A460AFBF11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23C62FA-47C1-45C2-BDF2-C0A740682995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -351,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,10 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -396,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -411,64 +408,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,729 +730,765 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="L1" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="L1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="19" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="I4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>51</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>15</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>16</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>3895</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>214</v>
       </c>
       <c r="L5" s="4">
         <v>8</v>
       </c>
-      <c r="M5" s="5">
-        <v>6</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="M5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
         <v>4</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="20">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>51</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4">
         <v>15</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>16</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>3895</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>214</v>
       </c>
       <c r="L6" s="4">
         <v>8</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="1">
         <v>4</v>
       </c>
-      <c r="N6" s="5">
-        <v>6</v>
-      </c>
-      <c r="O6" s="21">
+      <c r="N6" s="1">
+        <v>6</v>
+      </c>
+      <c r="O6" s="20">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>52</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>16</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>3895</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>214</v>
       </c>
       <c r="L7" s="4">
         <v>8</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="1">
         <v>8</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>52</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>15</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>16</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>3895</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>214</v>
       </c>
       <c r="L8" s="4">
         <v>8</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="1">
         <v>12</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>52</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>15</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>16</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>3895</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <v>214</v>
       </c>
       <c r="L9" s="4">
         <v>8</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="1">
         <v>3</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="1">
         <v>16</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>52</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4">
         <v>15</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>16</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>3895</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <v>214</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>56</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4">
         <v>15</v>
       </c>
-      <c r="E11" s="5">
-        <v>6</v>
-      </c>
-      <c r="F11" s="43" t="s">
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>12</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="1">
         <v>3893</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>205</v>
       </c>
       <c r="L11" s="4">
         <v>15</v>
       </c>
-      <c r="M11" s="5">
-        <v>6</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="M11" s="1">
+        <v>6</v>
+      </c>
+      <c r="N11" s="1">
         <v>4</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>56</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="4">
         <v>15</v>
       </c>
-      <c r="E12" s="5">
-        <v>6</v>
-      </c>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>12</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="1">
         <v>3893</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>205</v>
       </c>
       <c r="L12" s="4">
         <v>15</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="1">
         <v>4</v>
       </c>
-      <c r="N12" s="5">
-        <v>6</v>
-      </c>
-      <c r="O12" s="21">
+      <c r="N12" s="1">
+        <v>6</v>
+      </c>
+      <c r="O12" s="20">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>56</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>15</v>
       </c>
-      <c r="E13" s="5">
-        <v>6</v>
-      </c>
-      <c r="F13" s="44" t="s">
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="1">
         <v>3799</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <v>205</v>
       </c>
       <c r="L13" s="4">
         <v>15</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="1">
         <v>8</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>56</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="4">
         <v>15</v>
       </c>
-      <c r="E14" s="5">
-        <v>6</v>
-      </c>
-      <c r="F14" s="44" t="s">
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>12</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="1">
         <v>3799</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <v>205</v>
       </c>
       <c r="L14" s="4">
         <v>15</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="1">
         <v>12</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="20">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>56</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="4">
         <v>15</v>
       </c>
-      <c r="E15" s="5">
-        <v>6</v>
-      </c>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>12</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="1">
         <v>3893</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <v>205</v>
       </c>
-      <c r="L15" s="8">
-        <v>15</v>
-      </c>
-      <c r="M15" s="9">
+      <c r="L15" s="7">
+        <v>15</v>
+      </c>
+      <c r="M15" s="8">
         <v>3</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>16</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="21">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>57</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="4">
         <v>15</v>
       </c>
-      <c r="E16" s="5">
-        <v>6</v>
-      </c>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>12</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="1">
         <v>3813</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="23">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>57</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4">
         <v>15</v>
       </c>
-      <c r="E17" s="5">
-        <v>6</v>
-      </c>
-      <c r="F17" s="35" t="s">
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>12</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="1">
         <v>3813</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="23">
         <v>205</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>57</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="4">
         <v>15</v>
       </c>
-      <c r="E18" s="5">
-        <v>6</v>
-      </c>
-      <c r="F18" s="43" t="s">
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>12</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="1">
         <v>3893</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="23">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>57</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4">
         <v>15</v>
       </c>
-      <c r="E19" s="5">
-        <v>6</v>
-      </c>
-      <c r="F19" s="43" t="s">
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>12</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="1">
         <v>3893</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="23">
         <v>205</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="27" t="s">
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="26" t="s">
         <v>32</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="28"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-      <c r="L20" s="13" t="s">
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="4">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="6">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3799</v>
+      </c>
+      <c r="I20" s="23">
+        <v>205</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="29" t="s">
+      <c r="O20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="29" t="s">
+      <c r="P20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="30" t="s">
+      <c r="Q20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="26" t="s">
+      <c r="S20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="T20" s="26" t="s">
+      <c r="T20" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="L21" s="39">
-        <v>15</v>
-      </c>
-      <c r="M21" s="40">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="6">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3799</v>
+      </c>
+      <c r="I21" s="23">
+        <v>205</v>
+      </c>
+      <c r="L21" s="15">
+        <v>15</v>
+      </c>
+      <c r="M21" s="16">
         <v>3</v>
       </c>
-      <c r="N21" s="40">
+      <c r="N21" s="16">
         <v>16</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="16">
         <v>3895</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="16">
         <v>214</v>
       </c>
-      <c r="Q21" s="42" t="s">
+      <c r="Q21" s="31" t="s">
         <v>13</v>
       </c>
       <c r="S21">
@@ -1497,32 +1499,50 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-      <c r="L22" s="31">
-        <v>15</v>
-      </c>
-      <c r="M22" s="32">
-        <v>6</v>
-      </c>
-      <c r="N22" s="32">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="6">
         <v>12</v>
       </c>
-      <c r="O22" s="32">
+      <c r="H22" s="1">
         <v>3799</v>
       </c>
-      <c r="P22" s="33">
+      <c r="I22" s="23">
         <v>205</v>
       </c>
-      <c r="Q22" s="34" t="s">
+      <c r="L22" s="4">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1">
+        <v>12</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3799</v>
+      </c>
+      <c r="P22" s="1">
+        <v>205</v>
+      </c>
+      <c r="Q22" s="28" t="s">
         <v>28</v>
       </c>
       <c r="S22">
@@ -1533,32 +1553,32 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
-      <c r="L23" s="31">
-        <v>15</v>
-      </c>
-      <c r="M23" s="32">
-        <v>6</v>
-      </c>
-      <c r="N23" s="32">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="6"/>
+      <c r="L23" s="4">
+        <v>15</v>
+      </c>
+      <c r="M23" s="1">
+        <v>6</v>
+      </c>
+      <c r="N23" s="1">
         <v>12</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="1">
         <v>3813</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="1">
         <v>205</v>
       </c>
-      <c r="Q23" s="35" t="s">
+      <c r="Q23" s="29" t="s">
         <v>29</v>
       </c>
       <c r="S23">
@@ -1569,32 +1589,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7"/>
-      <c r="L24" s="31">
-        <v>15</v>
-      </c>
-      <c r="M24" s="32">
-        <v>6</v>
-      </c>
-      <c r="N24" s="32">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="6"/>
+      <c r="L24" s="4">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1">
         <v>12</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="1">
         <v>3893</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="1">
         <v>205</v>
       </c>
-      <c r="Q24" s="35" t="s">
+      <c r="Q24" s="29" t="s">
         <v>30</v>
       </c>
       <c r="S24">
@@ -1605,32 +1625,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="7"/>
-      <c r="L25" s="36">
-        <v>15</v>
-      </c>
-      <c r="M25" s="37">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="6"/>
+      <c r="L25" s="7">
+        <v>15</v>
+      </c>
+      <c r="M25" s="8">
         <v>3</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="8">
         <v>8</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="8">
         <v>422</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="8">
         <v>196</v>
       </c>
-      <c r="Q25" s="38" t="s">
+      <c r="Q25" s="30" t="s">
         <v>31</v>
       </c>
       <c r="S25">
@@ -1641,29 +1661,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1674,7 +1694,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1685,7 +1705,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1703,6 +1723,30 @@
     <mergeCell ref="L1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23C62FA-47C1-45C2-BDF2-C0A740682995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E611DE16-22E9-4C4E-B306-F53BEEF5235E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>PHYLLOSILICATES 189 190 191 192 193 201</t>
+  </si>
+  <si>
+    <t>FULLSCAN 148 6 178</t>
+  </si>
+  <si>
+    <t>196,1,422,422,1,-1,PHOBOS,NONE,FULLSCAN ORDERS 6 148 178</t>
+  </si>
+  <si>
+    <t>205,1,3799,3799,1,-1,PHOBOS,NONE,CARBONATES 174 175 176 189 190 191</t>
+  </si>
+  <si>
+    <t>205,1,3813,3813,1,-1,PHOBOS,NONE,PHYLLOSILICATES 189 190 191 192 193 201</t>
+  </si>
+  <si>
+    <t>205,1,3893,3893,1,-1,PHOBOS,NONE,HYDRATION BAND 148 153 158 164 170 177</t>
   </si>
 </sst>
 </file>
@@ -351,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,9 +421,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -445,6 +457,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -727,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +761,7 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -751,27 +772,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="L1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="L1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="L3" s="15"/>
@@ -844,10 +865,10 @@
       <c r="G5" s="6">
         <v>16</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="38">
         <v>3895</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>214</v>
       </c>
       <c r="L5" s="4">
@@ -885,10 +906,10 @@
       <c r="G6" s="6">
         <v>16</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="38">
         <v>3895</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>214</v>
       </c>
       <c r="L6" s="4">
@@ -926,10 +947,10 @@
       <c r="G7" s="6">
         <v>16</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="38">
         <v>3895</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>214</v>
       </c>
       <c r="L7" s="4">
@@ -967,10 +988,10 @@
       <c r="G8" s="6">
         <v>16</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="38">
         <v>3895</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>214</v>
       </c>
       <c r="L8" s="4">
@@ -1008,10 +1029,10 @@
       <c r="G9" s="6">
         <v>16</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="38">
         <v>3895</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>214</v>
       </c>
       <c r="L9" s="4">
@@ -1049,10 +1070,10 @@
       <c r="G10" s="6">
         <v>16</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="38">
         <v>3895</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>214</v>
       </c>
       <c r="L10" s="4"/>
@@ -1076,16 +1097,16 @@
       <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="6">
         <v>12</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="38">
         <v>3893</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>205</v>
       </c>
       <c r="L11" s="4">
@@ -1117,16 +1138,16 @@
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="6">
         <v>12</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="38">
         <v>3893</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>205</v>
       </c>
       <c r="L12" s="4">
@@ -1164,10 +1185,10 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="38">
         <v>3799</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>205</v>
       </c>
       <c r="L13" s="4">
@@ -1205,10 +1226,10 @@
       <c r="G14" s="6">
         <v>12</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="38">
         <v>3799</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>205</v>
       </c>
       <c r="L14" s="4">
@@ -1240,16 +1261,16 @@
       <c r="E15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="6">
         <v>12</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="38">
         <v>3893</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>205</v>
       </c>
       <c r="L15" s="7">
@@ -1281,16 +1302,16 @@
       <c r="E16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="6">
         <v>12</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="38">
         <v>3813</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>205</v>
       </c>
     </row>
@@ -1310,19 +1331,19 @@
       <c r="E17" s="1">
         <v>6</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="6">
         <v>12</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="38">
         <v>3813</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>205</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1342,16 +1363,16 @@
       <c r="E18" s="1">
         <v>6</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="6">
         <v>12</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="38">
         <v>3893</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>205</v>
       </c>
     </row>
@@ -1371,26 +1392,26 @@
       <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="6">
         <v>12</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="38">
         <v>3893</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>205</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="26" t="s">
+      <c r="O19" s="25" t="s">
         <v>32</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="27"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1414,10 +1435,10 @@
       <c r="G20" s="6">
         <v>12</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="38">
         <v>3799</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>205</v>
       </c>
       <c r="L20" s="12" t="s">
@@ -1438,10 +1459,10 @@
       <c r="Q20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="T20" s="25" t="s">
+      <c r="T20" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1467,10 +1488,10 @@
       <c r="G21" s="6">
         <v>12</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="38">
         <v>3799</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>205</v>
       </c>
       <c r="L21" s="15">
@@ -1488,7 +1509,7 @@
       <c r="P21" s="16">
         <v>214</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="Q21" s="30" t="s">
         <v>13</v>
       </c>
       <c r="S21">
@@ -1521,10 +1542,10 @@
       <c r="G22" s="6">
         <v>12</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="38">
         <v>3799</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>205</v>
       </c>
       <c r="L22" s="4">
@@ -1542,7 +1563,7 @@
       <c r="P22" s="1">
         <v>205</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="27" t="s">
         <v>28</v>
       </c>
       <c r="S22">
@@ -1554,15 +1575,33 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="6"/>
+      <c r="A23" s="4">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="6">
+        <v>8</v>
+      </c>
+      <c r="H23" s="38">
+        <v>422</v>
+      </c>
+      <c r="I23" s="22">
+        <v>196</v>
+      </c>
       <c r="L23" s="4">
         <v>15</v>
       </c>
@@ -1578,7 +1617,7 @@
       <c r="P23" s="1">
         <v>205</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="28" t="s">
         <v>29</v>
       </c>
       <c r="S23">
@@ -1590,15 +1629,33 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="4">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="6">
+        <v>12</v>
+      </c>
+      <c r="H24" s="38">
+        <v>3813</v>
+      </c>
+      <c r="I24" s="22">
+        <v>205</v>
+      </c>
       <c r="L24" s="4">
         <v>15</v>
       </c>
@@ -1614,7 +1671,7 @@
       <c r="P24" s="1">
         <v>205</v>
       </c>
-      <c r="Q24" s="29" t="s">
+      <c r="Q24" s="28" t="s">
         <v>30</v>
       </c>
       <c r="S24">
@@ -1626,15 +1683,33 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="4">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="4">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="6">
+        <v>12</v>
+      </c>
+      <c r="H25" s="38">
+        <v>3813</v>
+      </c>
+      <c r="I25" s="22">
+        <v>205</v>
+      </c>
       <c r="L25" s="7">
         <v>15</v>
       </c>
@@ -1650,7 +1725,7 @@
       <c r="P25" s="8">
         <v>196</v>
       </c>
-      <c r="Q25" s="30" t="s">
+      <c r="Q25" s="29" t="s">
         <v>31</v>
       </c>
       <c r="S25">
@@ -1663,58 +1738,764 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="6"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="6"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="37"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="6"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="37" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="6"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="6"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="6"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="6"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="37"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="6"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="37"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="6"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="37"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="6"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="6"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="37"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="6"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="37"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="6"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="37"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="6"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="37"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="6"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="37"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="6"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="37"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="6"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="37"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="6"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="6"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="37"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="6"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="37"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="6"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="37"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="6"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="37"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="6"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="37"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="6"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="37"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="6"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="37"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1722,40 +2503,60 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="L1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:H19">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="H5:H25">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I25">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="H26:H45">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E611DE16-22E9-4C4E-B306-F53BEEF5235E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967235B-0075-431C-8296-C3FBD04F7D30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -135,9 +135,6 @@
     <t>3338,3338,3338,0,0,0 # ORDERS 169 169 169 -- NADIR_16ROWS_15SECS_3SUBDS -- EXECTIME=14340MS</t>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
     <t>Full row</t>
   </si>
   <si>
@@ -163,13 +160,43 @@
   </si>
   <si>
     <t>205,1,3893,3893,1,-1,PHOBOS,NONE,HYDRATION BAND 148 153 158 164 170 177</t>
+  </si>
+  <si>
+    <t>UVIS linescan</t>
+  </si>
+  <si>
+    <t>LNO linescan</t>
+  </si>
+  <si>
+    <t>REDUCED FOV</t>
+  </si>
+  <si>
+    <t>Excel row</t>
+  </si>
+  <si>
+    <t>3337,3337,3337,0,0,0 # ORDERS 169 169 169 -- NADIR_8ROWS_15SECS_3SUBDS -- EXECTIME=14523MS</t>
+  </si>
+  <si>
+    <t>3363,3373,3383,3405,3415,3425 # ORDERS 174 175 176 189 190 191 -- NADIR_8ROWS_15SECS_6SUBDS -- EXECTIME=14431MS</t>
+  </si>
+  <si>
+    <t>3405,3415,3425,3435,3445,3451 # ORDERS 189 190 191 192 193 201 -- NADIR_8ROWS_15SECS_6SUBDS -- EXECTIME=14431MS</t>
+  </si>
+  <si>
+    <t>3237,3243,3261,3297,3343,3393 # ORDERS 148 153 158 164 170 177 -- NADIR_8ROWS_15SECS_6SUBDS -- EXECTIME=14431MS</t>
+  </si>
+  <si>
+    <t>&lt;reduce FOV to 8 rows</t>
+  </si>
+  <si>
+    <t>3SUBD ORDER 169</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +208,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,14 +502,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="H26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,12 +921,12 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G5" s="6">
         <v>16</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="1">
         <v>3895</v>
       </c>
       <c r="I5" s="22">
@@ -901,12 +962,12 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G6" s="6">
         <v>16</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="1">
         <v>3895</v>
       </c>
       <c r="I6" s="22">
@@ -942,12 +1003,12 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6">
         <v>16</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="1">
         <v>3895</v>
       </c>
       <c r="I7" s="22">
@@ -983,12 +1044,12 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G8" s="6">
         <v>16</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="1">
         <v>3895</v>
       </c>
       <c r="I8" s="22">
@@ -1024,12 +1085,12 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6">
         <v>16</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="1">
         <v>3895</v>
       </c>
       <c r="I9" s="22">
@@ -1065,12 +1126,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G10" s="6">
         <v>16</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="1">
         <v>3895</v>
       </c>
       <c r="I10" s="22">
@@ -1098,12 +1159,12 @@
         <v>6</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="6">
         <v>12</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="1">
         <v>3893</v>
       </c>
       <c r="I11" s="22">
@@ -1139,12 +1200,12 @@
         <v>6</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="6">
         <v>12</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="1">
         <v>3893</v>
       </c>
       <c r="I12" s="22">
@@ -1180,12 +1241,12 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="1">
         <v>3799</v>
       </c>
       <c r="I13" s="22">
@@ -1221,12 +1282,12 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="6">
         <v>12</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="1">
         <v>3799</v>
       </c>
       <c r="I14" s="22">
@@ -1262,12 +1323,12 @@
         <v>6</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="6">
         <v>12</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="1">
         <v>3893</v>
       </c>
       <c r="I15" s="22">
@@ -1303,12 +1364,12 @@
         <v>6</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="6">
         <v>12</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="1">
         <v>3813</v>
       </c>
       <c r="I16" s="22">
@@ -1332,12 +1393,12 @@
         <v>6</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="6">
         <v>12</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="1">
         <v>3813</v>
       </c>
       <c r="I17" s="22">
@@ -1364,12 +1425,12 @@
         <v>6</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="6">
         <v>12</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="1">
         <v>3893</v>
       </c>
       <c r="I18" s="22">
@@ -1393,12 +1454,12 @@
         <v>6</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="6">
         <v>12</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="1">
         <v>3893</v>
       </c>
       <c r="I19" s="22">
@@ -1430,12 +1491,12 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="6">
         <v>12</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="1">
         <v>3799</v>
       </c>
       <c r="I20" s="22">
@@ -1460,10 +1521,10 @@
         <v>26</v>
       </c>
       <c r="S20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="T20" s="24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1483,12 +1544,12 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="6">
         <v>12</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="1">
         <v>3799</v>
       </c>
       <c r="I21" s="22">
@@ -1537,12 +1598,12 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="6">
         <v>12</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="1">
         <v>3799</v>
       </c>
       <c r="I22" s="22">
@@ -1591,12 +1652,12 @@
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="6">
         <v>8</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="1">
         <v>422</v>
       </c>
       <c r="I23" s="22">
@@ -1645,12 +1706,12 @@
         <v>6</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="6">
         <v>12</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="1">
         <v>3813</v>
       </c>
       <c r="I24" s="22">
@@ -1699,12 +1760,12 @@
         <v>6</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="6">
         <v>12</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="1">
         <v>3813</v>
       </c>
       <c r="I25" s="22">
@@ -1737,83 +1798,150 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4">
+        <v>60</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="6"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="37"/>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="6">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3892</v>
+      </c>
+      <c r="I26" s="22">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4">
+        <v>60</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="6"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37"/>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="6">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3892</v>
+      </c>
+      <c r="I27" s="22">
+        <v>196</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4">
+        <v>60</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="6"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="37" t="s">
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="6">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I28" s="22">
+        <v>214</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="4">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="6">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I29" s="22">
+        <v>214</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="31" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="6"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -1825,16 +1953,18 @@
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="38"/>
+      <c r="G30" s="6">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="6"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="37" t="s">
-        <v>45</v>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -1846,16 +1976,18 @@
       <c r="D31" s="4"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="38"/>
+      <c r="G31" s="6">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="6"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="37" t="s">
-        <v>42</v>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -1867,17 +1999,19 @@
       <c r="D32" s="4"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="38"/>
+      <c r="G32" s="6">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="6"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="31"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>5</v>
@@ -1886,17 +2020,19 @@
       <c r="D33" s="4"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="6">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="6"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="37"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="31"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>5</v>
@@ -1906,16 +2042,18 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="6"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="37"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L34" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="31"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>5</v>
@@ -1925,16 +2063,16 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="38"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="6"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="31"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1942,16 +2080,15 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="38"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="6"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="37"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L36" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1959,16 +2096,10 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="38"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="6"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="37"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1976,16 +2107,16 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="6"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="37"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L38" s="15"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1993,16 +2124,22 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="38"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="6"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="37"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2010,16 +2147,22 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="38"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="6"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L40" s="4">
+        <v>15</v>
+      </c>
+      <c r="M40" s="1">
+        <v>6</v>
+      </c>
+      <c r="N40" s="1">
+        <v>4</v>
+      </c>
+      <c r="O40" s="20">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2027,16 +2170,22 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="38"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="6"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="37"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L41" s="4">
+        <v>15</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="1">
+        <v>8</v>
+      </c>
+      <c r="O41" s="20">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2044,16 +2193,22 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="38"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="6"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="37"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L42" s="37">
+        <v>15</v>
+      </c>
+      <c r="M42" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="39">
+        <v>12</v>
+      </c>
+      <c r="O42" s="40">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2061,16 +2216,22 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="38"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="6"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L43" s="41">
+        <v>15</v>
+      </c>
+      <c r="M43" s="42">
+        <v>3</v>
+      </c>
+      <c r="N43" s="42">
+        <v>16</v>
+      </c>
+      <c r="O43" s="43">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2078,16 +2239,10 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="38"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="6"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="37"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2095,16 +2250,13 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="38"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="6"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="37"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M45" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2114,14 +2266,8 @@
       <c r="G46" s="6"/>
       <c r="H46" s="1"/>
       <c r="I46" s="6"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="37"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2131,14 +2277,16 @@
       <c r="G47" s="6"/>
       <c r="H47" s="1"/>
       <c r="I47" s="6"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="37"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L47" s="15"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="26"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2148,14 +2296,32 @@
       <c r="G48" s="6"/>
       <c r="H48" s="1"/>
       <c r="I48" s="6"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="37"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S48" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="T48" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2165,14 +2331,33 @@
       <c r="G49" s="6"/>
       <c r="H49" s="1"/>
       <c r="I49" s="6"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="37"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L49" s="15">
+        <v>15</v>
+      </c>
+      <c r="M49" s="16">
+        <v>3</v>
+      </c>
+      <c r="N49" s="16">
+        <v>8</v>
+      </c>
+      <c r="O49" s="16">
+        <v>3894</v>
+      </c>
+      <c r="P49" s="16">
+        <v>196</v>
+      </c>
+      <c r="Q49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="S49">
+        <f>O49+2</f>
+        <v>3896</v>
+      </c>
+      <c r="T49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2182,14 +2367,33 @@
       <c r="G50" s="6"/>
       <c r="H50" s="1"/>
       <c r="I50" s="6"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="37"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L50" s="4">
+        <v>15</v>
+      </c>
+      <c r="M50" s="1">
+        <v>6</v>
+      </c>
+      <c r="N50" s="1">
+        <v>8</v>
+      </c>
+      <c r="O50" s="1">
+        <v>3798</v>
+      </c>
+      <c r="P50" s="1">
+        <v>196</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S50">
+        <f>O50+2</f>
+        <v>3800</v>
+      </c>
+      <c r="T50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2199,8 +2403,33 @@
       <c r="G51" s="6"/>
       <c r="H51" s="1"/>
       <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L51" s="4">
+        <v>15</v>
+      </c>
+      <c r="M51" s="1">
+        <v>6</v>
+      </c>
+      <c r="N51" s="1">
+        <v>8</v>
+      </c>
+      <c r="O51" s="1">
+        <v>3812</v>
+      </c>
+      <c r="P51" s="1">
+        <v>196</v>
+      </c>
+      <c r="Q51" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S51">
+        <f>O51+2</f>
+        <v>3814</v>
+      </c>
+      <c r="T51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2210,8 +2439,33 @@
       <c r="G52" s="6"/>
       <c r="H52" s="1"/>
       <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L52" s="4">
+        <v>15</v>
+      </c>
+      <c r="M52" s="1">
+        <v>6</v>
+      </c>
+      <c r="N52" s="1">
+        <v>8</v>
+      </c>
+      <c r="O52" s="1">
+        <v>3892</v>
+      </c>
+      <c r="P52" s="1">
+        <v>196</v>
+      </c>
+      <c r="Q52" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="S52">
+        <f>O52+2</f>
+        <v>3894</v>
+      </c>
+      <c r="T52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2221,8 +2475,33 @@
       <c r="G53" s="6"/>
       <c r="H53" s="1"/>
       <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L53" s="41">
+        <v>15</v>
+      </c>
+      <c r="M53" s="42">
+        <v>3</v>
+      </c>
+      <c r="N53" s="42">
+        <v>8</v>
+      </c>
+      <c r="O53" s="42">
+        <v>422</v>
+      </c>
+      <c r="P53" s="42">
+        <v>196</v>
+      </c>
+      <c r="Q53" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="S53">
+        <f>O53+2</f>
+        <v>424</v>
+      </c>
+      <c r="T53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2233,7 +2512,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2244,7 +2523,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2255,7 +2534,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2266,7 +2545,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2277,7 +2556,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2288,7 +2567,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2299,7 +2578,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2310,7 +2589,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2321,7 +2600,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2332,7 +2611,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2377,134 +2656,66 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="6"/>
+      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="6"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="6"/>
+      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="6"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="6"/>
+      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="I71" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L36:N36"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:H25">
-    <cfRule type="iconSet" priority="7">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -2512,17 +2723,17 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I25">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2532,17 +2743,9 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H45">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="H30:H40">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -2550,7 +2753,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="2">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -2559,6 +2762,44 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H29">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967235B-0075-431C-8296-C3FBD04F7D30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9F28CC-522F-46F8-B6F0-94FCA45B5748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="62">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -190,13 +190,34 @@
   </si>
   <si>
     <t>3SUBD ORDER 169</t>
+  </si>
+  <si>
+    <t>INCREASED FOV</t>
+  </si>
+  <si>
+    <t>3272,3306,3348,0,0,0 # ORDERS 160 165 170 -- NADIR_16ROWS_15SECS_3SUBDS -- EXECTIME=14340MS</t>
+  </si>
+  <si>
+    <t>TEST: 160 165 170</t>
+  </si>
+  <si>
+    <t>TEST 160 165 170</t>
+  </si>
+  <si>
+    <t>&lt;test 16 rows</t>
+  </si>
+  <si>
+    <t>214,1,3849,3849,1,-1,PHOBOS,NONE,TEST 160 165 170 WITH 16 ROWS</t>
+  </si>
+  <si>
+    <t>Deimos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +249,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +274,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -406,10 +445,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,18 +530,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -529,8 +557,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -809,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="H26:I26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,27 +887,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="L1" s="32" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="L3" s="15"/>
@@ -1945,19 +1999,33 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4">
+        <v>61</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>37</v>
+      </c>
       <c r="G30" s="6">
         <v>8</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="1">
+        <v>3892</v>
+      </c>
+      <c r="I30" s="22">
+        <v>196</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1968,19 +2036,33 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4">
+        <v>61</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>37</v>
+      </c>
       <c r="G31" s="6">
         <v>8</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="1">
+        <v>3892</v>
+      </c>
+      <c r="I31" s="22">
+        <v>196</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1991,19 +2073,36 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4">
+        <v>61</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="4">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="G32" s="6">
-        <v>8</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3849</v>
+      </c>
+      <c r="I32" s="22">
+        <v>214</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2012,39 +2111,68 @@
       <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4">
+        <v>61</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="4">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="G33" s="6">
-        <v>8</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3849</v>
+      </c>
+      <c r="I33" s="22">
+        <v>214</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4">
+        <v>61</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="6"/>
-      <c r="L34" s="36" t="s">
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="4">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="6">
+        <v>16</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I34" s="22">
+        <v>214</v>
+      </c>
+      <c r="L34" s="32" t="s">
         <v>47</v>
       </c>
       <c r="M34" s="1"/>
@@ -2054,17 +2182,33 @@
       <c r="Q34" s="31"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="4">
+        <v>61</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="6"/>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="4">
+        <v>15</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="6">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I35" s="22">
+        <v>214</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2073,42 +2217,96 @@
       <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="6"/>
-      <c r="L36" s="32" t="s">
+      <c r="A36" s="4">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="4">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="6">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3849</v>
+      </c>
+      <c r="I36" s="22">
+        <v>214</v>
+      </c>
+      <c r="L36" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="6"/>
+      <c r="A37" s="4">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="4">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="6">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3849</v>
+      </c>
+      <c r="I37" s="22">
+        <v>214</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="6"/>
+      <c r="A38" s="4">
+        <v>62</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="4">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="6">
+        <v>16</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I38" s="22">
+        <v>214</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
@@ -2117,15 +2315,33 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="6"/>
+      <c r="A39" s="4">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="4">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="6">
+        <v>16</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I39" s="22">
+        <v>214</v>
+      </c>
       <c r="L39" s="12" t="s">
         <v>7</v>
       </c>
@@ -2140,15 +2356,33 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="6"/>
+      <c r="A40" s="4">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="4">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="6">
+        <v>16</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I40" s="22">
+        <v>214</v>
+      </c>
       <c r="L40" s="4">
         <v>15</v>
       </c>
@@ -2163,15 +2397,33 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="6"/>
+      <c r="A41" s="4">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="4">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="6">
+        <v>16</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I41" s="22">
+        <v>214</v>
+      </c>
       <c r="L41" s="4">
         <v>15</v>
       </c>
@@ -2186,56 +2438,82 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="6"/>
-      <c r="L42" s="37">
-        <v>15</v>
-      </c>
-      <c r="M42" s="38" t="s">
+      <c r="A42" s="4">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="4">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="6">
+        <v>16</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I42" s="22">
+        <v>214</v>
+      </c>
+      <c r="L42" s="33">
+        <v>15</v>
+      </c>
+      <c r="M42" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="39">
+      <c r="N42" s="35">
         <v>12</v>
       </c>
-      <c r="O42" s="40">
+      <c r="O42" s="36">
         <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4">
+        <v>15</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="6"/>
       <c r="H43" s="1"/>
       <c r="I43" s="6"/>
-      <c r="L43" s="41">
-        <v>15</v>
-      </c>
-      <c r="M43" s="42">
+      <c r="L43" s="37">
+        <v>15</v>
+      </c>
+      <c r="M43" s="38">
         <v>3</v>
       </c>
-      <c r="N43" s="42">
+      <c r="N43" s="38">
         <v>16</v>
       </c>
-      <c r="O43" s="43">
+      <c r="O43" s="39">
         <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4">
+        <v>15</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="6"/>
@@ -2244,9 +2522,13 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4">
+        <v>15</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="6"/>
@@ -2258,9 +2540,13 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4">
+        <v>15</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="6"/>
@@ -2269,9 +2555,13 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="4">
+        <v>15</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="6"/>
@@ -2288,9 +2578,13 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4">
+        <v>15</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="6"/>
@@ -2323,9 +2617,13 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4">
+        <v>15</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="6"/>
@@ -2359,9 +2657,13 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4">
+        <v>15</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="6"/>
@@ -2475,22 +2777,22 @@
       <c r="G53" s="6"/>
       <c r="H53" s="1"/>
       <c r="I53" s="6"/>
-      <c r="L53" s="41">
-        <v>15</v>
-      </c>
-      <c r="M53" s="42">
+      <c r="L53" s="37">
+        <v>15</v>
+      </c>
+      <c r="M53" s="38">
         <v>3</v>
       </c>
-      <c r="N53" s="42">
+      <c r="N53" s="38">
         <v>8</v>
       </c>
-      <c r="O53" s="42">
+      <c r="O53" s="38">
         <v>422</v>
       </c>
-      <c r="P53" s="42">
+      <c r="P53" s="38">
         <v>196</v>
       </c>
-      <c r="Q53" s="44" t="s">
+      <c r="Q53" s="40" t="s">
         <v>31</v>
       </c>
       <c r="S53">
@@ -2577,6 +2879,9 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
       <c r="I60" s="6"/>
+      <c r="L60" s="32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -2599,6 +2904,11 @@
       <c r="G62" s="6"/>
       <c r="H62" s="1"/>
       <c r="I62" s="6"/>
+      <c r="M62" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -2621,8 +2931,14 @@
       <c r="G64" s="6"/>
       <c r="H64" s="1"/>
       <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L64" s="15"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2632,8 +2948,20 @@
       <c r="G65" s="6"/>
       <c r="H65" s="1"/>
       <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L65" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O65" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2643,8 +2971,20 @@
       <c r="G66" s="6"/>
       <c r="H66" s="1"/>
       <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L66" s="41">
+        <v>15</v>
+      </c>
+      <c r="M66" s="42">
+        <v>3</v>
+      </c>
+      <c r="N66" s="42">
+        <v>16</v>
+      </c>
+      <c r="O66" s="43">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2655,7 +2995,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2666,7 +3006,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2677,7 +3017,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2687,8 +3027,11 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M70" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2699,15 +3042,84 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L72" s="15"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="26"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L73" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O73" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P73" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S73" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="T73" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L74" s="15">
+        <v>15</v>
+      </c>
+      <c r="M74" s="16">
+        <v>3</v>
+      </c>
+      <c r="N74" s="16">
+        <v>16</v>
+      </c>
+      <c r="O74" s="16">
+        <v>3849</v>
+      </c>
+      <c r="P74" s="16">
+        <v>214</v>
+      </c>
+      <c r="Q74" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S74">
+        <f>O74+2</f>
+        <v>3851</v>
+      </c>
+      <c r="T74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q78" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M62:O62"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:H25">
-    <cfRule type="iconSet" priority="24">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="iconSet" priority="70">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -2715,7 +3127,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -2725,7 +3137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2733,7 +3145,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2744,44 +3156,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H40">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="27">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H29">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I29">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="I6:I9">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2789,7 +3165,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2800,6 +3176,274 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H30 H32:H35">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I35">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I35 I43:I54">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I37">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I37">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9F28CC-522F-46F8-B6F0-94FCA45B5748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2189E63-E41D-4CCB-BD0D-3CA270165E07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="65">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>Deimos</t>
+  </si>
+  <si>
+    <t>3550,0,0,0,0,0 # TARGETED_NADIR_FULLSCAN_FAST_185-2-205ORDERS_16ROWS_15SECS_3SUBDS -- EXECTIME=14340MS</t>
+  </si>
+  <si>
+    <t>Fullscan: 185 to 205 in steps of 2 orders</t>
+  </si>
+  <si>
+    <t>3592,0,0,0,0,0 # TARGETED_NADIR_FULLSCAN_FAST_142-6-184ORDERS_16ROWS_15SECS_3SUBDS -- EXECTIME=14340MS</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,6 +576,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,8 +591,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,27 +899,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="L1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="L3" s="15"/>
@@ -2244,11 +2256,11 @@
       <c r="I36" s="22">
         <v>214</v>
       </c>
-      <c r="L36" s="45" t="s">
+      <c r="L36" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -2283,7 +2295,7 @@
       <c r="A38" s="4">
         <v>62</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="45" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2479,19 +2491,33 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="4">
+        <v>63</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D43" s="4">
         <v>15</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="6"/>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="6">
+        <v>16</v>
+      </c>
+      <c r="H43" s="1">
+        <v>423</v>
+      </c>
+      <c r="I43" s="22">
+        <v>214</v>
+      </c>
       <c r="L43" s="37">
         <v>15</v>
       </c>
@@ -2506,52 +2532,94 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4">
+        <v>63</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D44" s="4">
         <v>15</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="6"/>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="6">
+        <v>16</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I44" s="22">
+        <v>214</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="4">
+        <v>63</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D45" s="4">
         <v>15</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="6"/>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="6">
+        <v>16</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I45" s="22">
+        <v>214</v>
+      </c>
       <c r="M45" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="4">
+        <v>63</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D46" s="4">
         <v>15</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="6"/>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="6">
+        <v>16</v>
+      </c>
+      <c r="H46" s="1">
+        <v>423</v>
+      </c>
+      <c r="I46" s="22">
+        <v>214</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -2904,11 +2972,11 @@
       <c r="G62" s="6"/>
       <c r="H62" s="1"/>
       <c r="I62" s="6"/>
-      <c r="M62" s="45" t="s">
+      <c r="M62" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -3105,6 +3173,60 @@
         <v>56</v>
       </c>
     </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L75" s="1">
+        <v>15</v>
+      </c>
+      <c r="M75" s="1">
+        <v>3</v>
+      </c>
+      <c r="N75" s="1">
+        <v>16</v>
+      </c>
+      <c r="O75" s="1">
+        <v>381</v>
+      </c>
+      <c r="P75" s="1">
+        <v>214</v>
+      </c>
+      <c r="Q75" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="S75">
+        <f>O75+2</f>
+        <v>383</v>
+      </c>
+      <c r="T75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L76" s="41">
+        <v>15</v>
+      </c>
+      <c r="M76" s="42">
+        <v>3</v>
+      </c>
+      <c r="N76" s="42">
+        <v>16</v>
+      </c>
+      <c r="O76" s="42">
+        <v>423</v>
+      </c>
+      <c r="P76" s="42">
+        <v>214</v>
+      </c>
+      <c r="Q76" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="S76">
+        <f>O76+2</f>
+        <v>425</v>
+      </c>
+      <c r="T76" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q78" s="31" t="s">
         <v>60</v>
@@ -3119,7 +3241,7 @@
     <mergeCell ref="M62:O62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="70">
+    <cfRule type="iconSet" priority="90">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3127,7 +3249,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="71">
+    <cfRule type="iconSet" priority="91">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3137,7 +3259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3145,7 +3267,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3157,7 +3279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I9">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3165,7 +3287,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3177,7 +3299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="49">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3185,7 +3307,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3195,7 +3317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3203,7 +3325,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3213,7 +3335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I35">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3221,7 +3343,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3232,7 +3354,207 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I35 I43:I54">
+  <conditionalFormatting sqref="I5:I35 I47:I54">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I37">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I37">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:I42">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3244,7 +3566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H37">
+  <conditionalFormatting sqref="H43">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3262,7 +3584,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I43">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3282,7 +3604,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I43">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3294,7 +3616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
+  <conditionalFormatting sqref="H44">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3312,7 +3634,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39">
+  <conditionalFormatting sqref="I44">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3332,7 +3654,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39">
+  <conditionalFormatting sqref="I44">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3344,7 +3666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H45">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3362,7 +3684,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I45">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3382,7 +3704,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I45">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3394,7 +3716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
+  <conditionalFormatting sqref="H46">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3412,7 +3734,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
+  <conditionalFormatting sqref="I46">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3432,7 +3754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
+  <conditionalFormatting sqref="I46">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2189E63-E41D-4CCB-BD0D-3CA270165E07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1032790A-F4F7-4A0A-A58F-5CEB6DC96DED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="75">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -204,9 +204,6 @@
     <t>TEST 160 165 170</t>
   </si>
   <si>
-    <t>&lt;test 16 rows</t>
-  </si>
-  <si>
     <t>214,1,3849,3849,1,-1,PHOBOS,NONE,TEST 160 165 170 WITH 16 ROWS</t>
   </si>
   <si>
@@ -220,6 +217,39 @@
   </si>
   <si>
     <t>3592,0,0,0,0,0 # TARGETED_NADIR_FULLSCAN_FAST_142-6-184ORDERS_16ROWS_15SECS_3SUBDS -- EXECTIME=14340MS</t>
+  </si>
+  <si>
+    <t>LNO tracking</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>MTP064+</t>
+  </si>
+  <si>
+    <t>4011,0,0,0,0,0 # TARGETED_NADIR_FULLSCAN_FAST_142-6-184ORDERS_16ROWS_60SECS_3SUBDS -- EXECTIME=59446MS</t>
+  </si>
+  <si>
+    <t>Fullscan: 142 to 184 in steps of 6 orders 500ms</t>
+  </si>
+  <si>
+    <t>Fullscan: 142 to 184 in steps of 6 orders 200ms</t>
+  </si>
+  <si>
+    <t>FULLSCAN 142 6 184 500MS</t>
+  </si>
+  <si>
+    <t>&lt;increase to 16 rows</t>
+  </si>
+  <si>
+    <t>&lt;60 seconds</t>
+  </si>
+  <si>
+    <t>240,1,4081,4081,1,-1,PHOBOS,NONE,FULLSCAN ORDERS 6 142 184 WITH 16 ROWS 60S 500MS</t>
+  </si>
+  <si>
+    <t>240,1,4080,4080,1,-1,PHOBOS,NONE,FULLSCAN ORDERS 6 142 184 WITH 16 ROWS 60S 200MS</t>
   </si>
 </sst>
 </file>
@@ -458,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,6 +609,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,8 +624,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,31 +928,32 @@
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.42578125" customWidth="1"/>
+    <col min="20" max="20" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="L1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="L3" s="15"/>
@@ -1442,7 +1476,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>57</v>
       </c>
@@ -1474,7 +1508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>57</v>
       </c>
@@ -1503,7 +1537,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>57</v>
       </c>
@@ -1540,7 +1574,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="26"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>58</v>
       </c>
@@ -1592,8 +1626,11 @@
       <c r="T20" s="24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>58</v>
       </c>
@@ -1647,7 +1684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>58</v>
       </c>
@@ -1700,8 +1737,11 @@
       <c r="T22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>59</v>
       </c>
@@ -1754,8 +1794,11 @@
       <c r="T23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>59</v>
       </c>
@@ -1808,8 +1851,11 @@
       <c r="T24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>59</v>
       </c>
@@ -1862,8 +1908,11 @@
       <c r="T25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>60</v>
       </c>
@@ -1901,7 +1950,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="31"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>60</v>
       </c>
@@ -1936,7 +1985,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="31"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>60</v>
       </c>
@@ -1969,11 +2018,8 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>60</v>
       </c>
@@ -2006,11 +2052,8 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>61</v>
       </c>
@@ -2043,11 +2086,8 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>61</v>
       </c>
@@ -2080,11 +2120,8 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>61</v>
       </c>
@@ -2113,7 +2150,7 @@
         <v>214</v>
       </c>
       <c r="J32" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2122,7 +2159,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="31"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>61</v>
       </c>
@@ -2156,7 +2193,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>61</v>
       </c>
@@ -2193,7 +2230,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="31"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>61</v>
       </c>
@@ -2228,7 +2265,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="31"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>62</v>
       </c>
@@ -2256,13 +2293,13 @@
       <c r="I36" s="22">
         <v>214</v>
       </c>
-      <c r="L36" s="46" t="s">
+      <c r="L36" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>62</v>
       </c>
@@ -2291,12 +2328,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>62</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -2326,7 +2363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>62</v>
       </c>
@@ -2367,7 +2404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>62</v>
       </c>
@@ -2408,7 +2445,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>62</v>
       </c>
@@ -2449,7 +2486,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>62</v>
       </c>
@@ -2490,7 +2527,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>63</v>
       </c>
@@ -2531,7 +2568,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>63</v>
       </c>
@@ -2560,7 +2597,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -2592,7 +2629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>63</v>
       </c>
@@ -2621,20 +2658,37 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>64</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D47" s="4">
-        <v>15</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="6">
+        <v>16</v>
+      </c>
+      <c r="H47" s="1">
+        <v>4081</v>
+      </c>
+      <c r="I47" s="6">
+        <v>240</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
       <c r="L47" s="15"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
@@ -2644,20 +2698,34 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="26"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>64</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D48" s="4">
-        <v>15</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="6">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4081</v>
+      </c>
+      <c r="I48" s="6">
+        <v>240</v>
+      </c>
       <c r="L48" s="12" t="s">
         <v>7</v>
       </c>
@@ -2682,21 +2750,38 @@
       <c r="T48" s="24" t="s">
         <v>36</v>
       </c>
+      <c r="U48" s="51" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4">
+        <v>64</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D49" s="4">
         <v>15</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="6"/>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="6">
+        <v>16</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3895</v>
+      </c>
+      <c r="I49" s="22">
+        <v>214</v>
+      </c>
       <c r="L49" s="15">
         <v>15</v>
       </c>
@@ -2724,14 +2809,14 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="4">
+        <v>65</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="4">
-        <v>15</v>
-      </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="6"/>
@@ -2972,11 +3057,11 @@
       <c r="G62" s="6"/>
       <c r="H62" s="1"/>
       <c r="I62" s="6"/>
-      <c r="M62" s="46" t="s">
+      <c r="M62" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -3006,7 +3091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3029,7 +3114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3052,7 +3137,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3062,8 +3147,20 @@
       <c r="G67" s="6"/>
       <c r="H67" s="1"/>
       <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>30</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>16</v>
+      </c>
+      <c r="O67">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3073,8 +3170,20 @@
       <c r="G68" s="9"/>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>60</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>16</v>
+      </c>
+      <c r="O68">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3085,7 +3194,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3099,7 +3208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3110,7 +3219,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L72" s="15"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
@@ -3120,7 +3229,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="26"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L73" s="12" t="s">
         <v>7</v>
       </c>
@@ -3145,8 +3254,11 @@
       <c r="T73" s="24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L74" s="15">
         <v>15</v>
       </c>
@@ -3172,8 +3284,11 @@
       <c r="T74" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L75" s="1">
         <v>15</v>
       </c>
@@ -3189,18 +3304,18 @@
       <c r="P75" s="1">
         <v>214</v>
       </c>
-      <c r="Q75" s="50" t="s">
-        <v>63</v>
+      <c r="Q75" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="S75">
         <f>O75+2</f>
         <v>383</v>
       </c>
       <c r="T75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L76" s="41">
         <v>15</v>
       </c>
@@ -3216,7 +3331,7 @@
       <c r="P76" s="42">
         <v>214</v>
       </c>
-      <c r="Q76" s="50" t="s">
+      <c r="Q76" s="46" t="s">
         <v>31</v>
       </c>
       <c r="S76">
@@ -3224,12 +3339,71 @@
         <v>425</v>
       </c>
       <c r="T76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q78" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="O81" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L82">
         <v>60</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>16</v>
+      </c>
+      <c r="O82">
+        <v>4080</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>69</v>
+      </c>
+      <c r="S82">
+        <f>O82+2</f>
+        <v>4082</v>
+      </c>
+      <c r="T82" t="s">
+        <v>67</v>
+      </c>
+      <c r="U82" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>60</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>16</v>
+      </c>
+      <c r="O83">
+        <v>4081</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>68</v>
+      </c>
+      <c r="S83">
+        <f>O83+2</f>
+        <v>4083</v>
+      </c>
+      <c r="T83" t="s">
+        <v>67</v>
+      </c>
+      <c r="U83" s="31" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +3415,7 @@
     <mergeCell ref="M62:O62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="90">
+    <cfRule type="iconSet" priority="95">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3249,7 +3423,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="91">
+    <cfRule type="iconSet" priority="96">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3259,7 +3433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3267,7 +3441,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="89">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3279,7 +3453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I9">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3287,7 +3461,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3299,7 +3473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="49">
+    <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3307,7 +3481,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3317,7 +3491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3325,7 +3499,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3335,7 +3509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I35">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3343,7 +3517,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3354,7 +3528,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I35 I47:I54">
+  <conditionalFormatting sqref="I5:I35 I47:I48 I50:I54">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I37">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I37">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -3366,7 +3590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H37">
+  <conditionalFormatting sqref="H38:H39">
     <cfRule type="iconSet" priority="39">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3384,7 +3608,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I38:I39">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3404,7 +3628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
+  <conditionalFormatting sqref="I38:I39">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -3416,7 +3640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
+  <conditionalFormatting sqref="H40">
     <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3434,7 +3658,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39">
+  <conditionalFormatting sqref="I40">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3454,7 +3678,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39">
+  <conditionalFormatting sqref="I40">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -3466,7 +3690,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H41:H42">
     <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3484,7 +3708,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I41:I42">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3504,7 +3728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
+  <conditionalFormatting sqref="I41:I42">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3516,7 +3740,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
+  <conditionalFormatting sqref="H43">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3534,7 +3758,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
+  <conditionalFormatting sqref="I43">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3554,7 +3778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
+  <conditionalFormatting sqref="I43">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3566,7 +3790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H44">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3584,7 +3808,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
+  <conditionalFormatting sqref="I44">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3604,7 +3828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
+  <conditionalFormatting sqref="I44">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3616,7 +3840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H45">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3634,7 +3858,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I45">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3654,7 +3878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I45">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3666,7 +3890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H46">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3684,7 +3908,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="I46">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3704,7 +3928,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="I46">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3716,7 +3940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H49">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3734,7 +3958,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="I49">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3754,7 +3978,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="I49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1032790A-F4F7-4A0A-A58F-5CEB6DC96DED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099AF973-C999-4BC6-9B62-A7BECCFBD98C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="79">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>240,1,4080,4080,1,-1,PHOBOS,NONE,FULLSCAN ORDERS 6 142 184 WITH 16 ROWS 60S 200MS</t>
+  </si>
+  <si>
+    <t>LNO centre</t>
+  </si>
+  <si>
+    <t>3692,3704,3732,3778,3832,3888 # ORDERS 148 153 158 164 170 177 -- NADIR_12ROWS_60SECS_6SUBDS -- EXECTIME=59271MS</t>
+  </si>
+  <si>
+    <t>Hydration band: 148 153 158 164 170 177 500ms</t>
+  </si>
+  <si>
+    <t>HYDRATION BAND 148 153 158 164 170 177 500MS</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,9 +634,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -908,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +930,7 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -1626,7 +1635,7 @@
       <c r="T20" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="U20" s="51" t="s">
+      <c r="U20" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2750,7 +2759,7 @@
       <c r="T48" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="U48" s="51" t="s">
+      <c r="U48" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2815,13 +2824,27 @@
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="6"/>
+      <c r="C50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="4">
+        <v>60</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="6">
+        <v>12</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3992</v>
+      </c>
+      <c r="I50" s="6">
+        <v>235</v>
+      </c>
       <c r="L50" s="4">
         <v>15</v>
       </c>
@@ -2849,15 +2872,33 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="6"/>
+      <c r="A51" s="4">
+        <v>65</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="4">
+        <v>60</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="6">
+        <v>12</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3992</v>
+      </c>
+      <c r="I51" s="6">
+        <v>235</v>
+      </c>
       <c r="L51" s="4">
         <v>15</v>
       </c>
@@ -2885,15 +2926,33 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="6"/>
+      <c r="A52" s="4">
+        <v>65</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="4">
+        <v>60</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="6">
+        <v>12</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3992</v>
+      </c>
+      <c r="I52" s="6">
+        <v>235</v>
+      </c>
       <c r="L52" s="4">
         <v>15</v>
       </c>
@@ -2921,7 +2980,9 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4">
+        <v>66</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -3193,6 +3254,18 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
+      <c r="L69">
+        <v>60</v>
+      </c>
+      <c r="M69">
+        <v>6</v>
+      </c>
+      <c r="N69">
+        <v>12</v>
+      </c>
+      <c r="O69">
+        <v>235</v>
+      </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
@@ -3254,7 +3327,7 @@
       <c r="T73" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="U73" s="51" t="s">
+      <c r="U73" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3404,6 +3477,48 @@
       </c>
       <c r="U83" s="31" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>60</v>
+      </c>
+      <c r="M84">
+        <v>6</v>
+      </c>
+      <c r="N84">
+        <v>12</v>
+      </c>
+      <c r="O84">
+        <v>3992</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>77</v>
+      </c>
+      <c r="S84">
+        <f t="shared" ref="S84:S87" si="0">O84+2</f>
+        <v>3994</v>
+      </c>
+      <c r="T84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099AF973-C999-4BC6-9B62-A7BECCFBD98C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580F51A7-EA4D-4C39-ABA6-7D04899711A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25296" yWindow="3456" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="116">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -262,6 +262,117 @@
   </si>
   <si>
     <t>HYDRATION BAND 148 153 158 164 170 177 500MS</t>
+  </si>
+  <si>
+    <t>20221011_024508</t>
+  </si>
+  <si>
+    <t>20221019_170520</t>
+  </si>
+  <si>
+    <t>20221025_182817</t>
+  </si>
+  <si>
+    <t>20221108_024716</t>
+  </si>
+  <si>
+    <t>20221110_154315</t>
+  </si>
+  <si>
+    <t>20221113_202115</t>
+  </si>
+  <si>
+    <t>20221116_170814</t>
+  </si>
+  <si>
+    <t>20221207_131937</t>
+  </si>
+  <si>
+    <t>20221210_021104</t>
+  </si>
+  <si>
+    <t>20221215_194431</t>
+  </si>
+  <si>
+    <t>20221219_081414</t>
+  </si>
+  <si>
+    <t>20221221_210929</t>
+  </si>
+  <si>
+    <t>20221222_050103</t>
+  </si>
+  <si>
+    <t>20221225_014801</t>
+  </si>
+  <si>
+    <t>2023-01-02T14:22:30</t>
+  </si>
+  <si>
+    <t>20230104_051928</t>
+  </si>
+  <si>
+    <t>20230107_021427</t>
+  </si>
+  <si>
+    <t>20230109_230206</t>
+  </si>
+  <si>
+    <t>20230113_034115</t>
+  </si>
+  <si>
+    <t>20230130_161722</t>
+  </si>
+  <si>
+    <t>20230216_235422</t>
+  </si>
+  <si>
+    <t>2023-02-17T07:52:30</t>
+  </si>
+  <si>
+    <t>2023-02-25T22:12:30</t>
+  </si>
+  <si>
+    <t>2023-02-28T18:59:30</t>
+  </si>
+  <si>
+    <t>2023-03-20T12:35:30</t>
+  </si>
+  <si>
+    <t>2023-03-23T01:30:30</t>
+  </si>
+  <si>
+    <t>2023-03-23T09:21:30</t>
+  </si>
+  <si>
+    <t>2022-12-31T03:24:30</t>
+  </si>
+  <si>
+    <t>20230223_011421</t>
+  </si>
+  <si>
+    <t>2023 FEB 25 22:01:20</t>
+  </si>
+  <si>
+    <t>2023 FEB 28 18:48:20</t>
+  </si>
+  <si>
+    <t>20230127_113451</t>
+  </si>
+  <si>
+    <t>Carbonates: 174, 175, 176, 189, 190, 191 500ms</t>
+  </si>
+  <si>
+    <t>3858,3868,3878,3920,3930,3940 # ORDERS 174 175 176 190 191 192 -- NADIR_12ROWS_60SECS_6SUBDS -- EXECTIME=59271MS</t>
+  </si>
+  <si>
+    <t>Phyllosilicates: 189, 190, 191, 192, 193, 201 500ms</t>
+  </si>
+  <si>
+    <t>3910,3920,3930,3940,3948,3954 # ORDERS 189 190 191 192 193 201 -- NADIR_12ROWS_60SECS_6SUBDS -- EXECTIME=59271MS</t>
+  </si>
+  <si>
+    <t>CARBONATES 174 175 176 189 190 191 500MS</t>
   </si>
 </sst>
 </file>
@@ -333,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -495,12 +606,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,6 +750,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,6 +780,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -917,62 +1091,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41.42578125" customWidth="1"/>
-    <col min="20" max="20" width="21" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.44140625" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="L1" s="47" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="M1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
+      <c r="J3" s="48"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1000,102 +1176,105 @@
       <c r="I4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="J4" s="49"/>
+      <c r="M4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="P4" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>51</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="15">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="58">
         <v>16</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="16">
         <v>3895</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="59">
         <v>214</v>
       </c>
-      <c r="L5" s="4">
+      <c r="J5" s="60"/>
+      <c r="M5" s="4">
         <v>8</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>6</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>4</v>
       </c>
-      <c r="O5" s="20">
+      <c r="P5" s="20">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>51</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="7">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="9">
         <v>16</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="8">
         <v>3895</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="62">
         <v>214</v>
       </c>
-      <c r="L6" s="4">
+      <c r="J6" s="51"/>
+      <c r="M6" s="4">
         <v>8</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>4</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>6</v>
       </c>
-      <c r="O6" s="20">
+      <c r="P6" s="20">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>52</v>
       </c>
@@ -1123,20 +1302,21 @@
       <c r="I7" s="22">
         <v>214</v>
       </c>
-      <c r="L7" s="4">
+      <c r="J7" s="50"/>
+      <c r="M7" s="4">
         <v>8</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="N7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>8</v>
       </c>
-      <c r="O7" s="20">
+      <c r="P7" s="20">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>52</v>
       </c>
@@ -1164,20 +1344,21 @@
       <c r="I8" s="22">
         <v>214</v>
       </c>
-      <c r="L8" s="4">
+      <c r="J8" s="50"/>
+      <c r="M8" s="4">
         <v>8</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="N8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>12</v>
       </c>
-      <c r="O8" s="20">
+      <c r="P8" s="20">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1205,53 +1386,55 @@
       <c r="I9" s="22">
         <v>214</v>
       </c>
-      <c r="L9" s="4">
+      <c r="J9" s="50"/>
+      <c r="M9" s="4">
         <v>8</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>3</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>16</v>
       </c>
-      <c r="O9" s="20">
+      <c r="P9" s="20">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="7">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="9">
         <v>16</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="8">
         <v>3895</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="62">
         <v>214</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="1"/>
+      <c r="J10" s="51"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="1"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>56</v>
       </c>
@@ -1279,20 +1462,21 @@
       <c r="I11" s="22">
         <v>205</v>
       </c>
-      <c r="L11" s="4">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="J11" s="50"/>
+      <c r="M11" s="4">
+        <v>15</v>
+      </c>
+      <c r="N11" s="1">
         <v>6</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>4</v>
       </c>
-      <c r="O11" s="20">
+      <c r="P11" s="20">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>56</v>
       </c>
@@ -1320,20 +1504,21 @@
       <c r="I12" s="22">
         <v>205</v>
       </c>
-      <c r="L12" s="4">
-        <v>15</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="J12" s="50"/>
+      <c r="M12" s="4">
+        <v>15</v>
+      </c>
+      <c r="N12" s="1">
         <v>4</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>6</v>
       </c>
-      <c r="O12" s="20">
+      <c r="P12" s="20">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1361,20 +1546,21 @@
       <c r="I13" s="22">
         <v>205</v>
       </c>
-      <c r="L13" s="4">
-        <v>15</v>
-      </c>
-      <c r="M13" s="17" t="s">
+      <c r="J13" s="50"/>
+      <c r="M13" s="4">
+        <v>15</v>
+      </c>
+      <c r="N13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>8</v>
       </c>
-      <c r="O13" s="20">
+      <c r="P13" s="20">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>56</v>
       </c>
@@ -1402,61 +1588,63 @@
       <c r="I14" s="22">
         <v>205</v>
       </c>
-      <c r="L14" s="4">
-        <v>15</v>
-      </c>
-      <c r="M14" s="17" t="s">
+      <c r="J14" s="50"/>
+      <c r="M14" s="4">
+        <v>15</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>12</v>
       </c>
-      <c r="O14" s="20">
+      <c r="P14" s="20">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>56</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="7">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8">
         <v>6</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="9">
         <v>12</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="8">
         <v>3893</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="62">
         <v>205</v>
       </c>
-      <c r="L15" s="7">
-        <v>15</v>
-      </c>
-      <c r="M15" s="8">
+      <c r="J15" s="51"/>
+      <c r="M15" s="7">
+        <v>15</v>
+      </c>
+      <c r="N15" s="8">
         <v>3</v>
       </c>
-      <c r="N15" s="8">
+      <c r="O15" s="8">
         <v>16</v>
       </c>
-      <c r="O15" s="21">
+      <c r="P15" s="21">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>57</v>
       </c>
@@ -1484,8 +1672,9 @@
       <c r="I16" s="22">
         <v>205</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>57</v>
       </c>
@@ -1513,11 +1702,12 @@
       <c r="I17" s="22">
         <v>205</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="J17" s="50"/>
+      <c r="N17" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>57</v>
       </c>
@@ -1545,45 +1735,47 @@
       <c r="I18" s="22">
         <v>205</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="7">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8">
         <v>6</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="9">
         <v>12</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="8">
         <v>3893</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="62">
         <v>205</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
+      <c r="J19" s="51"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="16"/>
+      <c r="P19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="26"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="26"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>58</v>
       </c>
@@ -1611,35 +1803,36 @@
       <c r="I20" s="22">
         <v>205</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="J20" s="50"/>
+      <c r="M20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="N20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="O20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="P20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="Q20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="R20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="24" t="s">
+      <c r="T20" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="24" t="s">
+      <c r="U20" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="V20" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>58</v>
       </c>
@@ -1667,90 +1860,92 @@
       <c r="I21" s="22">
         <v>205</v>
       </c>
-      <c r="L21" s="15">
-        <v>15</v>
-      </c>
-      <c r="M21" s="16">
+      <c r="J21" s="50"/>
+      <c r="M21" s="15">
+        <v>15</v>
+      </c>
+      <c r="N21" s="16">
         <v>3</v>
       </c>
-      <c r="N21" s="16">
+      <c r="O21" s="16">
         <v>16</v>
       </c>
-      <c r="O21" s="16">
+      <c r="P21" s="16">
         <v>3895</v>
       </c>
-      <c r="P21" s="16">
+      <c r="Q21" s="16">
         <v>214</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="R21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="S21">
-        <f>O21+2</f>
+      <c r="T21">
+        <f>P21+2</f>
         <v>3897</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="4">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="7">
+        <v>15</v>
+      </c>
+      <c r="E22" s="8">
         <v>6</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="9">
         <v>12</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="8">
         <v>3799</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="62">
         <v>205</v>
       </c>
-      <c r="L22" s="4">
-        <v>15</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="J22" s="51"/>
+      <c r="M22" s="4">
+        <v>15</v>
+      </c>
+      <c r="N22" s="1">
         <v>6</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>12</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>3799</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>205</v>
       </c>
-      <c r="Q22" s="27" t="s">
+      <c r="R22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="S22">
-        <f>O22+2</f>
+      <c r="T22">
+        <f>P22+2</f>
         <v>3801</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>34</v>
       </c>
-      <c r="U22" s="31" t="s">
+      <c r="V22" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>59</v>
       </c>
@@ -1778,36 +1973,39 @@
       <c r="I23" s="22">
         <v>196</v>
       </c>
-      <c r="L23" s="4">
-        <v>15</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="J23" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="4">
+        <v>15</v>
+      </c>
+      <c r="N23" s="1">
         <v>6</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>12</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>3813</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>205</v>
       </c>
-      <c r="Q23" s="28" t="s">
+      <c r="R23" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="S23">
-        <f>O23+2</f>
+      <c r="T23">
+        <f>P23+2</f>
         <v>3815</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>24</v>
       </c>
-      <c r="U23" s="31" t="s">
+      <c r="V23" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>59</v>
       </c>
@@ -1835,93 +2033,99 @@
       <c r="I24" s="22">
         <v>205</v>
       </c>
-      <c r="L24" s="4">
-        <v>15</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="J24" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="4">
+        <v>15</v>
+      </c>
+      <c r="N24" s="1">
         <v>6</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>12</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>3893</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>205</v>
       </c>
-      <c r="Q24" s="28" t="s">
+      <c r="R24" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="S24">
-        <f>O24+2</f>
+      <c r="T24">
+        <f>P24+2</f>
         <v>3895</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="31" t="s">
+      <c r="V24" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>59</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="4">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="7">
+        <v>15</v>
+      </c>
+      <c r="E25" s="8">
         <v>6</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="9">
         <v>12</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="8">
         <v>3813</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="62">
         <v>205</v>
       </c>
-      <c r="L25" s="7">
-        <v>15</v>
-      </c>
-      <c r="M25" s="8">
+      <c r="J25" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="7">
+        <v>15</v>
+      </c>
+      <c r="N25" s="8">
         <v>3</v>
       </c>
-      <c r="N25" s="8">
+      <c r="O25" s="8">
         <v>8</v>
       </c>
-      <c r="O25" s="8">
+      <c r="P25" s="8">
         <v>422</v>
       </c>
-      <c r="P25" s="8">
+      <c r="Q25" s="8">
         <v>196</v>
       </c>
-      <c r="Q25" s="29" t="s">
+      <c r="R25" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="S25">
-        <f>O25+2</f>
+      <c r="T25">
+        <f>P25+2</f>
         <v>424</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>25</v>
       </c>
-      <c r="U25" s="31" t="s">
+      <c r="V25" s="31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>60</v>
       </c>
@@ -1949,17 +2153,20 @@
       <c r="I26" s="22">
         <v>196</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="31"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="31"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>60</v>
       </c>
@@ -1987,14 +2194,17 @@
       <c r="I27" s="22">
         <v>196</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="J27" s="50" t="s">
+        <v>83</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="31"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="31"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>60</v>
       </c>
@@ -2022,47 +2232,53 @@
       <c r="I28" s="22">
         <v>214</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="J28" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>60</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="4">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="7">
+        <v>15</v>
+      </c>
+      <c r="E29" s="8">
         <v>3</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="9">
         <v>16</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="8">
         <v>3895</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="62">
         <v>214</v>
       </c>
-      <c r="L29" s="1"/>
+      <c r="J29" s="51" t="s">
+        <v>85</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>61</v>
       </c>
@@ -2090,13 +2306,16 @@
       <c r="I30" s="22">
         <v>196</v>
       </c>
-      <c r="L30" s="1"/>
+      <c r="J30" s="50" t="s">
+        <v>86</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>61</v>
       </c>
@@ -2124,13 +2343,16 @@
       <c r="I31" s="22">
         <v>196</v>
       </c>
-      <c r="L31" s="1"/>
+      <c r="J31" s="50" t="s">
+        <v>87</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>61</v>
       </c>
@@ -2158,17 +2380,20 @@
       <c r="I32" s="22">
         <v>214</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="31"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>61</v>
       </c>
@@ -2196,13 +2421,16 @@
       <c r="I33" s="22">
         <v>214</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="J33" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>61</v>
       </c>
@@ -2230,51 +2458,57 @@
       <c r="I34" s="22">
         <v>214</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="J34" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M34" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="31"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="31"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
         <v>61</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="4">
-        <v>15</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="7">
+        <v>15</v>
+      </c>
+      <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="9">
         <v>16</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="8">
         <v>3895</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="62">
         <v>214</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="J35" s="51" t="s">
+        <v>91</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="31"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="31"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>62</v>
       </c>
@@ -2302,13 +2536,16 @@
       <c r="I36" s="22">
         <v>214</v>
       </c>
-      <c r="L36" s="47" t="s">
+      <c r="J36" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>62</v>
       </c>
@@ -2336,8 +2573,11 @@
       <c r="I37" s="22">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J37" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>62</v>
       </c>
@@ -2365,14 +2605,17 @@
       <c r="I38" s="22">
         <v>214</v>
       </c>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
+      <c r="J38" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="M38" s="15"/>
       <c r="N38" s="16"/>
-      <c r="O38" s="18" t="s">
+      <c r="O38" s="16"/>
+      <c r="P38" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>62</v>
       </c>
@@ -2400,20 +2643,23 @@
       <c r="I39" s="22">
         <v>214</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="J39" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="M39" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="N39" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="O39" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="19" t="s">
+      <c r="P39" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>62</v>
       </c>
@@ -2441,20 +2687,23 @@
       <c r="I40" s="22">
         <v>214</v>
       </c>
-      <c r="L40" s="4">
-        <v>15</v>
-      </c>
-      <c r="M40" s="1">
+      <c r="J40" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="M40" s="4">
+        <v>15</v>
+      </c>
+      <c r="N40" s="1">
         <v>6</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>4</v>
       </c>
-      <c r="O40" s="20">
+      <c r="P40" s="20">
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>62</v>
       </c>
@@ -2482,61 +2731,67 @@
       <c r="I41" s="22">
         <v>214</v>
       </c>
-      <c r="L41" s="4">
-        <v>15</v>
-      </c>
-      <c r="M41" s="17" t="s">
+      <c r="J41" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" s="4">
+        <v>15</v>
+      </c>
+      <c r="N41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>8</v>
       </c>
-      <c r="O41" s="20">
+      <c r="P41" s="20">
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
         <v>62</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="4">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D42" s="7">
+        <v>15</v>
+      </c>
+      <c r="E42" s="8">
         <v>3</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="9">
         <v>16</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="8">
         <v>3895</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="62">
         <v>214</v>
       </c>
-      <c r="L42" s="33">
-        <v>15</v>
-      </c>
-      <c r="M42" s="34" t="s">
+      <c r="J42" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="M42" s="33">
+        <v>15</v>
+      </c>
+      <c r="N42" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="35">
+      <c r="O42" s="35">
         <v>12</v>
       </c>
-      <c r="O42" s="36">
+      <c r="P42" s="36">
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>63</v>
       </c>
@@ -2564,20 +2819,23 @@
       <c r="I43" s="22">
         <v>214</v>
       </c>
-      <c r="L43" s="37">
-        <v>15</v>
-      </c>
-      <c r="M43" s="38">
+      <c r="J43" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="M43" s="37">
+        <v>15</v>
+      </c>
+      <c r="N43" s="38">
         <v>3</v>
       </c>
-      <c r="N43" s="38">
+      <c r="O43" s="38">
         <v>16</v>
       </c>
-      <c r="O43" s="39">
+      <c r="P43" s="39">
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>63</v>
       </c>
@@ -2605,8 +2863,11 @@
       <c r="I44" s="22">
         <v>214</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J44" s="50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -2634,40 +2895,46 @@
       <c r="I45" s="22">
         <v>214</v>
       </c>
-      <c r="M45" s="23" t="s">
+      <c r="J45" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N45" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
         <v>63</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="4">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D46" s="7">
+        <v>15</v>
+      </c>
+      <c r="E46" s="8">
         <v>3</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="9">
         <v>16</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="8">
         <v>423</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="62">
         <v>214</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J46" s="51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -2695,19 +2962,22 @@
       <c r="I47" s="6">
         <v>240</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" t="s">
         <v>72</v>
       </c>
-      <c r="L47" s="15"/>
-      <c r="M47" s="16"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="16"/>
-      <c r="O47" s="25" t="s">
+      <c r="O47" s="16"/>
+      <c r="P47" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="26"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q47" s="3"/>
+      <c r="R47" s="26"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>64</v>
       </c>
@@ -2735,89 +3005,101 @@
       <c r="I48" s="6">
         <v>240</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="J48" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48" t="s">
+        <v>108</v>
+      </c>
+      <c r="M48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M48" s="13" t="s">
+      <c r="N48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="13" t="s">
+      <c r="O48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="13" t="s">
+      <c r="P48" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P48" s="13" t="s">
+      <c r="Q48" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="14" t="s">
+      <c r="R48" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="24" t="s">
+      <c r="T48" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="T48" s="24" t="s">
+      <c r="U48" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="U48" s="24" t="s">
+      <c r="V48" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
         <v>64</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="4">
-        <v>15</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D49" s="7">
+        <v>15</v>
+      </c>
+      <c r="E49" s="8">
         <v>3</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="9">
         <v>16</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="8">
         <v>3895</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="62">
         <v>214</v>
       </c>
-      <c r="L49" s="15">
-        <v>15</v>
-      </c>
-      <c r="M49" s="16">
+      <c r="J49" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49" t="s">
+        <v>109</v>
+      </c>
+      <c r="M49" s="15">
+        <v>15</v>
+      </c>
+      <c r="N49" s="16">
         <v>3</v>
       </c>
-      <c r="N49" s="16">
+      <c r="O49" s="16">
         <v>8</v>
       </c>
-      <c r="O49" s="16">
+      <c r="P49" s="16">
         <v>3894</v>
       </c>
-      <c r="P49" s="16">
+      <c r="Q49" s="16">
         <v>196</v>
       </c>
-      <c r="Q49" s="30" t="s">
+      <c r="R49" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="S49">
-        <f>O49+2</f>
+      <c r="T49">
+        <f>P49+2</f>
         <v>3896</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>65</v>
       </c>
@@ -2845,33 +3127,36 @@
       <c r="I50" s="6">
         <v>235</v>
       </c>
-      <c r="L50" s="4">
-        <v>15</v>
-      </c>
-      <c r="M50" s="1">
+      <c r="J50" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M50" s="4">
+        <v>15</v>
+      </c>
+      <c r="N50" s="1">
         <v>6</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>8</v>
       </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
         <v>3798</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <v>196</v>
       </c>
-      <c r="Q50" s="27" t="s">
+      <c r="R50" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="S50">
-        <f>O50+2</f>
+      <c r="T50">
+        <f>P50+2</f>
         <v>3800</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>65</v>
       </c>
@@ -2899,148 +3184,211 @@
       <c r="I51" s="6">
         <v>235</v>
       </c>
-      <c r="L51" s="4">
-        <v>15</v>
-      </c>
-      <c r="M51" s="1">
+      <c r="J51" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M51" s="4">
+        <v>15</v>
+      </c>
+      <c r="N51" s="1">
         <v>6</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>8</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>3812</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51" s="1">
         <v>196</v>
       </c>
-      <c r="Q51" s="28" t="s">
+      <c r="R51" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="S51">
-        <f>O51+2</f>
+      <c r="T51">
+        <f>P51+2</f>
         <v>3814</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
         <v>65</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="7">
         <v>60</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="8">
         <v>6</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="9">
         <v>12</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="8">
         <v>3992</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="9">
         <v>235</v>
       </c>
-      <c r="L52" s="4">
-        <v>15</v>
-      </c>
-      <c r="M52" s="1">
+      <c r="J52" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M52" s="4">
+        <v>15</v>
+      </c>
+      <c r="N52" s="1">
         <v>6</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>8</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>3892</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <v>196</v>
       </c>
-      <c r="Q52" s="28" t="s">
+      <c r="R52" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="S52">
-        <f>O52+2</f>
+      <c r="T52">
+        <f>P52+2</f>
         <v>3894</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>66</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="6"/>
-      <c r="L53" s="37">
-        <v>15</v>
-      </c>
-      <c r="M53" s="38">
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="4">
+        <v>60</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="6">
+        <v>12</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3922</v>
+      </c>
+      <c r="I53" s="6">
+        <v>235</v>
+      </c>
+      <c r="J53" s="60"/>
+      <c r="M53" s="37">
+        <v>15</v>
+      </c>
+      <c r="N53" s="38">
         <v>3</v>
       </c>
-      <c r="N53" s="38">
+      <c r="O53" s="38">
         <v>8</v>
       </c>
-      <c r="O53" s="38">
+      <c r="P53" s="38">
         <v>422</v>
       </c>
-      <c r="P53" s="38">
+      <c r="Q53" s="38">
         <v>196</v>
       </c>
-      <c r="Q53" s="40" t="s">
+      <c r="R53" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="S53">
-        <f>O53+2</f>
+      <c r="T53">
+        <f>P53+2</f>
         <v>424</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="4">
+        <v>60</v>
+      </c>
+      <c r="E54" s="1">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" s="6">
+        <v>12</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3922</v>
+      </c>
+      <c r="I54" s="6">
+        <v>235</v>
+      </c>
+      <c r="J54" s="50"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>66</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="7">
+        <v>60</v>
+      </c>
+      <c r="E55" s="8">
+        <v>6</v>
+      </c>
+      <c r="F55" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="9">
+        <v>12</v>
+      </c>
+      <c r="H55" s="8">
+        <v>3922</v>
+      </c>
+      <c r="I55" s="9">
+        <v>235</v>
+      </c>
+      <c r="J55" s="51"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>67</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -3049,8 +3397,9 @@
       <c r="G56" s="6"/>
       <c r="H56" s="1"/>
       <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J56" s="50"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3060,8 +3409,9 @@
       <c r="G57" s="6"/>
       <c r="H57" s="1"/>
       <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J57" s="50"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3071,8 +3421,9 @@
       <c r="G58" s="6"/>
       <c r="H58" s="1"/>
       <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J58" s="50"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3082,8 +3433,9 @@
       <c r="G59" s="6"/>
       <c r="H59" s="1"/>
       <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J59" s="50"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3093,11 +3445,12 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
       <c r="I60" s="6"/>
-      <c r="L60" s="32" t="s">
+      <c r="J60" s="50"/>
+      <c r="M60" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3107,8 +3460,9 @@
       <c r="G61" s="6"/>
       <c r="H61" s="1"/>
       <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J61" s="50"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3118,13 +3472,14 @@
       <c r="G62" s="6"/>
       <c r="H62" s="1"/>
       <c r="I62" s="6"/>
-      <c r="M62" s="47" t="s">
+      <c r="J62" s="50"/>
+      <c r="N62" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3134,8 +3489,9 @@
       <c r="G63" s="6"/>
       <c r="H63" s="1"/>
       <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J63" s="50"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3145,14 +3501,15 @@
       <c r="G64" s="6"/>
       <c r="H64" s="1"/>
       <c r="I64" s="6"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="16"/>
+      <c r="J64" s="50"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="16"/>
-      <c r="O64" s="18" t="s">
+      <c r="O64" s="16"/>
+      <c r="P64" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3162,20 +3519,21 @@
       <c r="G65" s="6"/>
       <c r="H65" s="1"/>
       <c r="I65" s="6"/>
-      <c r="L65" s="12" t="s">
+      <c r="J65" s="50"/>
+      <c r="M65" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M65" s="13" t="s">
+      <c r="N65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N65" s="13" t="s">
+      <c r="O65" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O65" s="19" t="s">
+      <c r="P65" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3185,20 +3543,21 @@
       <c r="G66" s="6"/>
       <c r="H66" s="1"/>
       <c r="I66" s="6"/>
-      <c r="L66" s="41">
-        <v>15</v>
-      </c>
-      <c r="M66" s="42">
+      <c r="J66" s="50"/>
+      <c r="M66" s="41">
+        <v>15</v>
+      </c>
+      <c r="N66" s="42">
         <v>3</v>
       </c>
-      <c r="N66" s="42">
+      <c r="O66" s="42">
         <v>16</v>
       </c>
-      <c r="O66" s="43">
+      <c r="P66" s="43">
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3208,20 +3567,21 @@
       <c r="G67" s="6"/>
       <c r="H67" s="1"/>
       <c r="I67" s="6"/>
-      <c r="L67">
+      <c r="J67" s="50"/>
+      <c r="M67">
         <v>30</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>3</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>16</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3231,20 +3591,21 @@
       <c r="G68" s="9"/>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
-      <c r="L68">
+      <c r="J68" s="51"/>
+      <c r="M68">
         <v>60</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>3</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>16</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3254,20 +3615,20 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="L69">
+      <c r="M69">
         <v>60</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>6</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>12</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3277,11 +3638,11 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="M70" s="23" t="s">
+      <c r="N70" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3292,245 +3653,292 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L72" s="15"/>
-      <c r="M72" s="16"/>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M72" s="15"/>
       <c r="N72" s="16"/>
-      <c r="O72" s="25" t="s">
+      <c r="O72" s="16"/>
+      <c r="P72" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="26"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L73" s="12" t="s">
+      <c r="Q72" s="3"/>
+      <c r="R72" s="26"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M73" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M73" s="13" t="s">
+      <c r="N73" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N73" s="13" t="s">
+      <c r="O73" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O73" s="13" t="s">
+      <c r="P73" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P73" s="13" t="s">
+      <c r="Q73" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q73" s="14" t="s">
+      <c r="R73" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S73" s="24" t="s">
+      <c r="T73" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="T73" s="24" t="s">
+      <c r="U73" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="U73" s="24" t="s">
+      <c r="V73" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L74" s="15">
-        <v>15</v>
-      </c>
-      <c r="M74" s="16">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M74" s="15">
+        <v>15</v>
+      </c>
+      <c r="N74" s="16">
         <v>3</v>
       </c>
-      <c r="N74" s="16">
+      <c r="O74" s="16">
         <v>16</v>
       </c>
-      <c r="O74" s="16">
+      <c r="P74" s="16">
         <v>3849</v>
       </c>
-      <c r="P74" s="16">
+      <c r="Q74" s="16">
         <v>214</v>
       </c>
-      <c r="Q74" s="30" t="s">
+      <c r="R74" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S74">
-        <f>O74+2</f>
+      <c r="T74">
+        <f>P74+2</f>
         <v>3851</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>56</v>
       </c>
-      <c r="U74" s="31" t="s">
+      <c r="V74" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L75" s="1">
-        <v>15</v>
-      </c>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M75" s="1">
+        <v>15</v>
+      </c>
+      <c r="N75" s="1">
         <v>3</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
         <v>16</v>
       </c>
-      <c r="O75" s="1">
+      <c r="P75" s="1">
         <v>381</v>
       </c>
-      <c r="P75" s="1">
+      <c r="Q75" s="1">
         <v>214</v>
       </c>
-      <c r="Q75" s="46" t="s">
+      <c r="R75" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="S75">
-        <f>O75+2</f>
+      <c r="T75">
+        <f>P75+2</f>
         <v>383</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L76" s="41">
-        <v>15</v>
-      </c>
-      <c r="M76" s="42">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M76" s="41">
+        <v>15</v>
+      </c>
+      <c r="N76" s="42">
         <v>3</v>
       </c>
-      <c r="N76" s="42">
+      <c r="O76" s="42">
         <v>16</v>
       </c>
-      <c r="O76" s="42">
+      <c r="P76" s="42">
         <v>423</v>
       </c>
-      <c r="P76" s="42">
+      <c r="Q76" s="42">
         <v>214</v>
       </c>
-      <c r="Q76" s="46" t="s">
+      <c r="R76" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="S76">
-        <f>O76+2</f>
+      <c r="T76">
+        <f>P76+2</f>
         <v>425</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L78">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="O81" s="23" t="s">
+    <row r="81" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M81" s="71"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="72" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="82" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L82">
+      <c r="Q81" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R81" s="11"/>
+    </row>
+    <row r="82" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M82" s="66">
         <v>60</v>
       </c>
-      <c r="M82">
+      <c r="N82" s="67">
         <v>3</v>
       </c>
-      <c r="N82">
+      <c r="O82" s="67">
         <v>16</v>
       </c>
-      <c r="O82">
+      <c r="P82" s="68">
         <v>4080</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="Q82" s="67">
+        <v>240</v>
+      </c>
+      <c r="R82" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="S82">
-        <f>O82+2</f>
+      <c r="T82">
+        <f>P82+2</f>
         <v>4082</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>67</v>
       </c>
-      <c r="U82" s="31" t="s">
+      <c r="V82" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L83">
+    <row r="83" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M83" s="66">
         <v>60</v>
       </c>
-      <c r="M83">
+      <c r="N83" s="67">
         <v>3</v>
       </c>
-      <c r="N83">
+      <c r="O83" s="67">
         <v>16</v>
       </c>
-      <c r="O83">
+      <c r="P83" s="68">
         <v>4081</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="Q83" s="67">
+        <v>240</v>
+      </c>
+      <c r="R83" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="S83">
-        <f>O83+2</f>
+      <c r="T83">
+        <f>P83+2</f>
         <v>4083</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>67</v>
       </c>
-      <c r="U83" s="31" t="s">
+      <c r="V83" s="31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L84">
+    <row r="84" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M84" s="66">
         <v>60</v>
       </c>
-      <c r="M84">
+      <c r="N84" s="67">
         <v>6</v>
       </c>
-      <c r="N84">
+      <c r="O84" s="67">
         <v>12</v>
       </c>
-      <c r="O84">
+      <c r="P84" s="68">
         <v>3992</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="Q84" s="67">
+        <v>235</v>
+      </c>
+      <c r="R84" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="S84">
-        <f t="shared" ref="S84:S87" si="0">O84+2</f>
+      <c r="T84">
+        <f t="shared" ref="T84:T87" si="0">P84+2</f>
         <v>3994</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S85">
+    <row r="85" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M85" s="66">
+        <v>60</v>
+      </c>
+      <c r="N85" s="67">
+        <v>6</v>
+      </c>
+      <c r="O85" s="67">
+        <v>12</v>
+      </c>
+      <c r="P85" s="68">
+        <v>3922</v>
+      </c>
+      <c r="Q85" s="67">
+        <v>235</v>
+      </c>
+      <c r="R85" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="T85">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S86">
+        <v>3924</v>
+      </c>
+      <c r="U85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M86" s="69">
+        <v>60</v>
+      </c>
+      <c r="N86" s="64">
+        <v>6</v>
+      </c>
+      <c r="O86" s="64">
+        <v>12</v>
+      </c>
+      <c r="P86" s="70">
+        <v>3914</v>
+      </c>
+      <c r="Q86" s="64">
+        <v>235</v>
+      </c>
+      <c r="R86" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="T86">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S87">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3916</v>
+      </c>
+      <c r="U86" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="95">
+    <cfRule type="iconSet" priority="96">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3538,7 +3946,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="96">
+    <cfRule type="iconSet" priority="97">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3547,8 +3955,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3556,7 +3964,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3567,8 +3975,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I9">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="I6:J9">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3576,7 +3984,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3588,7 +3996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="54">
+    <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3596,7 +4004,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="55">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3606,7 +4014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3614,7 +4022,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="51">
+    <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3623,8 +4031,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I35">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3632,7 +4040,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3643,8 +4051,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I35 I47:I48 I50:I54">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J54">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3656,7 +4064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="44">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3664,7 +4072,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3673,8 +4081,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3682,7 +4090,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3693,8 +4101,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I37">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3706,7 +4114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="39">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3714,7 +4122,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="40">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3723,8 +4131,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3732,7 +4140,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3743,8 +4151,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3756,7 +4164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="34">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3764,7 +4172,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3773,8 +4181,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="I40:J40">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3782,7 +4190,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3793,8 +4201,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="I40:J40">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3806,7 +4214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3814,7 +4222,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3823,8 +4231,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="I41:J42">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3832,7 +4240,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3843,8 +4251,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:I42">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="I41:J42">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3856,7 +4264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="24">
+    <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3864,7 +4272,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3873,8 +4281,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3882,7 +4290,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3893,8 +4301,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3906,7 +4314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="19">
+    <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3914,7 +4322,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="20">
+    <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3923,8 +4331,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="I44:J44">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3932,7 +4340,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3943,8 +4351,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="I44:J44">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3956,7 +4364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="14">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3964,7 +4372,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3973,8 +4381,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="I45:J45">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3982,7 +4390,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3993,8 +4401,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="I45:J45">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4006,7 +4414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="9">
+    <cfRule type="iconSet" priority="10">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4014,7 +4422,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4023,8 +4431,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="I46:J46">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4032,7 +4440,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4043,8 +4451,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="I46:J46">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4056,7 +4464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="4">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4064,7 +4472,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="5">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4073,8 +4481,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4082,7 +4490,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4093,7 +4501,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580F51A7-EA4D-4C39-ABA6-7D04899711A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E514B308-6AAF-4172-84B4-96BA9AECAE26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25296" yWindow="3456" windowWidth="30960" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="115">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -330,9 +330,6 @@
     <t>2023-02-17T07:52:30</t>
   </si>
   <si>
-    <t>2023-02-25T22:12:30</t>
-  </si>
-  <si>
     <t>2023-02-28T18:59:30</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
     <t>20230223_011421</t>
   </si>
   <si>
-    <t>2023 FEB 25 22:01:20</t>
-  </si>
-  <si>
     <t>2023 FEB 28 18:48:20</t>
   </si>
   <si>
@@ -373,6 +367,9 @@
   </si>
   <si>
     <t>CARBONATES 174 175 176 189 190 191 500MS</t>
+  </si>
+  <si>
+    <t>20230225_220121</t>
   </si>
 </sst>
 </file>
@@ -626,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,18 +765,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,12 +789,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1093,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,27 +1112,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="M1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="48"/>
@@ -1206,19 +1201,19 @@
       <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="54">
         <v>16</v>
       </c>
       <c r="H5" s="16">
         <v>3895</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="55">
         <v>214</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="56"/>
       <c r="M5" s="4">
         <v>8</v>
       </c>
@@ -1248,7 +1243,7 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="57" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="9">
@@ -1257,7 +1252,7 @@
       <c r="H6" s="8">
         <v>3895</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="58">
         <v>214</v>
       </c>
       <c r="J6" s="51"/>
@@ -1416,7 +1411,7 @@
       <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="57" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="9">
@@ -1425,7 +1420,7 @@
       <c r="H10" s="8">
         <v>3895</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="58">
         <v>214</v>
       </c>
       <c r="J10" s="51"/>
@@ -1618,7 +1613,7 @@
       <c r="E15" s="8">
         <v>6</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="59" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="9">
@@ -1627,7 +1622,7 @@
       <c r="H15" s="8">
         <v>3893</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="58">
         <v>205</v>
       </c>
       <c r="J15" s="51"/>
@@ -1753,7 +1748,7 @@
       <c r="E19" s="8">
         <v>6</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="59" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="9">
@@ -1762,7 +1757,7 @@
       <c r="H19" s="8">
         <v>3893</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="58">
         <v>205</v>
       </c>
       <c r="J19" s="51"/>
@@ -1903,7 +1898,7 @@
       <c r="E22" s="8">
         <v>6</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="60" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="9">
@@ -1912,7 +1907,7 @@
       <c r="H22" s="8">
         <v>3799</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="58">
         <v>205</v>
       </c>
       <c r="J22" s="51"/>
@@ -2090,7 +2085,7 @@
       <c r="H25" s="8">
         <v>3813</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="58">
         <v>205</v>
       </c>
       <c r="J25" s="51" t="s">
@@ -2257,7 +2252,7 @@
       <c r="E29" s="8">
         <v>3</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="57" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="9">
@@ -2266,7 +2261,7 @@
       <c r="H29" s="8">
         <v>3895</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="58">
         <v>214</v>
       </c>
       <c r="J29" s="51" t="s">
@@ -2486,7 +2481,7 @@
       <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="57" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="9">
@@ -2495,7 +2490,7 @@
       <c r="H35" s="8">
         <v>3895</v>
       </c>
-      <c r="I35" s="62">
+      <c r="I35" s="58">
         <v>214</v>
       </c>
       <c r="J35" s="51" t="s">
@@ -2539,11 +2534,11 @@
       <c r="J36" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="M36" s="53" t="s">
+      <c r="M36" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -2574,7 +2569,7 @@
         <v>214</v>
       </c>
       <c r="J37" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -2763,7 +2758,7 @@
       <c r="E42" s="8">
         <v>3</v>
       </c>
-      <c r="F42" s="61" t="s">
+      <c r="F42" s="57" t="s">
         <v>54</v>
       </c>
       <c r="G42" s="9">
@@ -2772,7 +2767,7 @@
       <c r="H42" s="8">
         <v>3895</v>
       </c>
-      <c r="I42" s="62">
+      <c r="I42" s="58">
         <v>214</v>
       </c>
       <c r="J42" s="51" t="s">
@@ -2820,7 +2815,7 @@
         <v>214</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M43" s="37">
         <v>15</v>
@@ -2927,7 +2922,7 @@
       <c r="H46" s="8">
         <v>423</v>
       </c>
-      <c r="I46" s="62">
+      <c r="I46" s="58">
         <v>214</v>
       </c>
       <c r="J46" s="51" t="s">
@@ -2963,7 +2958,7 @@
         <v>240</v>
       </c>
       <c r="J47" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K47" t="s">
         <v>72</v>
@@ -3006,10 +3001,7 @@
         <v>240</v>
       </c>
       <c r="J48" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="K48" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>7</v>
@@ -3055,7 +3047,7 @@
       <c r="E49" s="8">
         <v>3</v>
       </c>
-      <c r="F49" s="61" t="s">
+      <c r="F49" s="57" t="s">
         <v>54</v>
       </c>
       <c r="G49" s="9">
@@ -3064,14 +3056,14 @@
       <c r="H49" s="8">
         <v>3895</v>
       </c>
-      <c r="I49" s="62">
+      <c r="I49" s="58">
         <v>214</v>
       </c>
       <c r="J49" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M49" s="15">
         <v>15</v>
@@ -3128,7 +3120,7 @@
         <v>235</v>
       </c>
       <c r="J50" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M50" s="4">
         <v>15</v>
@@ -3185,7 +3177,7 @@
         <v>235</v>
       </c>
       <c r="J51" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M51" s="4">
         <v>15</v>
@@ -3229,7 +3221,7 @@
       <c r="E52" s="8">
         <v>6</v>
       </c>
-      <c r="F52" s="65" t="s">
+      <c r="F52" s="61" t="s">
         <v>78</v>
       </c>
       <c r="G52" s="9">
@@ -3242,7 +3234,7 @@
         <v>235</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M52" s="4">
         <v>15</v>
@@ -3287,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G53" s="6">
         <v>12</v>
@@ -3298,7 +3290,7 @@
       <c r="I53" s="6">
         <v>235</v>
       </c>
-      <c r="J53" s="60"/>
+      <c r="J53" s="56"/>
       <c r="M53" s="37">
         <v>15</v>
       </c>
@@ -3342,7 +3334,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G54" s="6">
         <v>12</v>
@@ -3371,8 +3363,8 @@
       <c r="E55" s="8">
         <v>6</v>
       </c>
-      <c r="F55" s="64" t="s">
-        <v>115</v>
+      <c r="F55" s="60" t="s">
+        <v>113</v>
       </c>
       <c r="G55" s="9">
         <v>12</v>
@@ -3473,11 +3465,11 @@
       <c r="H62" s="1"/>
       <c r="I62" s="6"/>
       <c r="J62" s="50"/>
-      <c r="N62" s="53" t="s">
+      <c r="N62" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
@@ -3777,10 +3769,10 @@
       </c>
     </row>
     <row r="81" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M81" s="71"/>
+      <c r="M81" s="65"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
-      <c r="P81" s="72" t="s">
+      <c r="P81" s="66" t="s">
         <v>66</v>
       </c>
       <c r="Q81" s="10" t="s">
@@ -3789,19 +3781,19 @@
       <c r="R81" s="11"/>
     </row>
     <row r="82" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M82" s="66">
+      <c r="M82" s="62">
         <v>60</v>
       </c>
-      <c r="N82" s="67">
+      <c r="N82">
         <v>3</v>
       </c>
-      <c r="O82" s="67">
+      <c r="O82">
         <v>16</v>
       </c>
-      <c r="P82" s="68">
+      <c r="P82" s="23">
         <v>4080</v>
       </c>
-      <c r="Q82" s="67">
+      <c r="Q82">
         <v>240</v>
       </c>
       <c r="R82" s="27" t="s">
@@ -3819,19 +3811,19 @@
       </c>
     </row>
     <row r="83" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M83" s="66">
+      <c r="M83" s="62">
         <v>60</v>
       </c>
-      <c r="N83" s="67">
+      <c r="N83">
         <v>3</v>
       </c>
-      <c r="O83" s="67">
+      <c r="O83">
         <v>16</v>
       </c>
-      <c r="P83" s="68">
+      <c r="P83" s="23">
         <v>4081</v>
       </c>
-      <c r="Q83" s="67">
+      <c r="Q83">
         <v>240</v>
       </c>
       <c r="R83" s="27" t="s">
@@ -3849,26 +3841,26 @@
       </c>
     </row>
     <row r="84" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M84" s="66">
+      <c r="M84" s="62">
         <v>60</v>
       </c>
-      <c r="N84" s="67">
+      <c r="N84">
         <v>6</v>
       </c>
-      <c r="O84" s="67">
+      <c r="O84">
         <v>12</v>
       </c>
-      <c r="P84" s="68">
+      <c r="P84" s="23">
         <v>3992</v>
       </c>
-      <c r="Q84" s="67">
+      <c r="Q84">
         <v>235</v>
       </c>
       <c r="R84" s="27" t="s">
         <v>77</v>
       </c>
       <c r="T84">
-        <f t="shared" ref="T84:T87" si="0">P84+2</f>
+        <f t="shared" ref="T84:T86" si="0">P84+2</f>
         <v>3994</v>
       </c>
       <c r="U84" t="s">
@@ -3876,57 +3868,57 @@
       </c>
     </row>
     <row r="85" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M85" s="66">
+      <c r="M85" s="62">
         <v>60</v>
       </c>
-      <c r="N85" s="67">
+      <c r="N85">
         <v>6</v>
       </c>
-      <c r="O85" s="67">
+      <c r="O85">
         <v>12</v>
       </c>
-      <c r="P85" s="68">
+      <c r="P85" s="23">
         <v>3922</v>
       </c>
-      <c r="Q85" s="67">
+      <c r="Q85">
         <v>235</v>
       </c>
       <c r="R85" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T85">
         <f t="shared" si="0"/>
         <v>3924</v>
       </c>
       <c r="U85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M86" s="69">
+      <c r="M86" s="63">
         <v>60</v>
       </c>
-      <c r="N86" s="64">
+      <c r="N86" s="60">
         <v>6</v>
       </c>
-      <c r="O86" s="64">
+      <c r="O86" s="60">
         <v>12</v>
       </c>
-      <c r="P86" s="70">
+      <c r="P86" s="64">
         <v>3914</v>
       </c>
-      <c r="Q86" s="64">
+      <c r="Q86" s="60">
         <v>235</v>
       </c>
       <c r="R86" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T86">
         <f t="shared" si="0"/>
         <v>3916</v>
       </c>
       <c r="U86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E514B308-6AAF-4172-84B4-96BA9AECAE26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D70DFA0-CC7D-4C88-B6C6-2D4A0323BB4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="139">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -240,12 +240,6 @@
     <t>FULLSCAN 142 6 184 500MS</t>
   </si>
   <si>
-    <t>&lt;increase to 16 rows</t>
-  </si>
-  <si>
-    <t>&lt;60 seconds</t>
-  </si>
-  <si>
     <t>240,1,4081,4081,1,-1,PHOBOS,NONE,FULLSCAN ORDERS 6 142 184 WITH 16 ROWS 60S 500MS</t>
   </si>
   <si>
@@ -306,9 +300,6 @@
     <t>20221225_014801</t>
   </si>
   <si>
-    <t>2023-01-02T14:22:30</t>
-  </si>
-  <si>
     <t>20230104_051928</t>
   </si>
   <si>
@@ -330,27 +321,9 @@
     <t>2023-02-17T07:52:30</t>
   </si>
   <si>
-    <t>2023-02-28T18:59:30</t>
-  </si>
-  <si>
-    <t>2023-03-20T12:35:30</t>
-  </si>
-  <si>
-    <t>2023-03-23T01:30:30</t>
-  </si>
-  <si>
-    <t>2023-03-23T09:21:30</t>
-  </si>
-  <si>
-    <t>2022-12-31T03:24:30</t>
-  </si>
-  <si>
     <t>20230223_011421</t>
   </si>
   <si>
-    <t>2023 FEB 28 18:48:20</t>
-  </si>
-  <si>
     <t>20230127_113451</t>
   </si>
   <si>
@@ -370,13 +343,112 @@
   </si>
   <si>
     <t>20230225_220121</t>
+  </si>
+  <si>
+    <t>20230323_011917</t>
+  </si>
+  <si>
+    <t>20230323_091017</t>
+  </si>
+  <si>
+    <t>20230505_114846</t>
+  </si>
+  <si>
+    <t>20230511_131415</t>
+  </si>
+  <si>
+    <t>20230429_181516</t>
+  </si>
+  <si>
+    <t>20230320_122418</t>
+  </si>
+  <si>
+    <t>20230228_184820</t>
+  </si>
+  <si>
+    <t>&lt;-60 seconds</t>
+  </si>
+  <si>
+    <t>&lt;-increase to 16 rows</t>
+  </si>
+  <si>
+    <t>Not available, no TGO temperatures</t>
+  </si>
+  <si>
+    <t>20220909_032111</t>
+  </si>
+  <si>
+    <t>20220912_000810</t>
+  </si>
+  <si>
+    <t>20220914_205509</t>
+  </si>
+  <si>
+    <t>20220826_031920</t>
+  </si>
+  <si>
+    <t>20220826_190220</t>
+  </si>
+  <si>
+    <t>20220808_223604</t>
+  </si>
+  <si>
+    <t>20220823_063050</t>
+  </si>
+  <si>
+    <t>Green = available&gt;0.1a</t>
+  </si>
+  <si>
+    <t>20220719_102309</t>
+  </si>
+  <si>
+    <t>20220725_035605</t>
+  </si>
+  <si>
+    <t>20220714_004111</t>
+  </si>
+  <si>
+    <t>20220710_200313</t>
+  </si>
+  <si>
+    <t>20220713_164911</t>
+  </si>
+  <si>
+    <t>20220520_111259</t>
+  </si>
+  <si>
+    <t>20220523_000759</t>
+  </si>
+  <si>
+    <t>20220525_205458</t>
+  </si>
+  <si>
+    <t>20220526_044659</t>
+  </si>
+  <si>
+    <t>20220528_174158</t>
+  </si>
+  <si>
+    <t>20220531_142757</t>
+  </si>
+  <si>
+    <t>20230102_141059</t>
+  </si>
+  <si>
+    <t>20221231_031300</t>
+  </si>
+  <si>
+    <t>Orange = available@0.1a</t>
+  </si>
+  <si>
+    <t>Red = not available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +493,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +524,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -619,11 +715,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,9 +848,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -760,9 +855,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -805,9 +897,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1088,54 +1208,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="47" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.44140625" customWidth="1"/>
+    <col min="18" max="18" width="41.42578125" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="M1" s="67" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="M1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J2" s="80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="48"/>
+      <c r="J3" s="80" t="s">
+        <v>137</v>
+      </c>
       <c r="M3" s="15"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -1143,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1298,9 @@
       <c r="I4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="49"/>
+      <c r="J4" s="48" t="s">
+        <v>123</v>
+      </c>
       <c r="M4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>51</v>
       </c>
@@ -1201,19 +1330,21 @@
       <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="52">
         <v>16</v>
       </c>
       <c r="H5" s="16">
         <v>3895</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <v>214</v>
       </c>
-      <c r="J5" s="56"/>
+      <c r="J5" s="76" t="s">
+        <v>129</v>
+      </c>
       <c r="M5" s="4">
         <v>8</v>
       </c>
@@ -1227,7 +1358,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>51</v>
       </c>
@@ -1243,7 +1374,7 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="55" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="9">
@@ -1252,10 +1383,12 @@
       <c r="H6" s="8">
         <v>3895</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="56">
         <v>214</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="71" t="s">
+        <v>130</v>
+      </c>
       <c r="M6" s="4">
         <v>8</v>
       </c>
@@ -1269,7 +1402,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>52</v>
       </c>
@@ -1297,7 +1430,9 @@
       <c r="I7" s="22">
         <v>214</v>
       </c>
-      <c r="J7" s="50"/>
+      <c r="J7" s="69" t="s">
+        <v>131</v>
+      </c>
       <c r="M7" s="4">
         <v>8</v>
       </c>
@@ -1311,7 +1446,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>52</v>
       </c>
@@ -1339,7 +1474,9 @@
       <c r="I8" s="22">
         <v>214</v>
       </c>
-      <c r="J8" s="50"/>
+      <c r="J8" s="69" t="s">
+        <v>132</v>
+      </c>
       <c r="M8" s="4">
         <v>8</v>
       </c>
@@ -1353,7 +1490,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1381,7 +1518,9 @@
       <c r="I9" s="22">
         <v>214</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="69" t="s">
+        <v>133</v>
+      </c>
       <c r="M9" s="4">
         <v>8</v>
       </c>
@@ -1395,7 +1534,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>52</v>
       </c>
@@ -1411,7 +1550,7 @@
       <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="55" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="9">
@@ -1420,16 +1559,18 @@
       <c r="H10" s="8">
         <v>3895</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="56">
         <v>214</v>
       </c>
-      <c r="J10" s="51"/>
+      <c r="J10" s="71" t="s">
+        <v>134</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>56</v>
       </c>
@@ -1457,7 +1598,9 @@
       <c r="I11" s="22">
         <v>205</v>
       </c>
-      <c r="J11" s="50"/>
+      <c r="J11" s="69" t="s">
+        <v>127</v>
+      </c>
       <c r="M11" s="4">
         <v>15</v>
       </c>
@@ -1471,7 +1614,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>56</v>
       </c>
@@ -1499,7 +1642,9 @@
       <c r="I12" s="22">
         <v>205</v>
       </c>
-      <c r="J12" s="50"/>
+      <c r="J12" s="69" t="s">
+        <v>128</v>
+      </c>
       <c r="M12" s="4">
         <v>15</v>
       </c>
@@ -1513,7 +1658,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1541,7 +1686,9 @@
       <c r="I13" s="22">
         <v>205</v>
       </c>
-      <c r="J13" s="50"/>
+      <c r="J13" s="69" t="s">
+        <v>126</v>
+      </c>
       <c r="M13" s="4">
         <v>15</v>
       </c>
@@ -1555,7 +1702,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>56</v>
       </c>
@@ -1583,7 +1730,9 @@
       <c r="I14" s="22">
         <v>205</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="69" t="s">
+        <v>124</v>
+      </c>
       <c r="M14" s="4">
         <v>15</v>
       </c>
@@ -1597,7 +1746,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>56</v>
       </c>
@@ -1613,7 +1762,7 @@
       <c r="E15" s="8">
         <v>6</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="57" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="9">
@@ -1622,10 +1771,12 @@
       <c r="H15" s="8">
         <v>3893</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="56">
         <v>205</v>
       </c>
-      <c r="J15" s="51"/>
+      <c r="J15" s="71" t="s">
+        <v>125</v>
+      </c>
       <c r="M15" s="7">
         <v>15</v>
       </c>
@@ -1639,7 +1790,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>57</v>
       </c>
@@ -1667,9 +1818,11 @@
       <c r="I16" s="22">
         <v>205</v>
       </c>
-      <c r="J16" s="50"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J16" s="69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>57</v>
       </c>
@@ -1697,12 +1850,14 @@
       <c r="I17" s="22">
         <v>205</v>
       </c>
-      <c r="J17" s="50"/>
+      <c r="J17" s="69" t="s">
+        <v>122</v>
+      </c>
       <c r="N17" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>57</v>
       </c>
@@ -1730,9 +1885,11 @@
       <c r="I18" s="22">
         <v>205</v>
       </c>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J18" s="69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>57</v>
       </c>
@@ -1748,7 +1905,7 @@
       <c r="E19" s="8">
         <v>6</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="57" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="9">
@@ -1757,10 +1914,12 @@
       <c r="H19" s="8">
         <v>3893</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="56">
         <v>205</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="71" t="s">
+        <v>120</v>
+      </c>
       <c r="M19" s="15"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
@@ -1770,7 +1929,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>58</v>
       </c>
@@ -1798,7 +1957,9 @@
       <c r="I20" s="22">
         <v>205</v>
       </c>
-      <c r="J20" s="50"/>
+      <c r="J20" s="69" t="s">
+        <v>116</v>
+      </c>
       <c r="M20" s="12" t="s">
         <v>7</v>
       </c>
@@ -1827,7 +1988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>58</v>
       </c>
@@ -1855,7 +2016,9 @@
       <c r="I21" s="22">
         <v>205</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="69" t="s">
+        <v>117</v>
+      </c>
       <c r="M21" s="15">
         <v>15</v>
       </c>
@@ -1882,7 +2045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>58</v>
       </c>
@@ -1898,7 +2061,7 @@
       <c r="E22" s="8">
         <v>6</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="58" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="9">
@@ -1907,10 +2070,12 @@
       <c r="H22" s="8">
         <v>3799</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="56">
         <v>205</v>
       </c>
-      <c r="J22" s="51"/>
+      <c r="J22" s="71" t="s">
+        <v>118</v>
+      </c>
       <c r="M22" s="4">
         <v>15</v>
       </c>
@@ -1940,7 +2105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>59</v>
       </c>
@@ -1968,8 +2133,8 @@
       <c r="I23" s="22">
         <v>196</v>
       </c>
-      <c r="J23" s="50" t="s">
-        <v>79</v>
+      <c r="J23" s="79" t="s">
+        <v>77</v>
       </c>
       <c r="M23" s="4">
         <v>15</v>
@@ -2000,7 +2165,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>59</v>
       </c>
@@ -2028,8 +2193,8 @@
       <c r="I24" s="22">
         <v>205</v>
       </c>
-      <c r="J24" s="50" t="s">
-        <v>80</v>
+      <c r="J24" s="69" t="s">
+        <v>78</v>
       </c>
       <c r="M24" s="4">
         <v>15</v>
@@ -2060,7 +2225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>59</v>
       </c>
@@ -2085,11 +2250,11 @@
       <c r="H25" s="8">
         <v>3813</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="56">
         <v>205</v>
       </c>
-      <c r="J25" s="51" t="s">
-        <v>81</v>
+      <c r="J25" s="71" t="s">
+        <v>79</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2120,7 +2285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>60</v>
       </c>
@@ -2148,8 +2313,8 @@
       <c r="I26" s="22">
         <v>196</v>
       </c>
-      <c r="J26" s="50" t="s">
-        <v>82</v>
+      <c r="J26" s="69" t="s">
+        <v>80</v>
       </c>
       <c r="K26" t="s">
         <v>53</v>
@@ -2161,7 +2326,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>60</v>
       </c>
@@ -2189,8 +2354,8 @@
       <c r="I27" s="22">
         <v>196</v>
       </c>
-      <c r="J27" s="50" t="s">
-        <v>83</v>
+      <c r="J27" s="69" t="s">
+        <v>81</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2199,7 +2364,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>60</v>
       </c>
@@ -2227,8 +2392,8 @@
       <c r="I28" s="22">
         <v>214</v>
       </c>
-      <c r="J28" s="50" t="s">
-        <v>84</v>
+      <c r="J28" s="69" t="s">
+        <v>82</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2236,7 +2401,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>60</v>
       </c>
@@ -2252,7 +2417,7 @@
       <c r="E29" s="8">
         <v>3</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="55" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="9">
@@ -2261,11 +2426,11 @@
       <c r="H29" s="8">
         <v>3895</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="56">
         <v>214</v>
       </c>
-      <c r="J29" s="51" t="s">
-        <v>85</v>
+      <c r="J29" s="71" t="s">
+        <v>83</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2273,7 +2438,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>61</v>
       </c>
@@ -2301,8 +2466,8 @@
       <c r="I30" s="22">
         <v>196</v>
       </c>
-      <c r="J30" s="50" t="s">
-        <v>86</v>
+      <c r="J30" s="69" t="s">
+        <v>84</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2310,7 +2475,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>61</v>
       </c>
@@ -2338,8 +2503,8 @@
       <c r="I31" s="22">
         <v>196</v>
       </c>
-      <c r="J31" s="50" t="s">
-        <v>87</v>
+      <c r="J31" s="69" t="s">
+        <v>85</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2347,7 +2512,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>61</v>
       </c>
@@ -2375,11 +2540,11 @@
       <c r="I32" s="22">
         <v>214</v>
       </c>
-      <c r="J32" s="50" t="s">
-        <v>88</v>
+      <c r="J32" s="69" t="s">
+        <v>86</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2388,7 +2553,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>61</v>
       </c>
@@ -2416,8 +2581,8 @@
       <c r="I33" s="22">
         <v>214</v>
       </c>
-      <c r="J33" s="50" t="s">
-        <v>89</v>
+      <c r="J33" s="69" t="s">
+        <v>87</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2425,7 +2590,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>61</v>
       </c>
@@ -2453,8 +2618,8 @@
       <c r="I34" s="22">
         <v>214</v>
       </c>
-      <c r="J34" s="50" t="s">
-        <v>90</v>
+      <c r="J34" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="M34" s="32" t="s">
         <v>47</v>
@@ -2465,7 +2630,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>61</v>
       </c>
@@ -2481,7 +2646,7 @@
       <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="55" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="9">
@@ -2490,11 +2655,11 @@
       <c r="H35" s="8">
         <v>3895</v>
       </c>
-      <c r="I35" s="58">
+      <c r="I35" s="56">
         <v>214</v>
       </c>
-      <c r="J35" s="51" t="s">
-        <v>91</v>
+      <c r="J35" s="71" t="s">
+        <v>89</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2503,7 +2668,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>62</v>
       </c>
@@ -2531,16 +2696,16 @@
       <c r="I36" s="22">
         <v>214</v>
       </c>
-      <c r="J36" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="M36" s="67" t="s">
+      <c r="J36" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>62</v>
       </c>
@@ -2568,11 +2733,11 @@
       <c r="I37" s="22">
         <v>214</v>
       </c>
-      <c r="J37" s="52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J37" s="69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>62</v>
       </c>
@@ -2600,8 +2765,8 @@
       <c r="I38" s="22">
         <v>214</v>
       </c>
-      <c r="J38" s="50" t="s">
-        <v>93</v>
+      <c r="J38" s="69" t="s">
+        <v>135</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="16"/>
@@ -2610,7 +2775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>62</v>
       </c>
@@ -2638,8 +2803,8 @@
       <c r="I39" s="22">
         <v>214</v>
       </c>
-      <c r="J39" s="50" t="s">
-        <v>94</v>
+      <c r="J39" s="69" t="s">
+        <v>91</v>
       </c>
       <c r="M39" s="12" t="s">
         <v>7</v>
@@ -2654,7 +2819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>62</v>
       </c>
@@ -2682,8 +2847,8 @@
       <c r="I40" s="22">
         <v>214</v>
       </c>
-      <c r="J40" s="50" t="s">
-        <v>95</v>
+      <c r="J40" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="M40" s="4">
         <v>15</v>
@@ -2698,7 +2863,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>62</v>
       </c>
@@ -2726,8 +2891,8 @@
       <c r="I41" s="22">
         <v>214</v>
       </c>
-      <c r="J41" s="50" t="s">
-        <v>96</v>
+      <c r="J41" s="69" t="s">
+        <v>93</v>
       </c>
       <c r="M41" s="4">
         <v>15</v>
@@ -2742,7 +2907,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>62</v>
       </c>
@@ -2758,7 +2923,7 @@
       <c r="E42" s="8">
         <v>3</v>
       </c>
-      <c r="F42" s="57" t="s">
+      <c r="F42" s="55" t="s">
         <v>54</v>
       </c>
       <c r="G42" s="9">
@@ -2767,11 +2932,11 @@
       <c r="H42" s="8">
         <v>3895</v>
       </c>
-      <c r="I42" s="58">
+      <c r="I42" s="56">
         <v>214</v>
       </c>
-      <c r="J42" s="51" t="s">
-        <v>97</v>
+      <c r="J42" s="71" t="s">
+        <v>94</v>
       </c>
       <c r="M42" s="33">
         <v>15</v>
@@ -2786,7 +2951,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>63</v>
       </c>
@@ -2814,8 +2979,8 @@
       <c r="I43" s="22">
         <v>214</v>
       </c>
-      <c r="J43" s="50" t="s">
-        <v>108</v>
+      <c r="J43" s="79" t="s">
+        <v>99</v>
       </c>
       <c r="M43" s="37">
         <v>15</v>
@@ -2830,7 +2995,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>63</v>
       </c>
@@ -2858,11 +3023,11 @@
       <c r="I44" s="22">
         <v>214</v>
       </c>
-      <c r="J44" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J44" s="69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -2890,14 +3055,14 @@
       <c r="I45" s="22">
         <v>214</v>
       </c>
-      <c r="J45" s="50" t="s">
-        <v>99</v>
+      <c r="J45" s="69" t="s">
+        <v>96</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>63</v>
       </c>
@@ -2922,14 +3087,17 @@
       <c r="H46" s="8">
         <v>423</v>
       </c>
-      <c r="I46" s="58">
+      <c r="I46" s="56">
         <v>214</v>
       </c>
-      <c r="J46" s="51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J46" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -2939,16 +3107,16 @@
       <c r="C47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="15">
         <v>60</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="16">
         <v>3</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="52">
         <v>16</v>
       </c>
       <c r="H47" s="1">
@@ -2957,11 +3125,11 @@
       <c r="I47" s="6">
         <v>240</v>
       </c>
-      <c r="J47" s="50" t="s">
-        <v>106</v>
+      <c r="J47" s="79" t="s">
+        <v>98</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M47" s="15"/>
       <c r="N47" s="16"/>
@@ -2972,7 +3140,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="26"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>64</v>
       </c>
@@ -2985,10 +3153,10 @@
       <c r="D48" s="4">
         <v>60</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="74">
         <v>3</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="74" t="s">
         <v>70</v>
       </c>
       <c r="G48" s="6">
@@ -3000,8 +3168,8 @@
       <c r="I48" s="6">
         <v>240</v>
       </c>
-      <c r="J48" s="50" t="s">
-        <v>114</v>
+      <c r="J48" s="79" t="s">
+        <v>105</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>7</v>
@@ -3031,7 +3199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>64</v>
       </c>
@@ -3047,8 +3215,8 @@
       <c r="E49" s="8">
         <v>3</v>
       </c>
-      <c r="F49" s="57" t="s">
-        <v>54</v>
+      <c r="F49" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="G49" s="9">
         <v>16</v>
@@ -3056,14 +3224,11 @@
       <c r="H49" s="8">
         <v>3895</v>
       </c>
-      <c r="I49" s="58">
+      <c r="I49" s="56">
         <v>214</v>
       </c>
-      <c r="J49" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49" t="s">
-        <v>107</v>
+      <c r="J49" s="71" t="s">
+        <v>112</v>
       </c>
       <c r="M49" s="15">
         <v>15</v>
@@ -3091,7 +3256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>65</v>
       </c>
@@ -3099,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" s="4">
         <v>60</v>
@@ -3108,7 +3273,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G50" s="6">
         <v>12</v>
@@ -3119,8 +3284,8 @@
       <c r="I50" s="6">
         <v>235</v>
       </c>
-      <c r="J50" s="50" t="s">
-        <v>102</v>
+      <c r="J50" s="69" t="s">
+        <v>111</v>
       </c>
       <c r="M50" s="4">
         <v>15</v>
@@ -3148,7 +3313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>65</v>
       </c>
@@ -3156,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="4">
         <v>60</v>
@@ -3165,7 +3330,7 @@
         <v>6</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G51" s="6">
         <v>12</v>
@@ -3176,8 +3341,8 @@
       <c r="I51" s="6">
         <v>235</v>
       </c>
-      <c r="J51" s="50" t="s">
-        <v>103</v>
+      <c r="J51" s="69" t="s">
+        <v>106</v>
       </c>
       <c r="M51" s="4">
         <v>15</v>
@@ -3205,7 +3370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>65</v>
       </c>
@@ -3213,7 +3378,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52" s="7">
         <v>60</v>
@@ -3221,8 +3386,8 @@
       <c r="E52" s="8">
         <v>6</v>
       </c>
-      <c r="F52" s="61" t="s">
-        <v>78</v>
+      <c r="F52" s="59" t="s">
+        <v>76</v>
       </c>
       <c r="G52" s="9">
         <v>12</v>
@@ -3233,8 +3398,8 @@
       <c r="I52" s="9">
         <v>235</v>
       </c>
-      <c r="J52" s="51" t="s">
-        <v>104</v>
+      <c r="J52" s="71" t="s">
+        <v>107</v>
       </c>
       <c r="M52" s="4">
         <v>15</v>
@@ -3262,7 +3427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -3270,7 +3435,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D53" s="4">
         <v>60</v>
@@ -3279,7 +3444,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G53" s="6">
         <v>12</v>
@@ -3290,7 +3455,9 @@
       <c r="I53" s="6">
         <v>235</v>
       </c>
-      <c r="J53" s="56"/>
+      <c r="J53" s="70" t="s">
+        <v>110</v>
+      </c>
       <c r="M53" s="37">
         <v>15</v>
       </c>
@@ -3317,7 +3484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>66</v>
       </c>
@@ -3325,7 +3492,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54" s="4">
         <v>60</v>
@@ -3334,7 +3501,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G54" s="6">
         <v>12</v>
@@ -3345,9 +3512,11 @@
       <c r="I54" s="6">
         <v>235</v>
       </c>
-      <c r="J54" s="50"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J54" s="72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>66</v>
       </c>
@@ -3355,7 +3524,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D55" s="7">
         <v>60</v>
@@ -3363,8 +3532,8 @@
       <c r="E55" s="8">
         <v>6</v>
       </c>
-      <c r="F55" s="60" t="s">
-        <v>113</v>
+      <c r="F55" s="58" t="s">
+        <v>104</v>
       </c>
       <c r="G55" s="9">
         <v>12</v>
@@ -3375,36 +3544,74 @@
       <c r="I55" s="9">
         <v>235</v>
       </c>
-      <c r="J55" s="51"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>67</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="50"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="6"/>
+      <c r="J55" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>68</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="15">
+        <v>60</v>
+      </c>
+      <c r="E56" s="16">
+        <v>6</v>
+      </c>
+      <c r="F56" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="52">
+        <v>12</v>
+      </c>
+      <c r="H56" s="16">
+        <v>3992</v>
+      </c>
+      <c r="I56" s="52">
+        <v>235</v>
+      </c>
+      <c r="J56" s="54"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>68</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="7">
+        <v>60</v>
+      </c>
+      <c r="E57" s="8">
+        <v>6</v>
+      </c>
+      <c r="F57" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="9">
+        <v>12</v>
+      </c>
+      <c r="H57" s="8">
+        <v>3992</v>
+      </c>
+      <c r="I57" s="9">
+        <v>235</v>
+      </c>
       <c r="J57" s="50"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>69</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -3413,9 +3620,9 @@
       <c r="G58" s="6"/>
       <c r="H58" s="1"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="50"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J58" s="49"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3425,9 +3632,9 @@
       <c r="G59" s="6"/>
       <c r="H59" s="1"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="50"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J59" s="49"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3437,12 +3644,12 @@
       <c r="G60" s="6"/>
       <c r="H60" s="1"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="49"/>
       <c r="M60" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3452,9 +3659,9 @@
       <c r="G61" s="6"/>
       <c r="H61" s="1"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="50"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J61" s="49"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3464,14 +3671,14 @@
       <c r="G62" s="6"/>
       <c r="H62" s="1"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="50"/>
-      <c r="N62" s="67" t="s">
+      <c r="J62" s="49"/>
+      <c r="N62" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3481,9 +3688,9 @@
       <c r="G63" s="6"/>
       <c r="H63" s="1"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="50"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J63" s="49"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3493,7 +3700,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="1"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="50"/>
+      <c r="J64" s="49"/>
       <c r="M64" s="15"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
@@ -3501,7 +3708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3511,7 +3718,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="1"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="50"/>
+      <c r="J65" s="49"/>
       <c r="M65" s="12" t="s">
         <v>7</v>
       </c>
@@ -3525,7 +3732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3535,7 +3742,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="1"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="49"/>
       <c r="M66" s="41">
         <v>15</v>
       </c>
@@ -3549,7 +3756,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3559,7 +3766,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="1"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="49"/>
       <c r="M67">
         <v>30</v>
       </c>
@@ -3573,7 +3780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3583,7 +3790,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="8"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="51"/>
+      <c r="J68" s="50"/>
       <c r="M68">
         <v>60</v>
       </c>
@@ -3597,7 +3804,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3620,7 +3827,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3634,7 +3841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3645,7 +3852,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M72" s="15"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
@@ -3655,7 +3862,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="26"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M73" s="12" t="s">
         <v>7</v>
       </c>
@@ -3684,7 +3891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M74" s="15">
         <v>15</v>
       </c>
@@ -3714,7 +3921,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M75" s="1">
         <v>15</v>
       </c>
@@ -3741,7 +3948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M76" s="41">
         <v>15</v>
       </c>
@@ -3768,11 +3975,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M81" s="65"/>
+    <row r="81" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M81" s="63"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
-      <c r="P81" s="66" t="s">
+      <c r="P81" s="64" t="s">
         <v>66</v>
       </c>
       <c r="Q81" s="10" t="s">
@@ -3780,8 +3987,8 @@
       </c>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M82" s="62">
+    <row r="82" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M82" s="60">
         <v>60</v>
       </c>
       <c r="N82">
@@ -3807,11 +4014,11 @@
         <v>67</v>
       </c>
       <c r="V82" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M83" s="62">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M83" s="60">
         <v>60</v>
       </c>
       <c r="N83">
@@ -3837,11 +4044,11 @@
         <v>67</v>
       </c>
       <c r="V83" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M84" s="62">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M84" s="60">
         <v>60</v>
       </c>
       <c r="N84">
@@ -3857,18 +4064,18 @@
         <v>235</v>
       </c>
       <c r="R84" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T84">
         <f t="shared" ref="T84:T86" si="0">P84+2</f>
         <v>3994</v>
       </c>
       <c r="U84" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M85" s="62">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M85" s="60">
         <v>60</v>
       </c>
       <c r="N85">
@@ -3884,41 +4091,41 @@
         <v>235</v>
       </c>
       <c r="R85" s="27" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T85">
         <f t="shared" si="0"/>
         <v>3924</v>
       </c>
       <c r="U85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M86" s="63">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M86" s="61">
         <v>60</v>
       </c>
-      <c r="N86" s="60">
+      <c r="N86" s="58">
         <v>6</v>
       </c>
-      <c r="O86" s="60">
+      <c r="O86" s="58">
         <v>12</v>
       </c>
-      <c r="P86" s="64">
+      <c r="P86" s="62">
         <v>3914</v>
       </c>
-      <c r="Q86" s="60">
+      <c r="Q86" s="58">
         <v>235</v>
       </c>
       <c r="R86" s="29" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="T86">
         <f t="shared" si="0"/>
         <v>3916</v>
       </c>
       <c r="U86" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3930,7 +4137,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="96">
+    <cfRule type="iconSet" priority="98">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3938,7 +4145,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="97">
+    <cfRule type="iconSet" priority="99">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3948,7 +4155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3956,7 +4163,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3968,7 +4175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3976,7 +4183,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3988,7 +4195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="55">
+    <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -3996,7 +4203,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="56">
+    <cfRule type="iconSet" priority="58">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4006,7 +4213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="51">
+    <cfRule type="iconSet" priority="53">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4014,7 +4221,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="52">
+    <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4024,7 +4231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4032,7 +4239,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4043,8 +4250,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J54">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4056,7 +4263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4064,7 +4271,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="48">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4074,7 +4281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4082,7 +4289,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4094,7 +4301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4106,7 +4313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="40">
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4114,7 +4321,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="41">
+    <cfRule type="iconSet" priority="43">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4124,7 +4331,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4132,7 +4339,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4144,7 +4351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4156,7 +4363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4164,7 +4371,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="38">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4174,7 +4381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4182,7 +4389,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4194,7 +4401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4206,7 +4413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4214,7 +4421,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4224,7 +4431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4232,7 +4439,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4244,7 +4451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4256,7 +4463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4264,7 +4471,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4274,7 +4481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4282,7 +4489,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4294,7 +4501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4306,7 +4513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="20">
+    <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4314,7 +4521,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="21">
+    <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4324,7 +4531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4332,7 +4539,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4344,7 +4551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4356,7 +4563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4364,7 +4571,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4374,7 +4581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4382,7 +4589,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4394,7 +4601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4406,7 +4613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="12">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4414,7 +4621,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="11">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4424,7 +4631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4432,7 +4639,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4444,7 +4651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4456,7 +4663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="5">
+    <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4464,7 +4671,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="6">
+    <cfRule type="iconSet" priority="8">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4474,7 +4681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4482,7 +4689,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4494,6 +4701,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4505,7 +4736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D70DFA0-CC7D-4C88-B6C6-2D4A0323BB4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F49F89-E2DC-48B2-BAF1-08845E098960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="149">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -442,6 +442,36 @@
   </si>
   <si>
     <t>Red = not available</t>
+  </si>
+  <si>
+    <t>3748,3758,3778,3802,3812,3832 # ORDERS 160 162 164 166 168 170 -- NADIR_12ROWS_60SECS_6SUBDS -- EXECTIME=59271MS</t>
+  </si>
+  <si>
+    <t>3726,3748,3764,3802,3822,3848 # ORDERS 157 160 163 166 169 172 -- NADIR_12ROWS_60SECS_6SUBDS -- EXECTIME=59271MS</t>
+  </si>
+  <si>
+    <t>Gap 3 orders: 157, 160, 163, 166, 169, 172</t>
+  </si>
+  <si>
+    <t>Gap 2 orders: 160, 162, 164, 166, 168, 170 500ms</t>
+  </si>
+  <si>
+    <t>GAP 2 ORDERS 160 162 164 166 168 170 500MS</t>
+  </si>
+  <si>
+    <t>GAP 3 ORDERS 157 160 163 166 169 172 500MS</t>
+  </si>
+  <si>
+    <t>2023-07-13T09:39:30</t>
+  </si>
+  <si>
+    <t>2023-07-16T06:26:00</t>
+  </si>
+  <si>
+    <t>2023-07-01T22:31:30</t>
+  </si>
+  <si>
+    <t>2023-07-03T19:43:30</t>
   </si>
 </sst>
 </file>
@@ -721,7 +751,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,24 +909,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -906,10 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -922,6 +935,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1206,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,19 +1257,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="M1" s="65" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="M1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="73" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1252,15 +1277,15 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="73" t="s">
         <v>137</v>
       </c>
       <c r="M3" s="15"/>
@@ -1342,7 +1367,7 @@
       <c r="I5" s="53">
         <v>214</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="69" t="s">
         <v>129</v>
       </c>
       <c r="M5" s="4">
@@ -1386,7 +1411,7 @@
       <c r="I6" s="56">
         <v>214</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="66" t="s">
         <v>130</v>
       </c>
       <c r="M6" s="4">
@@ -1430,7 +1455,7 @@
       <c r="I7" s="22">
         <v>214</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="64" t="s">
         <v>131</v>
       </c>
       <c r="M7" s="4">
@@ -1474,7 +1499,7 @@
       <c r="I8" s="22">
         <v>214</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="64" t="s">
         <v>132</v>
       </c>
       <c r="M8" s="4">
@@ -1518,7 +1543,7 @@
       <c r="I9" s="22">
         <v>214</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="J9" s="64" t="s">
         <v>133</v>
       </c>
       <c r="M9" s="4">
@@ -1562,7 +1587,7 @@
       <c r="I10" s="56">
         <v>214</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="66" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="4"/>
@@ -1598,7 +1623,7 @@
       <c r="I11" s="22">
         <v>205</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="64" t="s">
         <v>127</v>
       </c>
       <c r="M11" s="4">
@@ -1642,7 +1667,7 @@
       <c r="I12" s="22">
         <v>205</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="64" t="s">
         <v>128</v>
       </c>
       <c r="M12" s="4">
@@ -1686,7 +1711,7 @@
       <c r="I13" s="22">
         <v>205</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="64" t="s">
         <v>126</v>
       </c>
       <c r="M13" s="4">
@@ -1730,7 +1755,7 @@
       <c r="I14" s="22">
         <v>205</v>
       </c>
-      <c r="J14" s="69" t="s">
+      <c r="J14" s="64" t="s">
         <v>124</v>
       </c>
       <c r="M14" s="4">
@@ -1774,7 +1799,7 @@
       <c r="I15" s="56">
         <v>205</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="66" t="s">
         <v>125</v>
       </c>
       <c r="M15" s="7">
@@ -1818,7 +1843,7 @@
       <c r="I16" s="22">
         <v>205</v>
       </c>
-      <c r="J16" s="69" t="s">
+      <c r="J16" s="64" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1850,7 +1875,7 @@
       <c r="I17" s="22">
         <v>205</v>
       </c>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="64" t="s">
         <v>122</v>
       </c>
       <c r="N17" s="23" t="s">
@@ -1885,7 +1910,7 @@
       <c r="I18" s="22">
         <v>205</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="64" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1917,7 +1942,7 @@
       <c r="I19" s="56">
         <v>205</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="66" t="s">
         <v>120</v>
       </c>
       <c r="M19" s="15"/>
@@ -1957,7 +1982,7 @@
       <c r="I20" s="22">
         <v>205</v>
       </c>
-      <c r="J20" s="69" t="s">
+      <c r="J20" s="64" t="s">
         <v>116</v>
       </c>
       <c r="M20" s="12" t="s">
@@ -2016,7 +2041,7 @@
       <c r="I21" s="22">
         <v>205</v>
       </c>
-      <c r="J21" s="69" t="s">
+      <c r="J21" s="64" t="s">
         <v>117</v>
       </c>
       <c r="M21" s="15">
@@ -2073,7 +2098,7 @@
       <c r="I22" s="56">
         <v>205</v>
       </c>
-      <c r="J22" s="71" t="s">
+      <c r="J22" s="66" t="s">
         <v>118</v>
       </c>
       <c r="M22" s="4">
@@ -2133,7 +2158,7 @@
       <c r="I23" s="22">
         <v>196</v>
       </c>
-      <c r="J23" s="79" t="s">
+      <c r="J23" s="72" t="s">
         <v>77</v>
       </c>
       <c r="M23" s="4">
@@ -2193,7 +2218,7 @@
       <c r="I24" s="22">
         <v>205</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="64" t="s">
         <v>78</v>
       </c>
       <c r="M24" s="4">
@@ -2253,7 +2278,7 @@
       <c r="I25" s="56">
         <v>205</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J25" s="66" t="s">
         <v>79</v>
       </c>
       <c r="M25" s="7">
@@ -2313,7 +2338,7 @@
       <c r="I26" s="22">
         <v>196</v>
       </c>
-      <c r="J26" s="69" t="s">
+      <c r="J26" s="64" t="s">
         <v>80</v>
       </c>
       <c r="K26" t="s">
@@ -2354,7 +2379,7 @@
       <c r="I27" s="22">
         <v>196</v>
       </c>
-      <c r="J27" s="69" t="s">
+      <c r="J27" s="64" t="s">
         <v>81</v>
       </c>
       <c r="M27" s="1"/>
@@ -2392,7 +2417,7 @@
       <c r="I28" s="22">
         <v>214</v>
       </c>
-      <c r="J28" s="69" t="s">
+      <c r="J28" s="64" t="s">
         <v>82</v>
       </c>
       <c r="M28" s="1"/>
@@ -2429,7 +2454,7 @@
       <c r="I29" s="56">
         <v>214</v>
       </c>
-      <c r="J29" s="71" t="s">
+      <c r="J29" s="66" t="s">
         <v>83</v>
       </c>
       <c r="M29" s="1"/>
@@ -2466,7 +2491,7 @@
       <c r="I30" s="22">
         <v>196</v>
       </c>
-      <c r="J30" s="69" t="s">
+      <c r="J30" s="64" t="s">
         <v>84</v>
       </c>
       <c r="M30" s="1"/>
@@ -2503,7 +2528,7 @@
       <c r="I31" s="22">
         <v>196</v>
       </c>
-      <c r="J31" s="69" t="s">
+      <c r="J31" s="64" t="s">
         <v>85</v>
       </c>
       <c r="M31" s="1"/>
@@ -2540,7 +2565,7 @@
       <c r="I32" s="22">
         <v>214</v>
       </c>
-      <c r="J32" s="69" t="s">
+      <c r="J32" s="64" t="s">
         <v>86</v>
       </c>
       <c r="K32" t="s">
@@ -2581,7 +2606,7 @@
       <c r="I33" s="22">
         <v>214</v>
       </c>
-      <c r="J33" s="69" t="s">
+      <c r="J33" s="64" t="s">
         <v>87</v>
       </c>
       <c r="M33" s="1"/>
@@ -2618,7 +2643,7 @@
       <c r="I34" s="22">
         <v>214</v>
       </c>
-      <c r="J34" s="69" t="s">
+      <c r="J34" s="64" t="s">
         <v>88</v>
       </c>
       <c r="M34" s="32" t="s">
@@ -2658,7 +2683,7 @@
       <c r="I35" s="56">
         <v>214</v>
       </c>
-      <c r="J35" s="71" t="s">
+      <c r="J35" s="66" t="s">
         <v>89</v>
       </c>
       <c r="M35" s="1"/>
@@ -2696,14 +2721,14 @@
       <c r="I36" s="22">
         <v>214</v>
       </c>
-      <c r="J36" s="69" t="s">
+      <c r="J36" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="65" t="s">
+      <c r="M36" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -2733,7 +2758,7 @@
       <c r="I37" s="22">
         <v>214</v>
       </c>
-      <c r="J37" s="69" t="s">
+      <c r="J37" s="64" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2765,7 +2790,7 @@
       <c r="I38" s="22">
         <v>214</v>
       </c>
-      <c r="J38" s="69" t="s">
+      <c r="J38" s="64" t="s">
         <v>135</v>
       </c>
       <c r="M38" s="15"/>
@@ -2803,7 +2828,7 @@
       <c r="I39" s="22">
         <v>214</v>
       </c>
-      <c r="J39" s="69" t="s">
+      <c r="J39" s="64" t="s">
         <v>91</v>
       </c>
       <c r="M39" s="12" t="s">
@@ -2847,7 +2872,7 @@
       <c r="I40" s="22">
         <v>214</v>
       </c>
-      <c r="J40" s="69" t="s">
+      <c r="J40" s="64" t="s">
         <v>92</v>
       </c>
       <c r="M40" s="4">
@@ -2891,7 +2916,7 @@
       <c r="I41" s="22">
         <v>214</v>
       </c>
-      <c r="J41" s="69" t="s">
+      <c r="J41" s="64" t="s">
         <v>93</v>
       </c>
       <c r="M41" s="4">
@@ -2935,7 +2960,7 @@
       <c r="I42" s="56">
         <v>214</v>
       </c>
-      <c r="J42" s="71" t="s">
+      <c r="J42" s="66" t="s">
         <v>94</v>
       </c>
       <c r="M42" s="33">
@@ -2979,7 +3004,7 @@
       <c r="I43" s="22">
         <v>214</v>
       </c>
-      <c r="J43" s="79" t="s">
+      <c r="J43" s="72" t="s">
         <v>99</v>
       </c>
       <c r="M43" s="37">
@@ -3023,7 +3048,7 @@
       <c r="I44" s="22">
         <v>214</v>
       </c>
-      <c r="J44" s="69" t="s">
+      <c r="J44" s="64" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3055,7 +3080,7 @@
       <c r="I45" s="22">
         <v>214</v>
       </c>
-      <c r="J45" s="69" t="s">
+      <c r="J45" s="64" t="s">
         <v>96</v>
       </c>
       <c r="N45" s="23" t="s">
@@ -3090,10 +3115,10 @@
       <c r="I46" s="56">
         <v>214</v>
       </c>
-      <c r="J46" s="78" t="s">
+      <c r="J46" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="K46" s="77" t="s">
+      <c r="K46" s="70" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3125,7 +3150,7 @@
       <c r="I47" s="6">
         <v>240</v>
       </c>
-      <c r="J47" s="79" t="s">
+      <c r="J47" s="72" t="s">
         <v>98</v>
       </c>
       <c r="K47" t="s">
@@ -3153,10 +3178,10 @@
       <c r="D48" s="4">
         <v>60</v>
       </c>
-      <c r="E48" s="74">
+      <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G48" s="6">
@@ -3168,7 +3193,7 @@
       <c r="I48" s="6">
         <v>240</v>
       </c>
-      <c r="J48" s="79" t="s">
+      <c r="J48" s="72" t="s">
         <v>105</v>
       </c>
       <c r="M48" s="12" t="s">
@@ -3227,7 +3252,7 @@
       <c r="I49" s="56">
         <v>214</v>
       </c>
-      <c r="J49" s="71" t="s">
+      <c r="J49" s="66" t="s">
         <v>112</v>
       </c>
       <c r="M49" s="15">
@@ -3272,7 +3297,7 @@
       <c r="E50" s="1">
         <v>6</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G50" s="6">
@@ -3284,7 +3309,7 @@
       <c r="I50" s="6">
         <v>235</v>
       </c>
-      <c r="J50" s="69" t="s">
+      <c r="J50" s="64" t="s">
         <v>111</v>
       </c>
       <c r="M50" s="4">
@@ -3329,7 +3354,7 @@
       <c r="E51" s="1">
         <v>6</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G51" s="6">
@@ -3341,7 +3366,7 @@
       <c r="I51" s="6">
         <v>235</v>
       </c>
-      <c r="J51" s="69" t="s">
+      <c r="J51" s="64" t="s">
         <v>106</v>
       </c>
       <c r="M51" s="4">
@@ -3386,7 +3411,7 @@
       <c r="E52" s="8">
         <v>6</v>
       </c>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="55" t="s">
         <v>76</v>
       </c>
       <c r="G52" s="9">
@@ -3398,7 +3423,7 @@
       <c r="I52" s="9">
         <v>235</v>
       </c>
-      <c r="J52" s="71" t="s">
+      <c r="J52" s="66" t="s">
         <v>107</v>
       </c>
       <c r="M52" s="4">
@@ -3443,7 +3468,7 @@
       <c r="E53" s="1">
         <v>6</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G53" s="6">
@@ -3455,7 +3480,7 @@
       <c r="I53" s="6">
         <v>235</v>
       </c>
-      <c r="J53" s="70" t="s">
+      <c r="J53" s="65" t="s">
         <v>110</v>
       </c>
       <c r="M53" s="37">
@@ -3500,7 +3525,7 @@
       <c r="E54" s="1">
         <v>6</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G54" s="6">
@@ -3512,7 +3537,7 @@
       <c r="I54" s="6">
         <v>235</v>
       </c>
-      <c r="J54" s="72" t="s">
+      <c r="J54" s="67" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3532,7 +3557,7 @@
       <c r="E55" s="8">
         <v>6</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F55" s="8" t="s">
         <v>104</v>
       </c>
       <c r="G55" s="9">
@@ -3544,7 +3569,7 @@
       <c r="I55" s="9">
         <v>235</v>
       </c>
-      <c r="J55" s="73" t="s">
+      <c r="J55" s="68" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3564,7 +3589,7 @@
       <c r="E56" s="16">
         <v>6</v>
       </c>
-      <c r="F56" s="75" t="s">
+      <c r="F56" s="51" t="s">
         <v>76</v>
       </c>
       <c r="G56" s="52">
@@ -3576,7 +3601,9 @@
       <c r="I56" s="52">
         <v>235</v>
       </c>
-      <c r="J56" s="54"/>
+      <c r="J56" s="54" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
@@ -3594,7 +3621,7 @@
       <c r="E57" s="8">
         <v>6</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="55" t="s">
         <v>76</v>
       </c>
       <c r="G57" s="9">
@@ -3606,36 +3633,78 @@
       <c r="I57" s="9">
         <v>235</v>
       </c>
-      <c r="J57" s="50"/>
+      <c r="J57" s="50" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>69</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="49"/>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="4">
+        <v>60</v>
+      </c>
+      <c r="E58" s="1">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="6">
+        <v>12</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3928</v>
+      </c>
+      <c r="I58" s="52">
+        <v>235</v>
+      </c>
+      <c r="J58" s="49" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="49"/>
+      <c r="A59" s="7">
+        <v>69</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="7">
+        <v>60</v>
+      </c>
+      <c r="E59" s="8">
+        <v>6</v>
+      </c>
+      <c r="F59" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="9">
+        <v>12</v>
+      </c>
+      <c r="H59" s="8">
+        <v>3936</v>
+      </c>
+      <c r="I59" s="9">
+        <v>235</v>
+      </c>
+      <c r="J59" s="50" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="4">
+        <v>70</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -3672,11 +3741,11 @@
       <c r="H62" s="1"/>
       <c r="I62" s="6"/>
       <c r="J62" s="49"/>
-      <c r="N62" s="65" t="s">
+      <c r="N62" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="O62" s="65"/>
-      <c r="P62" s="65"/>
+      <c r="O62" s="74"/>
+      <c r="P62" s="74"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -3976,10 +4045,10 @@
       </c>
     </row>
     <row r="81" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M81" s="63"/>
+      <c r="M81" s="62"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
-      <c r="P81" s="64" t="s">
+      <c r="P81" s="63" t="s">
         <v>66</v>
       </c>
       <c r="Q81" s="10" t="s">
@@ -3988,7 +4057,7 @@
       <c r="R81" s="11"/>
     </row>
     <row r="82" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M82" s="60">
+      <c r="M82" s="59">
         <v>60</v>
       </c>
       <c r="N82">
@@ -4018,7 +4087,7 @@
       </c>
     </row>
     <row r="83" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M83" s="60">
+      <c r="M83" s="59">
         <v>60</v>
       </c>
       <c r="N83">
@@ -4048,7 +4117,7 @@
       </c>
     </row>
     <row r="84" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M84" s="60">
+      <c r="M84" s="59">
         <v>60</v>
       </c>
       <c r="N84">
@@ -4067,7 +4136,7 @@
         <v>75</v>
       </c>
       <c r="T84">
-        <f t="shared" ref="T84:T86" si="0">P84+2</f>
+        <f t="shared" ref="T84:T88" si="0">P84+2</f>
         <v>3994</v>
       </c>
       <c r="U84" t="s">
@@ -4075,7 +4144,7 @@
       </c>
     </row>
     <row r="85" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M85" s="60">
+      <c r="M85" s="59">
         <v>60</v>
       </c>
       <c r="N85">
@@ -4102,7 +4171,7 @@
       </c>
     </row>
     <row r="86" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M86" s="61">
+      <c r="M86" s="60">
         <v>60</v>
       </c>
       <c r="N86" s="58">
@@ -4111,7 +4180,7 @@
       <c r="O86" s="58">
         <v>12</v>
       </c>
-      <c r="P86" s="62">
+      <c r="P86" s="61">
         <v>3914</v>
       </c>
       <c r="Q86" s="58">
@@ -4126,6 +4195,60 @@
       </c>
       <c r="U86" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>60</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <v>12</v>
+      </c>
+      <c r="P88" s="23">
+        <v>3928</v>
+      </c>
+      <c r="Q88">
+        <v>235</v>
+      </c>
+      <c r="R88" t="s">
+        <v>142</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="0"/>
+        <v>3930</v>
+      </c>
+      <c r="U88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>60</v>
+      </c>
+      <c r="N89">
+        <v>6</v>
+      </c>
+      <c r="O89">
+        <v>12</v>
+      </c>
+      <c r="P89" s="23">
+        <v>3936</v>
+      </c>
+      <c r="Q89">
+        <v>235</v>
+      </c>
+      <c r="R89" t="s">
+        <v>141</v>
+      </c>
+      <c r="T89">
+        <f t="shared" ref="T89" si="1">P89+2</f>
+        <v>3938</v>
+      </c>
+      <c r="U89" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4137,7 +4260,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="98">
+    <cfRule type="iconSet" priority="101">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4145,7 +4268,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="99">
+    <cfRule type="iconSet" priority="102">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4155,7 +4278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4163,7 +4286,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4175,7 +4298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4183,7 +4306,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4195,7 +4318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="57">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4203,7 +4326,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="58">
+    <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4213,7 +4336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="53">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4221,7 +4344,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="54">
+    <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4231,7 +4354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4239,7 +4362,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4251,7 +4374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4263,7 +4386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="47">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4271,7 +4394,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="48">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4281,7 +4404,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4289,7 +4412,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4301,7 +4424,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4313,7 +4436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="42">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4321,7 +4444,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="43">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4331,7 +4454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4339,7 +4462,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4351,7 +4474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4363,7 +4486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="37">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4371,7 +4494,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="38">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4381,7 +4504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4389,7 +4512,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4401,7 +4524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4413,7 +4536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4421,7 +4544,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="33">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4431,7 +4554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4439,7 +4562,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4451,7 +4574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4463,7 +4586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4471,7 +4594,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4481,7 +4604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4489,7 +4612,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4501,7 +4624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4513,7 +4636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="22">
+    <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4521,7 +4644,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="23">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4531,7 +4654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4539,7 +4662,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4551,7 +4674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4563,7 +4686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="17">
+    <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4571,7 +4694,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="18">
+    <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4581,7 +4704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4589,7 +4712,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4601,7 +4724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4613,7 +4736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="12">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4621,7 +4744,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="13">
+    <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4631,7 +4754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4639,7 +4762,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4651,7 +4774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4663,7 +4786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="7">
+    <cfRule type="iconSet" priority="10">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4671,7 +4794,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="8">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4681,7 +4804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4689,7 +4812,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4701,6 +4824,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4712,7 +4871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4724,19 +4883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I59">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F49F89-E2DC-48B2-BAF1-08845E098960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF586435-7257-4882-92CC-994F95179D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="154">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -462,16 +462,31 @@
     <t>GAP 3 ORDERS 157 160 163 166 169 172 500MS</t>
   </si>
   <si>
-    <t>2023-07-13T09:39:30</t>
-  </si>
-  <si>
-    <t>2023-07-16T06:26:00</t>
-  </si>
-  <si>
-    <t>2023-07-01T22:31:30</t>
-  </si>
-  <si>
-    <t>2023-07-03T19:43:30</t>
+    <t>20230713_092806</t>
+  </si>
+  <si>
+    <t>20230716_061435</t>
+  </si>
+  <si>
+    <t>20230701_222009</t>
+  </si>
+  <si>
+    <t>20230703_193210</t>
+  </si>
+  <si>
+    <t>2023-10-24T11:43:30</t>
+  </si>
+  <si>
+    <t>2023-10-27T08:30:15</t>
+  </si>
+  <si>
+    <t>2023-09-03T02:37:30</t>
+  </si>
+  <si>
+    <t>2023-08-28T01:12:00</t>
+  </si>
+  <si>
+    <t>2023-08-30T06:15:30</t>
   </si>
 </sst>
 </file>
@@ -751,7 +766,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,9 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,6 +959,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1233,59 +1257,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64:G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="47" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.42578125" customWidth="1"/>
+    <col min="18" max="18" width="41.44140625" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="M1" s="74" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="M1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J2" s="73" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J2" s="72" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="72" t="s">
         <v>137</v>
       </c>
       <c r="M3" s="15"/>
@@ -1295,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1339,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>51</v>
       </c>
@@ -1367,7 +1391,7 @@
       <c r="I5" s="53">
         <v>214</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="68" t="s">
         <v>129</v>
       </c>
       <c r="M5" s="4">
@@ -1383,7 +1407,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>51</v>
       </c>
@@ -1399,7 +1423,7 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="9">
@@ -1408,10 +1432,10 @@
       <c r="H6" s="8">
         <v>3895</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="55">
         <v>214</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="65" t="s">
         <v>130</v>
       </c>
       <c r="M6" s="4">
@@ -1427,7 +1451,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>52</v>
       </c>
@@ -1455,7 +1479,7 @@
       <c r="I7" s="22">
         <v>214</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>131</v>
       </c>
       <c r="M7" s="4">
@@ -1471,7 +1495,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>52</v>
       </c>
@@ -1499,7 +1523,7 @@
       <c r="I8" s="22">
         <v>214</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>132</v>
       </c>
       <c r="M8" s="4">
@@ -1515,7 +1539,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1543,7 +1567,7 @@
       <c r="I9" s="22">
         <v>214</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>133</v>
       </c>
       <c r="M9" s="4">
@@ -1559,7 +1583,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>52</v>
       </c>
@@ -1575,7 +1599,7 @@
       <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="9">
@@ -1584,10 +1608,10 @@
       <c r="H10" s="8">
         <v>3895</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="55">
         <v>214</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="65" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="4"/>
@@ -1595,7 +1619,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>56</v>
       </c>
@@ -1623,7 +1647,7 @@
       <c r="I11" s="22">
         <v>205</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="J11" s="63" t="s">
         <v>127</v>
       </c>
       <c r="M11" s="4">
@@ -1639,7 +1663,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>56</v>
       </c>
@@ -1667,7 +1691,7 @@
       <c r="I12" s="22">
         <v>205</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="63" t="s">
         <v>128</v>
       </c>
       <c r="M12" s="4">
@@ -1683,7 +1707,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1711,7 +1735,7 @@
       <c r="I13" s="22">
         <v>205</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="63" t="s">
         <v>126</v>
       </c>
       <c r="M13" s="4">
@@ -1727,7 +1751,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>56</v>
       </c>
@@ -1755,7 +1779,7 @@
       <c r="I14" s="22">
         <v>205</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="63" t="s">
         <v>124</v>
       </c>
       <c r="M14" s="4">
@@ -1771,7 +1795,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>56</v>
       </c>
@@ -1787,7 +1811,7 @@
       <c r="E15" s="8">
         <v>6</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="56" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="9">
@@ -1796,10 +1820,10 @@
       <c r="H15" s="8">
         <v>3893</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="55">
         <v>205</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="65" t="s">
         <v>125</v>
       </c>
       <c r="M15" s="7">
@@ -1815,7 +1839,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>57</v>
       </c>
@@ -1843,11 +1867,11 @@
       <c r="I16" s="22">
         <v>205</v>
       </c>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>57</v>
       </c>
@@ -1875,14 +1899,14 @@
       <c r="I17" s="22">
         <v>205</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="63" t="s">
         <v>122</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>57</v>
       </c>
@@ -1910,11 +1934,11 @@
       <c r="I18" s="22">
         <v>205</v>
       </c>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>57</v>
       </c>
@@ -1930,7 +1954,7 @@
       <c r="E19" s="8">
         <v>6</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="56" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="9">
@@ -1939,10 +1963,10 @@
       <c r="H19" s="8">
         <v>3893</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="55">
         <v>205</v>
       </c>
-      <c r="J19" s="66" t="s">
+      <c r="J19" s="65" t="s">
         <v>120</v>
       </c>
       <c r="M19" s="15"/>
@@ -1954,7 +1978,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>58</v>
       </c>
@@ -1982,7 +2006,7 @@
       <c r="I20" s="22">
         <v>205</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="63" t="s">
         <v>116</v>
       </c>
       <c r="M20" s="12" t="s">
@@ -2013,7 +2037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>58</v>
       </c>
@@ -2041,7 +2065,7 @@
       <c r="I21" s="22">
         <v>205</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="63" t="s">
         <v>117</v>
       </c>
       <c r="M21" s="15">
@@ -2070,7 +2094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>58</v>
       </c>
@@ -2086,7 +2110,7 @@
       <c r="E22" s="8">
         <v>6</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="57" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="9">
@@ -2095,10 +2119,10 @@
       <c r="H22" s="8">
         <v>3799</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="55">
         <v>205</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="65" t="s">
         <v>118</v>
       </c>
       <c r="M22" s="4">
@@ -2130,7 +2154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>59</v>
       </c>
@@ -2158,7 +2182,7 @@
       <c r="I23" s="22">
         <v>196</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="71" t="s">
         <v>77</v>
       </c>
       <c r="M23" s="4">
@@ -2190,7 +2214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>59</v>
       </c>
@@ -2218,7 +2242,7 @@
       <c r="I24" s="22">
         <v>205</v>
       </c>
-      <c r="J24" s="64" t="s">
+      <c r="J24" s="63" t="s">
         <v>78</v>
       </c>
       <c r="M24" s="4">
@@ -2250,7 +2274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>59</v>
       </c>
@@ -2275,10 +2299,10 @@
       <c r="H25" s="8">
         <v>3813</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="55">
         <v>205</v>
       </c>
-      <c r="J25" s="66" t="s">
+      <c r="J25" s="65" t="s">
         <v>79</v>
       </c>
       <c r="M25" s="7">
@@ -2310,7 +2334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>60</v>
       </c>
@@ -2338,7 +2362,7 @@
       <c r="I26" s="22">
         <v>196</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="J26" s="63" t="s">
         <v>80</v>
       </c>
       <c r="K26" t="s">
@@ -2351,7 +2375,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>60</v>
       </c>
@@ -2379,7 +2403,7 @@
       <c r="I27" s="22">
         <v>196</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="J27" s="63" t="s">
         <v>81</v>
       </c>
       <c r="M27" s="1"/>
@@ -2389,7 +2413,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>60</v>
       </c>
@@ -2417,7 +2441,7 @@
       <c r="I28" s="22">
         <v>214</v>
       </c>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="63" t="s">
         <v>82</v>
       </c>
       <c r="M28" s="1"/>
@@ -2426,7 +2450,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>60</v>
       </c>
@@ -2442,7 +2466,7 @@
       <c r="E29" s="8">
         <v>3</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="54" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="9">
@@ -2451,10 +2475,10 @@
       <c r="H29" s="8">
         <v>3895</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="55">
         <v>214</v>
       </c>
-      <c r="J29" s="66" t="s">
+      <c r="J29" s="65" t="s">
         <v>83</v>
       </c>
       <c r="M29" s="1"/>
@@ -2463,7 +2487,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>61</v>
       </c>
@@ -2491,7 +2515,7 @@
       <c r="I30" s="22">
         <v>196</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="63" t="s">
         <v>84</v>
       </c>
       <c r="M30" s="1"/>
@@ -2500,7 +2524,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>61</v>
       </c>
@@ -2528,7 +2552,7 @@
       <c r="I31" s="22">
         <v>196</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="J31" s="63" t="s">
         <v>85</v>
       </c>
       <c r="M31" s="1"/>
@@ -2537,7 +2561,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>61</v>
       </c>
@@ -2565,7 +2589,7 @@
       <c r="I32" s="22">
         <v>214</v>
       </c>
-      <c r="J32" s="64" t="s">
+      <c r="J32" s="63" t="s">
         <v>86</v>
       </c>
       <c r="K32" t="s">
@@ -2578,7 +2602,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>61</v>
       </c>
@@ -2606,7 +2630,7 @@
       <c r="I33" s="22">
         <v>214</v>
       </c>
-      <c r="J33" s="64" t="s">
+      <c r="J33" s="63" t="s">
         <v>87</v>
       </c>
       <c r="M33" s="1"/>
@@ -2615,7 +2639,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>61</v>
       </c>
@@ -2643,7 +2667,7 @@
       <c r="I34" s="22">
         <v>214</v>
       </c>
-      <c r="J34" s="64" t="s">
+      <c r="J34" s="63" t="s">
         <v>88</v>
       </c>
       <c r="M34" s="32" t="s">
@@ -2655,7 +2679,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>61</v>
       </c>
@@ -2671,7 +2695,7 @@
       <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="54" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="9">
@@ -2680,10 +2704,10 @@
       <c r="H35" s="8">
         <v>3895</v>
       </c>
-      <c r="I35" s="56">
+      <c r="I35" s="55">
         <v>214</v>
       </c>
-      <c r="J35" s="66" t="s">
+      <c r="J35" s="65" t="s">
         <v>89</v>
       </c>
       <c r="M35" s="1"/>
@@ -2693,7 +2717,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>62</v>
       </c>
@@ -2721,16 +2745,16 @@
       <c r="I36" s="22">
         <v>214</v>
       </c>
-      <c r="J36" s="64" t="s">
+      <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="74" t="s">
+      <c r="M36" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>62</v>
       </c>
@@ -2758,11 +2782,11 @@
       <c r="I37" s="22">
         <v>214</v>
       </c>
-      <c r="J37" s="64" t="s">
+      <c r="J37" s="63" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>62</v>
       </c>
@@ -2790,7 +2814,7 @@
       <c r="I38" s="22">
         <v>214</v>
       </c>
-      <c r="J38" s="64" t="s">
+      <c r="J38" s="63" t="s">
         <v>135</v>
       </c>
       <c r="M38" s="15"/>
@@ -2800,7 +2824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>62</v>
       </c>
@@ -2828,7 +2852,7 @@
       <c r="I39" s="22">
         <v>214</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="J39" s="63" t="s">
         <v>91</v>
       </c>
       <c r="M39" s="12" t="s">
@@ -2844,7 +2868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>62</v>
       </c>
@@ -2872,7 +2896,7 @@
       <c r="I40" s="22">
         <v>214</v>
       </c>
-      <c r="J40" s="64" t="s">
+      <c r="J40" s="63" t="s">
         <v>92</v>
       </c>
       <c r="M40" s="4">
@@ -2888,7 +2912,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>62</v>
       </c>
@@ -2916,7 +2940,7 @@
       <c r="I41" s="22">
         <v>214</v>
       </c>
-      <c r="J41" s="64" t="s">
+      <c r="J41" s="63" t="s">
         <v>93</v>
       </c>
       <c r="M41" s="4">
@@ -2932,7 +2956,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>62</v>
       </c>
@@ -2948,7 +2972,7 @@
       <c r="E42" s="8">
         <v>3</v>
       </c>
-      <c r="F42" s="55" t="s">
+      <c r="F42" s="54" t="s">
         <v>54</v>
       </c>
       <c r="G42" s="9">
@@ -2957,10 +2981,10 @@
       <c r="H42" s="8">
         <v>3895</v>
       </c>
-      <c r="I42" s="56">
+      <c r="I42" s="55">
         <v>214</v>
       </c>
-      <c r="J42" s="66" t="s">
+      <c r="J42" s="65" t="s">
         <v>94</v>
       </c>
       <c r="M42" s="33">
@@ -2976,7 +3000,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>63</v>
       </c>
@@ -3004,7 +3028,7 @@
       <c r="I43" s="22">
         <v>214</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="71" t="s">
         <v>99</v>
       </c>
       <c r="M43" s="37">
@@ -3020,7 +3044,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>63</v>
       </c>
@@ -3048,11 +3072,11 @@
       <c r="I44" s="22">
         <v>214</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J44" s="63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -3080,14 +3104,14 @@
       <c r="I45" s="22">
         <v>214</v>
       </c>
-      <c r="J45" s="64" t="s">
+      <c r="J45" s="63" t="s">
         <v>96</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>63</v>
       </c>
@@ -3112,17 +3136,17 @@
       <c r="H46" s="8">
         <v>423</v>
       </c>
-      <c r="I46" s="56">
+      <c r="I46" s="55">
         <v>214</v>
       </c>
-      <c r="J46" s="71" t="s">
+      <c r="J46" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="K46" s="70" t="s">
+      <c r="K46" s="69" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -3150,7 +3174,7 @@
       <c r="I47" s="6">
         <v>240</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="71" t="s">
         <v>98</v>
       </c>
       <c r="K47" t="s">
@@ -3165,7 +3189,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="26"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>64</v>
       </c>
@@ -3193,7 +3217,7 @@
       <c r="I48" s="6">
         <v>240</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="71" t="s">
         <v>105</v>
       </c>
       <c r="M48" s="12" t="s">
@@ -3224,7 +3248,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>64</v>
       </c>
@@ -3240,7 +3264,7 @@
       <c r="E49" s="8">
         <v>3</v>
       </c>
-      <c r="F49" s="55" t="s">
+      <c r="F49" s="54" t="s">
         <v>58</v>
       </c>
       <c r="G49" s="9">
@@ -3249,10 +3273,10 @@
       <c r="H49" s="8">
         <v>3895</v>
       </c>
-      <c r="I49" s="56">
+      <c r="I49" s="55">
         <v>214</v>
       </c>
-      <c r="J49" s="66" t="s">
+      <c r="J49" s="65" t="s">
         <v>112</v>
       </c>
       <c r="M49" s="15">
@@ -3281,7 +3305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>65</v>
       </c>
@@ -3309,7 +3333,7 @@
       <c r="I50" s="6">
         <v>235</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="J50" s="63" t="s">
         <v>111</v>
       </c>
       <c r="M50" s="4">
@@ -3338,7 +3362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>65</v>
       </c>
@@ -3366,7 +3390,7 @@
       <c r="I51" s="6">
         <v>235</v>
       </c>
-      <c r="J51" s="64" t="s">
+      <c r="J51" s="63" t="s">
         <v>106</v>
       </c>
       <c r="M51" s="4">
@@ -3395,7 +3419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>65</v>
       </c>
@@ -3411,7 +3435,7 @@
       <c r="E52" s="8">
         <v>6</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="54" t="s">
         <v>76</v>
       </c>
       <c r="G52" s="9">
@@ -3423,7 +3447,7 @@
       <c r="I52" s="9">
         <v>235</v>
       </c>
-      <c r="J52" s="66" t="s">
+      <c r="J52" s="65" t="s">
         <v>107</v>
       </c>
       <c r="M52" s="4">
@@ -3452,7 +3476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -3480,7 +3504,7 @@
       <c r="I53" s="6">
         <v>235</v>
       </c>
-      <c r="J53" s="65" t="s">
+      <c r="J53" s="64" t="s">
         <v>110</v>
       </c>
       <c r="M53" s="37">
@@ -3509,7 +3533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>66</v>
       </c>
@@ -3537,11 +3561,11 @@
       <c r="I54" s="6">
         <v>235</v>
       </c>
-      <c r="J54" s="67" t="s">
+      <c r="J54" s="66" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>66</v>
       </c>
@@ -3569,11 +3593,11 @@
       <c r="I55" s="9">
         <v>235</v>
       </c>
-      <c r="J55" s="68" t="s">
+      <c r="J55" s="67" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>68</v>
       </c>
@@ -3601,11 +3625,11 @@
       <c r="I56" s="52">
         <v>235</v>
       </c>
-      <c r="J56" s="54" t="s">
+      <c r="J56" s="68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>68</v>
       </c>
@@ -3621,7 +3645,7 @@
       <c r="E57" s="8">
         <v>6</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="54" t="s">
         <v>76</v>
       </c>
       <c r="G57" s="9">
@@ -3633,11 +3657,11 @@
       <c r="I57" s="9">
         <v>235</v>
       </c>
-      <c r="J57" s="50" t="s">
+      <c r="J57" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -3665,11 +3689,11 @@
       <c r="I58" s="52">
         <v>235</v>
       </c>
-      <c r="J58" s="49" t="s">
+      <c r="J58" s="63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>69</v>
       </c>
@@ -3685,7 +3709,7 @@
       <c r="E59" s="8">
         <v>6</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="54" t="s">
         <v>144</v>
       </c>
       <c r="G59" s="9">
@@ -3697,79 +3721,153 @@
       <c r="I59" s="9">
         <v>235</v>
       </c>
-      <c r="J59" s="50" t="s">
+      <c r="J59" s="65" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>70</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="49"/>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="4">
+        <v>60</v>
+      </c>
+      <c r="E60" s="1">
+        <v>6</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="6">
+        <v>12</v>
+      </c>
+      <c r="H60" s="1">
+        <v>3928</v>
+      </c>
+      <c r="I60" s="52">
+        <v>235</v>
+      </c>
+      <c r="J60" s="49" t="s">
+        <v>152</v>
+      </c>
       <c r="M60" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="49"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="49"/>
-      <c r="N62" s="74" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>70</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="7">
+        <v>60</v>
+      </c>
+      <c r="E61" s="8">
         <v>6</v>
       </c>
-      <c r="O62" s="74"/>
-      <c r="P62" s="74"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="F61" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" s="9">
+        <v>12</v>
+      </c>
+      <c r="H61" s="8">
+        <v>3936</v>
+      </c>
+      <c r="I61" s="9">
+        <v>235</v>
+      </c>
+      <c r="J61" s="50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62" s="77">
+        <v>71</v>
+      </c>
+      <c r="B62" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="77">
+        <v>60</v>
+      </c>
+      <c r="E62" s="78">
+        <v>6</v>
+      </c>
+      <c r="F62" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="79">
+        <v>12</v>
+      </c>
+      <c r="H62" s="78">
+        <v>3928</v>
+      </c>
+      <c r="I62" s="79">
+        <v>235</v>
+      </c>
+      <c r="J62" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="N62" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>72</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="6"/>
       <c r="H63" s="1"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="49"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="49"/>
+      <c r="J63" s="49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>72</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="50" t="s">
+        <v>150</v>
+      </c>
       <c r="M64" s="15"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
@@ -3777,7 +3875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3801,7 +3899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3825,7 +3923,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3849,7 +3947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3873,7 +3971,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3896,7 +3994,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3910,7 +4008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3921,7 +4019,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M72" s="15"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
@@ -3931,7 +4029,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="26"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M73" s="12" t="s">
         <v>7</v>
       </c>
@@ -3960,7 +4058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M74" s="15">
         <v>15</v>
       </c>
@@ -3990,7 +4088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M75" s="1">
         <v>15</v>
       </c>
@@ -4017,7 +4115,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M76" s="41">
         <v>15</v>
       </c>
@@ -4044,11 +4142,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M81" s="62"/>
+    <row r="81" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M81" s="61"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
-      <c r="P81" s="63" t="s">
+      <c r="P81" s="62" t="s">
         <v>66</v>
       </c>
       <c r="Q81" s="10" t="s">
@@ -4056,8 +4154,8 @@
       </c>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M82" s="59">
+    <row r="82" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M82" s="58">
         <v>60</v>
       </c>
       <c r="N82">
@@ -4086,8 +4184,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M83" s="59">
+    <row r="83" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M83" s="58">
         <v>60</v>
       </c>
       <c r="N83">
@@ -4116,8 +4214,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M84" s="59">
+    <row r="84" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M84" s="58">
         <v>60</v>
       </c>
       <c r="N84">
@@ -4143,8 +4241,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M85" s="59">
+    <row r="85" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M85" s="58">
         <v>60</v>
       </c>
       <c r="N85">
@@ -4170,20 +4268,20 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="13:22" x14ac:dyDescent="0.25">
-      <c r="M86" s="60">
+    <row r="86" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="M86" s="59">
         <v>60</v>
       </c>
-      <c r="N86" s="58">
+      <c r="N86" s="57">
         <v>6</v>
       </c>
-      <c r="O86" s="58">
+      <c r="O86" s="57">
         <v>12</v>
       </c>
-      <c r="P86" s="61">
+      <c r="P86" s="60">
         <v>3914</v>
       </c>
-      <c r="Q86" s="58">
+      <c r="Q86" s="57">
         <v>235</v>
       </c>
       <c r="R86" s="29" t="s">
@@ -4197,7 +4295,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M88">
         <v>60</v>
       </c>
@@ -4224,7 +4322,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M89">
         <v>60</v>
       </c>
@@ -4260,7 +4358,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="101">
+    <cfRule type="iconSet" priority="104">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4268,7 +4366,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="102">
+    <cfRule type="iconSet" priority="105">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4278,7 +4376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4286,7 +4384,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4298,7 +4396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4306,7 +4404,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4318,7 +4416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="60">
+    <cfRule type="iconSet" priority="63">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4326,7 +4424,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="61">
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4336,7 +4434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="56">
+    <cfRule type="iconSet" priority="59">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4344,7 +4442,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="57">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4354,7 +4452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4362,7 +4460,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4374,7 +4472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4386,7 +4484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="53">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4394,7 +4492,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="51">
+    <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4404,7 +4502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4412,7 +4510,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4424,7 +4522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4436,7 +4534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="48">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4444,7 +4542,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="49">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4454,7 +4552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4462,7 +4560,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4474,7 +4572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4486,7 +4584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="40">
+    <cfRule type="iconSet" priority="43">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4494,7 +4592,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="41">
+    <cfRule type="iconSet" priority="44">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4504,7 +4602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4512,7 +4610,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4524,7 +4622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4536,7 +4634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="38">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4544,7 +4642,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="39">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4554,7 +4652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4562,7 +4660,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4574,7 +4672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4586,7 +4684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4594,7 +4692,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4604,7 +4702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4612,7 +4710,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4624,7 +4722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4636,7 +4734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4644,7 +4742,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4654,7 +4752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4662,7 +4760,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4674,7 +4772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4686,7 +4784,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="20">
+    <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4694,7 +4792,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="21">
+    <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4704,7 +4802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4712,7 +4810,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4724,7 +4822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4736,7 +4834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4744,7 +4842,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4754,7 +4852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4762,7 +4860,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4774,7 +4872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4786,7 +4884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4794,7 +4892,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="11">
+    <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4804,7 +4902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4812,7 +4910,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4824,6 +4922,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4835,7 +4969,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4847,19 +4981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I59">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4871,7 +4993,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
+  <conditionalFormatting sqref="I60">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4883,7 +5005,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I61">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF586435-7257-4882-92CC-994F95179D04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1D943-9470-43F6-8AC8-B7B64B24FBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="154">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -948,6 +948,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,18 +971,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64:G65"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,16 +1281,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="M1" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="M1" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
@@ -1301,12 +1301,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -2748,11 +2748,11 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
+      <c r="M36" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -3793,41 +3793,41 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="77">
+      <c r="A62" s="73">
         <v>71</v>
       </c>
-      <c r="B62" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="78" t="s">
+      <c r="B62" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="77">
+      <c r="D62" s="73">
         <v>60</v>
       </c>
-      <c r="E62" s="78">
-        <v>6</v>
-      </c>
-      <c r="F62" s="78" t="s">
+      <c r="E62" s="74">
+        <v>6</v>
+      </c>
+      <c r="F62" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="G62" s="79">
+      <c r="G62" s="75">
         <v>12</v>
       </c>
-      <c r="H62" s="78">
+      <c r="H62" s="74">
         <v>3928</v>
       </c>
-      <c r="I62" s="79">
+      <c r="I62" s="75">
         <v>235</v>
       </c>
-      <c r="J62" s="80" t="s">
+      <c r="J62" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N62" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
+      <c r="N62" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="77"/>
+      <c r="P62" s="77"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -3839,12 +3839,24 @@
       <c r="C63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="6"/>
+      <c r="D63" s="4">
+        <v>60</v>
+      </c>
+      <c r="E63" s="1">
+        <v>6</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="6">
+        <v>12</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3928</v>
+      </c>
+      <c r="I63" s="52">
+        <v>235</v>
+      </c>
       <c r="J63" s="49" t="s">
         <v>149</v>
       </c>
@@ -3859,12 +3871,24 @@
       <c r="C64" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="9"/>
+      <c r="D64" s="7">
+        <v>60</v>
+      </c>
+      <c r="E64" s="8">
+        <v>6</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G64" s="9">
+        <v>12</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3936</v>
+      </c>
+      <c r="I64" s="9">
+        <v>235</v>
+      </c>
       <c r="J64" s="50" t="s">
         <v>150</v>
       </c>
@@ -3876,7 +3900,9 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
+      <c r="A65" s="4">
+        <v>73</v>
+      </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -4358,7 +4384,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="104">
+    <cfRule type="iconSet" priority="106">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4366,7 +4392,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="105">
+    <cfRule type="iconSet" priority="107">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4376,7 +4402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4384,7 +4410,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4396,7 +4422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4404,7 +4430,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4416,7 +4442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="63">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4424,7 +4450,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="64">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4434,7 +4460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="59">
+    <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4442,7 +4468,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="60">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4452,7 +4478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4460,7 +4486,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4472,7 +4498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4484,7 +4510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="53">
+    <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4492,7 +4518,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="54">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4502,7 +4528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4510,7 +4536,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4522,7 +4548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4534,7 +4560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="48">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4542,7 +4568,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="49">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4552,7 +4578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4560,7 +4586,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4572,7 +4598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4584,7 +4610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="43">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4592,7 +4618,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="44">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4602,7 +4628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4610,7 +4636,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4622,7 +4648,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4634,7 +4660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="38">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4642,7 +4668,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="39">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4652,7 +4678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4660,7 +4686,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4672,7 +4698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4684,7 +4710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="33">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4692,7 +4718,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="34">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4702,7 +4728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4710,7 +4736,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4722,7 +4748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4734,7 +4760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4742,7 +4768,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4752,7 +4778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4760,7 +4786,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4772,7 +4798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4784,7 +4810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="23">
+    <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4792,7 +4818,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="24">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4802,7 +4828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4810,7 +4836,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4822,7 +4848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4834,7 +4860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="18">
+    <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4842,7 +4868,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="19">
+    <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4852,7 +4878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4860,7 +4886,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4872,7 +4898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4884,7 +4910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="13">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4892,7 +4918,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="14">
+    <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4902,7 +4928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4910,7 +4936,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4922,6 +4948,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4933,7 +4983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4945,7 +4995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -4957,19 +5007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
+  <conditionalFormatting sqref="I59">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4981,7 +5019,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I60">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4993,7 +5043,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5005,7 +5055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5017,7 +5067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1D943-9470-43F6-8AC8-B7B64B24FBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D40F26-5DCF-4E81-A4DD-97714BE3154F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="154">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3901,16 +3901,32 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="6"/>
+      <c r="D65" s="4">
+        <v>60</v>
+      </c>
+      <c r="E65" s="1">
+        <v>6</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="6">
+        <v>12</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3928</v>
+      </c>
+      <c r="I65" s="52">
+        <v>235</v>
+      </c>
       <c r="J65" s="49"/>
       <c r="M65" s="12" t="s">
         <v>7</v>
@@ -3926,16 +3942,34 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="49"/>
+      <c r="A66" s="7">
+        <v>74</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="7">
+        <v>60</v>
+      </c>
+      <c r="E66" s="8">
+        <v>6</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" s="9">
+        <v>12</v>
+      </c>
+      <c r="H66" s="8">
+        <v>3936</v>
+      </c>
+      <c r="I66" s="9">
+        <v>235</v>
+      </c>
+      <c r="J66" s="50"/>
       <c r="M66" s="41">
         <v>15</v>
       </c>
@@ -4384,7 +4418,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="106">
+    <cfRule type="iconSet" priority="108">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4392,7 +4426,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="107">
+    <cfRule type="iconSet" priority="109">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4402,7 +4436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4410,7 +4444,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="105">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4422,7 +4456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4430,7 +4464,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4442,7 +4476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="65">
+    <cfRule type="iconSet" priority="67">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4450,7 +4484,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="66">
+    <cfRule type="iconSet" priority="68">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4460,7 +4494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="61">
+    <cfRule type="iconSet" priority="63">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4468,7 +4502,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="62">
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4478,7 +4512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4486,7 +4520,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4498,7 +4532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4510,7 +4544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="55">
+    <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4518,7 +4552,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="56">
+    <cfRule type="iconSet" priority="58">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4528,7 +4562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4536,7 +4570,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4548,7 +4582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4560,7 +4594,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4568,7 +4602,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="51">
+    <cfRule type="iconSet" priority="53">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4578,7 +4612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4586,7 +4620,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4598,7 +4632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4610,7 +4644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4618,7 +4652,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="48">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4628,7 +4662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4636,7 +4670,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4648,7 +4682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4660,7 +4694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="40">
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4668,7 +4702,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="41">
+    <cfRule type="iconSet" priority="43">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4678,7 +4712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4686,7 +4720,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4698,7 +4732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4710,7 +4744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4718,7 +4752,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="38">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4728,7 +4762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4736,7 +4770,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4748,7 +4782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4760,7 +4794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4768,7 +4802,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4778,7 +4812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4786,7 +4820,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4798,7 +4832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4810,7 +4844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4818,7 +4852,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4828,7 +4862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4836,7 +4870,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4848,7 +4882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4860,7 +4894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="20">
+    <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4868,7 +4902,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="21">
+    <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4878,7 +4912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4886,7 +4920,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4898,7 +4932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4910,7 +4944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4918,7 +4952,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4928,7 +4962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4936,7 +4970,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4948,6 +4982,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4959,7 +5017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4971,7 +5029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -4983,19 +5041,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
+  <conditionalFormatting sqref="I59">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5007,7 +5053,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I60">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5019,7 +5077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5031,7 +5089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5043,7 +5101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5055,7 +5113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5067,7 +5125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D40F26-5DCF-4E81-A4DD-97714BE3154F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA779192-FF6F-4D4C-9A4F-7B91D60F16D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,13 +480,13 @@
     <t>2023-10-27T08:30:15</t>
   </si>
   <si>
-    <t>2023-09-03T02:37:30</t>
-  </si>
-  <si>
-    <t>2023-08-28T01:12:00</t>
-  </si>
-  <si>
-    <t>2023-08-30T06:15:30</t>
+    <t>20230828_010044</t>
+  </si>
+  <si>
+    <t>20230830_060414</t>
+  </si>
+  <si>
+    <t>20230903_022613</t>
   </si>
 </sst>
 </file>
@@ -957,9 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,6 +968,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,16 +1281,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="M1" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="M1" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
@@ -1301,12 +1301,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -2748,11 +2748,11 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
+      <c r="M36" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -3753,8 +3753,8 @@
       <c r="I60" s="52">
         <v>235</v>
       </c>
-      <c r="J60" s="49" t="s">
-        <v>152</v>
+      <c r="J60" s="63" t="s">
+        <v>151</v>
       </c>
       <c r="M60" s="32" t="s">
         <v>55</v>
@@ -3788,8 +3788,8 @@
       <c r="I61" s="9">
         <v>235</v>
       </c>
-      <c r="J61" s="50" t="s">
-        <v>153</v>
+      <c r="J61" s="65" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
@@ -3820,14 +3820,14 @@
       <c r="I62" s="75">
         <v>235</v>
       </c>
-      <c r="J62" s="76" t="s">
-        <v>151</v>
-      </c>
-      <c r="N62" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="77"/>
-      <c r="P62" s="77"/>
+      <c r="J62" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="N62" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="76"/>
+      <c r="P62" s="76"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA779192-FF6F-4D4C-9A4F-7B91D60F16D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F0DAA7-C9EC-4C37-AB95-98DF34E1FF48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="30960" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="160">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -487,6 +487,24 @@
   </si>
   <si>
     <t>20230903_022613</t>
+  </si>
+  <si>
+    <t>2024-01-02T14:51:38</t>
+  </si>
+  <si>
+    <t>2024-01-08T16:17:00</t>
+  </si>
+  <si>
+    <t>2024-01-11T20:55:30</t>
+  </si>
+  <si>
+    <t>2024-01-14T17:42:00</t>
+  </si>
+  <si>
+    <t>2023-12-14T12:59:00</t>
+  </si>
+  <si>
+    <t>2023-12-20T14:24:30</t>
   </si>
 </sst>
 </file>
@@ -766,7 +784,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -957,6 +975,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -969,7 +990,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1257,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,16 +1305,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="M1" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="M1" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
@@ -1301,12 +1325,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -2748,11 +2772,11 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
+      <c r="M36" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -3820,14 +3844,14 @@
       <c r="I62" s="75">
         <v>235</v>
       </c>
-      <c r="J62" s="80" t="s">
+      <c r="J62" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="N62" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="76"/>
-      <c r="P62" s="76"/>
+      <c r="N62" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="77"/>
+      <c r="P62" s="77"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -3927,7 +3951,9 @@
       <c r="I65" s="52">
         <v>235</v>
       </c>
-      <c r="J65" s="49"/>
+      <c r="J65" s="49" t="s">
+        <v>158</v>
+      </c>
       <c r="M65" s="12" t="s">
         <v>7</v>
       </c>
@@ -3969,7 +3995,9 @@
       <c r="I66" s="9">
         <v>235</v>
       </c>
-      <c r="J66" s="50"/>
+      <c r="J66" s="50" t="s">
+        <v>159</v>
+      </c>
       <c r="M66" s="41">
         <v>15</v>
       </c>
@@ -3984,16 +4012,36 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="49"/>
+      <c r="A67" s="4">
+        <v>75</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="4">
+        <v>60</v>
+      </c>
+      <c r="E67" s="1">
+        <v>6</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="6">
+        <v>12</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3922</v>
+      </c>
+      <c r="I67" s="6">
+        <v>235</v>
+      </c>
+      <c r="J67" s="82" t="s">
+        <v>154</v>
+      </c>
       <c r="M67">
         <v>30</v>
       </c>
@@ -4008,16 +4056,36 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="50"/>
+      <c r="A68" s="81">
+        <v>75</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="4">
+        <v>60</v>
+      </c>
+      <c r="E68" s="1">
+        <v>6</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="6">
+        <v>12</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3922</v>
+      </c>
+      <c r="I68" s="6">
+        <v>235</v>
+      </c>
+      <c r="J68" s="49" t="s">
+        <v>155</v>
+      </c>
       <c r="M68">
         <v>60</v>
       </c>
@@ -4032,15 +4100,36 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="A69" s="81">
+        <v>75</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="4">
+        <v>60</v>
+      </c>
+      <c r="E69" s="1">
+        <v>6</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G69" s="6">
+        <v>12</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3922</v>
+      </c>
+      <c r="I69" s="6">
+        <v>235</v>
+      </c>
+      <c r="J69" s="49" t="s">
+        <v>156</v>
+      </c>
       <c r="M69">
         <v>60</v>
       </c>
@@ -4055,21 +4144,44 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="A70" s="7">
+        <v>75</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="7">
+        <v>60</v>
+      </c>
+      <c r="E70" s="8">
+        <v>6</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" s="9">
+        <v>12</v>
+      </c>
+      <c r="H70" s="8">
+        <v>3922</v>
+      </c>
+      <c r="I70" s="9">
+        <v>235</v>
+      </c>
+      <c r="J70" s="50" t="s">
+        <v>157</v>
+      </c>
       <c r="N70" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>76</v>
+      </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4418,7 +4530,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="108">
+    <cfRule type="iconSet" priority="112">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4426,7 +4538,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="109">
+    <cfRule type="iconSet" priority="113">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4436,7 +4548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="105">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4444,7 +4556,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4456,7 +4568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4464,7 +4576,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4476,6 +4588,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="iconSet" priority="67">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4493,26 +4623,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4520,7 +4632,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4532,7 +4644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4544,7 +4656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="57">
+    <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4552,7 +4664,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="58">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4562,7 +4674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4570,7 +4682,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4582,7 +4694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4594,7 +4706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="52">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4602,7 +4714,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="53">
+    <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4612,7 +4724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4620,7 +4732,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4632,7 +4744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4644,7 +4756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="47">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4652,7 +4764,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="48">
+    <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4662,7 +4774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4670,7 +4782,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4682,7 +4794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4694,7 +4806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="42">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4702,7 +4814,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="43">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4712,7 +4824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4720,7 +4832,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4732,7 +4844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4744,7 +4856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="37">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4752,7 +4864,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="38">
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4762,7 +4874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4770,7 +4882,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4782,7 +4894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4794,7 +4906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4802,7 +4914,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="33">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4812,7 +4924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4820,7 +4932,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4832,7 +4944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4844,7 +4956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4852,7 +4964,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4862,7 +4974,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4870,7 +4982,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4882,7 +4994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4894,7 +5006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="22">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4902,7 +5014,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="23">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4912,7 +5024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4920,7 +5032,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4932,7 +5044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4944,7 +5056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="17">
+    <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4952,7 +5064,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="18">
+    <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4962,7 +5074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4970,7 +5082,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4982,6 +5094,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -4993,19 +5153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
+  <conditionalFormatting sqref="I59">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5017,7 +5165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I60">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5029,7 +5177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
+  <conditionalFormatting sqref="I61">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5041,7 +5189,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I62">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5053,7 +5213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5065,7 +5225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5077,7 +5237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5089,7 +5249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5101,19 +5261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
+  <conditionalFormatting sqref="I69">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5125,7 +5273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I70">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F0DAA7-C9EC-4C37-AB95-98DF34E1FF48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A13F29-C0F4-42BC-AAD8-28A26C4E690C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="30960" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="163">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>2023-12-20T14:24:30</t>
+  </si>
+  <si>
+    <t>2024-01-26T12:41:00</t>
+  </si>
+  <si>
+    <t>2024-02-03T22:05:00</t>
+  </si>
+  <si>
+    <t>2024-02-15T17:04:00</t>
   </si>
 </sst>
 </file>
@@ -978,6 +987,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,11 +1002,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1282,7 +1291,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,16 +1314,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="M1" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="M1" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
@@ -1325,12 +1334,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -2772,11 +2781,11 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
+      <c r="M36" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -3847,11 +3856,11 @@
       <c r="J62" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="N62" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="77"/>
-      <c r="P62" s="77"/>
+      <c r="N62" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="78"/>
+      <c r="P62" s="78"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -4039,7 +4048,7 @@
       <c r="I67" s="6">
         <v>235</v>
       </c>
-      <c r="J67" s="82" t="s">
+      <c r="J67" s="77" t="s">
         <v>154</v>
       </c>
       <c r="M67">
@@ -4056,7 +4065,7 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A68" s="81">
+      <c r="A68" s="1">
         <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4100,7 +4109,7 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A69" s="81">
+      <c r="A69" s="1">
         <v>75</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4182,16 +4191,65 @@
       <c r="A71" s="1">
         <v>76</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="4">
+        <v>60</v>
+      </c>
+      <c r="E71" s="1">
+        <v>6</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G71" s="6">
+        <v>12</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3922</v>
+      </c>
+      <c r="I71" s="6">
+        <v>235</v>
+      </c>
+      <c r="J71" s="49" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>76</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="4">
+        <v>60</v>
+      </c>
+      <c r="E72" s="1">
+        <v>6</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G72" s="6">
+        <v>12</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3922</v>
+      </c>
+      <c r="I72" s="6">
+        <v>235</v>
+      </c>
+      <c r="J72" s="49" t="s">
+        <v>161</v>
+      </c>
       <c r="M72" s="15"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
@@ -4202,6 +4260,36 @@
       <c r="R72" s="26"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>76</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="7">
+        <v>60</v>
+      </c>
+      <c r="E73" s="8">
+        <v>6</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" s="9">
+        <v>12</v>
+      </c>
+      <c r="H73" s="8">
+        <v>3922</v>
+      </c>
+      <c r="I73" s="9">
+        <v>235</v>
+      </c>
+      <c r="J73" s="50" t="s">
+        <v>162</v>
+      </c>
       <c r="M73" s="12" t="s">
         <v>7</v>
       </c>
@@ -4231,6 +4319,9 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74" s="82">
+        <v>77</v>
+      </c>
       <c r="M74" s="15">
         <v>15</v>
       </c>
@@ -4530,7 +4621,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="112">
+    <cfRule type="iconSet" priority="115">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4538,7 +4629,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="113">
+    <cfRule type="iconSet" priority="116">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4548,7 +4639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4556,7 +4647,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4568,7 +4659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4576,7 +4667,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4588,7 +4679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="71">
+    <cfRule type="iconSet" priority="74">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4596,7 +4687,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="72">
+    <cfRule type="iconSet" priority="75">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4606,7 +4697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="67">
+    <cfRule type="iconSet" priority="70">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4614,7 +4705,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="68">
+    <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4624,7 +4715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4632,7 +4723,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4644,7 +4735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4656,7 +4747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="61">
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4664,7 +4755,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="62">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4674,7 +4765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4682,7 +4773,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4694,7 +4785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4706,7 +4797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="56">
+    <cfRule type="iconSet" priority="59">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4714,7 +4805,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="57">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4724,7 +4815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4732,7 +4823,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4744,7 +4835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4756,7 +4847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="51">
+    <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4764,7 +4855,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="52">
+    <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4774,7 +4865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4782,7 +4873,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4794,7 +4885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4806,7 +4897,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="49">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4814,7 +4905,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="47">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4824,7 +4915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4832,7 +4923,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4844,7 +4935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4856,7 +4947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="41">
+    <cfRule type="iconSet" priority="44">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4864,7 +4955,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="42">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4874,7 +4965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4882,7 +4973,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4894,7 +4985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4906,7 +4997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="39">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4914,7 +5005,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="37">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4924,7 +5015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4932,7 +5023,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4944,7 +5035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4956,7 +5047,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4964,7 +5055,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4974,7 +5065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4982,7 +5073,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4994,7 +5085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5006,7 +5097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5014,7 +5105,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5024,7 +5115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5032,7 +5123,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5044,7 +5135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5056,7 +5147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="21">
+    <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5064,7 +5155,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="22">
+    <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5074,7 +5165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5082,7 +5173,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5094,6 +5185,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5105,7 +5232,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5117,19 +5244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I59">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5141,7 +5256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
+  <conditionalFormatting sqref="I60">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5153,7 +5268,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I61">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5165,7 +5292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5177,7 +5304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5189,7 +5316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5201,7 +5328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5213,7 +5340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5225,19 +5352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I69">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5249,7 +5364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
+  <conditionalFormatting sqref="I70">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5261,7 +5376,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I71">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5273,7 +5400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A13F29-C0F4-42BC-AAD8-28A26C4E690C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DD013C-46C0-465A-A6B0-952D72F5287F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,12 +474,6 @@
     <t>20230703_193210</t>
   </si>
   <si>
-    <t>2023-10-24T11:43:30</t>
-  </si>
-  <si>
-    <t>2023-10-27T08:30:15</t>
-  </si>
-  <si>
     <t>20230828_010044</t>
   </si>
   <si>
@@ -501,9 +495,6 @@
     <t>2024-01-14T17:42:00</t>
   </si>
   <si>
-    <t>2023-12-14T12:59:00</t>
-  </si>
-  <si>
     <t>2023-12-20T14:24:30</t>
   </si>
   <si>
@@ -514,6 +505,15 @@
   </si>
   <si>
     <t>2024-02-15T17:04:00</t>
+  </si>
+  <si>
+    <t>20231024_113219</t>
+  </si>
+  <si>
+    <t>20231027_081904</t>
+  </si>
+  <si>
+    <t>20231214_124745</t>
   </si>
 </sst>
 </file>
@@ -793,7 +793,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1000,9 +1000,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1290,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3787,7 +3784,7 @@
         <v>235</v>
       </c>
       <c r="J60" s="63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M60" s="32" t="s">
         <v>55</v>
@@ -3822,7 +3819,7 @@
         <v>235</v>
       </c>
       <c r="J61" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
@@ -3854,7 +3851,7 @@
         <v>235</v>
       </c>
       <c r="J62" s="76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N62" s="78" t="s">
         <v>6</v>
@@ -3891,7 +3888,7 @@
         <v>235</v>
       </c>
       <c r="J63" s="49" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
@@ -3923,7 +3920,7 @@
         <v>235</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="16"/>
@@ -3961,7 +3958,7 @@
         <v>235</v>
       </c>
       <c r="J65" s="49" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M65" s="12" t="s">
         <v>7</v>
@@ -4005,7 +4002,7 @@
         <v>235</v>
       </c>
       <c r="J66" s="50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M66" s="41">
         <v>15</v>
@@ -4049,7 +4046,7 @@
         <v>235</v>
       </c>
       <c r="J67" s="77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M67">
         <v>30</v>
@@ -4093,7 +4090,7 @@
         <v>235</v>
       </c>
       <c r="J68" s="49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M68">
         <v>60</v>
@@ -4137,7 +4134,7 @@
         <v>235</v>
       </c>
       <c r="J69" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M69">
         <v>60</v>
@@ -4181,7 +4178,7 @@
         <v>235</v>
       </c>
       <c r="J70" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N70" s="23" t="s">
         <v>23</v>
@@ -4216,7 +4213,7 @@
         <v>235</v>
       </c>
       <c r="J71" s="49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -4248,7 +4245,7 @@
         <v>235</v>
       </c>
       <c r="J72" s="49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="16"/>
@@ -4288,7 +4285,7 @@
         <v>235</v>
       </c>
       <c r="J73" s="50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M73" s="12" t="s">
         <v>7</v>
@@ -4319,7 +4316,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="82">
+      <c r="A74" s="1">
         <v>77</v>
       </c>
       <c r="M74" s="15">

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DD013C-46C0-465A-A6B0-952D72F5287F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2E420-D32A-4597-9988-4D576C901555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="168">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -495,9 +495,6 @@
     <t>2024-01-14T17:42:00</t>
   </si>
   <si>
-    <t>2023-12-20T14:24:30</t>
-  </si>
-  <si>
     <t>2024-01-26T12:41:00</t>
   </si>
   <si>
@@ -514,13 +511,31 @@
   </si>
   <si>
     <t>20231214_124745</t>
+  </si>
+  <si>
+    <t>2024-02-21T18:29:15</t>
+  </si>
+  <si>
+    <t>2024-02-22T02:21:00</t>
+  </si>
+  <si>
+    <t>2024-03-03T06:01:00</t>
+  </si>
+  <si>
+    <t>2024-03-12T04:13:10</t>
+  </si>
+  <si>
+    <t>2024-03-14T17:08:10</t>
+  </si>
+  <si>
+    <t>20231220_141315</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +590,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -793,7 +816,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1002,6 +1025,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1287,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3888,7 +3932,7 @@
         <v>235</v>
       </c>
       <c r="J63" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
@@ -3920,7 +3964,7 @@
         <v>235</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="16"/>
@@ -3958,7 +4002,7 @@
         <v>235</v>
       </c>
       <c r="J65" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M65" s="12" t="s">
         <v>7</v>
@@ -4002,7 +4046,7 @@
         <v>235</v>
       </c>
       <c r="J66" s="50" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M66" s="41">
         <v>15</v>
@@ -4213,7 +4257,7 @@
         <v>235</v>
       </c>
       <c r="J71" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -4245,7 +4289,7 @@
         <v>235</v>
       </c>
       <c r="J72" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="16"/>
@@ -4285,7 +4329,7 @@
         <v>235</v>
       </c>
       <c r="J73" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M73" s="12" t="s">
         <v>7</v>
@@ -4316,8 +4360,35 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="15">
         <v>77</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="15">
+        <v>60</v>
+      </c>
+      <c r="E74" s="16">
+        <v>6</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="83">
+        <v>12</v>
+      </c>
+      <c r="H74" s="16">
+        <v>3928</v>
+      </c>
+      <c r="I74" s="52">
+        <v>235</v>
+      </c>
+      <c r="J74" s="84" t="s">
+        <v>162</v>
       </c>
       <c r="M74" s="15">
         <v>15</v>
@@ -4349,6 +4420,36 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A75" s="85">
+        <v>77</v>
+      </c>
+      <c r="B75" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="4">
+        <v>60</v>
+      </c>
+      <c r="E75" s="86">
+        <v>6</v>
+      </c>
+      <c r="F75" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="G75" s="82">
+        <v>12</v>
+      </c>
+      <c r="H75" s="86">
+        <v>3936</v>
+      </c>
+      <c r="I75" s="6">
+        <v>235</v>
+      </c>
+      <c r="J75" s="87" t="s">
+        <v>163</v>
+      </c>
       <c r="M75" s="1">
         <v>15</v>
       </c>
@@ -4376,6 +4477,36 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A76" s="85">
+        <v>77</v>
+      </c>
+      <c r="B76" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="4">
+        <v>60</v>
+      </c>
+      <c r="E76" s="86">
+        <v>6</v>
+      </c>
+      <c r="F76" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="82">
+        <v>12</v>
+      </c>
+      <c r="H76" s="86">
+        <v>3928</v>
+      </c>
+      <c r="I76" s="6">
+        <v>235</v>
+      </c>
+      <c r="J76" s="87" t="s">
+        <v>164</v>
+      </c>
       <c r="M76" s="41">
         <v>15</v>
       </c>
@@ -4400,6 +4531,70 @@
       </c>
       <c r="U76" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A77" s="85">
+        <v>77</v>
+      </c>
+      <c r="B77" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="4">
+        <v>60</v>
+      </c>
+      <c r="E77" s="86">
+        <v>6</v>
+      </c>
+      <c r="F77" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="G77" s="82">
+        <v>12</v>
+      </c>
+      <c r="H77" s="86">
+        <v>3936</v>
+      </c>
+      <c r="I77" s="6">
+        <v>235</v>
+      </c>
+      <c r="J77" s="87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78" s="88">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="7">
+        <v>60</v>
+      </c>
+      <c r="E78" s="8">
+        <v>6</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="89">
+        <v>12</v>
+      </c>
+      <c r="H78" s="8">
+        <v>3928</v>
+      </c>
+      <c r="I78" s="9">
+        <v>235</v>
+      </c>
+      <c r="J78" s="90" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="13:22" x14ac:dyDescent="0.3">
@@ -4618,7 +4813,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="115">
+    <cfRule type="iconSet" priority="116">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4626,7 +4821,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="116">
+    <cfRule type="iconSet" priority="117">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4636,7 +4831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="112">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4644,7 +4839,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="114">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4656,7 +4851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="76">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4664,7 +4859,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4676,7 +4871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="74">
+    <cfRule type="iconSet" priority="75">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4684,7 +4879,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="75">
+    <cfRule type="iconSet" priority="76">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4694,7 +4889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="70">
+    <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4702,7 +4897,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="71">
+    <cfRule type="iconSet" priority="72">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4712,7 +4907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4720,7 +4915,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4732,7 +4927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4744,7 +4939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="64">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4752,7 +4947,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="65">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4762,7 +4957,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4770,7 +4965,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4782,7 +4977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4794,7 +4989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="59">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4802,7 +4997,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="60">
+    <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4812,7 +5007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4820,7 +5015,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4832,7 +5027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4844,7 +5039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="54">
+    <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4852,7 +5047,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="55">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4862,7 +5057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4870,7 +5065,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4882,7 +5077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4894,7 +5089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="49">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4902,7 +5097,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4912,7 +5107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4920,7 +5115,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4932,7 +5127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4944,7 +5139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="44">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -4952,7 +5147,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4962,7 +5157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4970,7 +5165,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4982,7 +5177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4994,7 +5189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="39">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5002,7 +5197,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="40">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5012,7 +5207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5020,7 +5215,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5032,7 +5227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5044,7 +5239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="34">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5052,7 +5247,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5062,7 +5257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5070,7 +5265,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5082,7 +5277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5094,7 +5289,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5102,7 +5297,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5112,7 +5307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5120,7 +5315,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5132,7 +5327,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5144,7 +5339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="24">
+    <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5152,7 +5347,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5162,7 +5357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5170,7 +5365,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5182,6 +5377,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5193,7 +5400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I56">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5205,7 +5412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5217,7 +5424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5229,8 +5436,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5241,7 +5448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I60">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5253,7 +5460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I61">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5265,7 +5472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5277,7 +5484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5289,7 +5496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5301,7 +5508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5313,7 +5520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5325,7 +5532,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5337,8 +5544,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="I69">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5349,7 +5556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I70">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5361,7 +5568,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5373,7 +5580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5385,7 +5592,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5397,7 +5604,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="I74:I78">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2E420-D32A-4597-9988-4D576C901555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E5A2E-3499-45C3-9DF1-C7CBD1CA5C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="170">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -483,18 +494,6 @@
     <t>20230903_022613</t>
   </si>
   <si>
-    <t>2024-01-02T14:51:38</t>
-  </si>
-  <si>
-    <t>2024-01-08T16:17:00</t>
-  </si>
-  <si>
-    <t>2024-01-11T20:55:30</t>
-  </si>
-  <si>
-    <t>2024-01-14T17:42:00</t>
-  </si>
-  <si>
     <t>2024-01-26T12:41:00</t>
   </si>
   <si>
@@ -529,6 +528,24 @@
   </si>
   <si>
     <t>20231220_141315</t>
+  </si>
+  <si>
+    <t>20240102_144319</t>
+  </si>
+  <si>
+    <t>20240108_160840</t>
+  </si>
+  <si>
+    <t>20240111_204709</t>
+  </si>
+  <si>
+    <t>20240114_173338</t>
+  </si>
+  <si>
+    <t>2024-04-12T19:44:00</t>
+  </si>
+  <si>
+    <t>PHYLLOSILICATES 189 190 191 192 193 201 500MS</t>
   </si>
 </sst>
 </file>
@@ -1013,6 +1030,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1025,27 +1045,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1331,56 +1348,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" style="47" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="47" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.44140625" customWidth="1"/>
+    <col min="18" max="18" width="41.42578125" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="M1" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="M1" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J2" s="72" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -1393,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>51</v>
       </c>
@@ -1481,7 +1498,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>51</v>
       </c>
@@ -1525,7 +1542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>52</v>
       </c>
@@ -1569,7 +1586,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>52</v>
       </c>
@@ -1613,7 +1630,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1657,7 +1674,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>52</v>
       </c>
@@ -1693,7 +1710,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>56</v>
       </c>
@@ -1737,7 +1754,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>56</v>
       </c>
@@ -1781,7 +1798,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1825,7 +1842,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>56</v>
       </c>
@@ -1869,7 +1886,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>56</v>
       </c>
@@ -1913,7 +1930,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>57</v>
       </c>
@@ -1945,7 +1962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>57</v>
       </c>
@@ -1980,7 +1997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>57</v>
       </c>
@@ -2012,7 +2029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>57</v>
       </c>
@@ -2052,7 +2069,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>58</v>
       </c>
@@ -2111,7 +2128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>58</v>
       </c>
@@ -2168,7 +2185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>58</v>
       </c>
@@ -2228,7 +2245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>59</v>
       </c>
@@ -2288,7 +2305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>59</v>
       </c>
@@ -2348,7 +2365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>59</v>
       </c>
@@ -2408,7 +2425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>60</v>
       </c>
@@ -2449,7 +2466,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>60</v>
       </c>
@@ -2487,7 +2504,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>60</v>
       </c>
@@ -2524,7 +2541,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>60</v>
       </c>
@@ -2561,7 +2578,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>61</v>
       </c>
@@ -2598,7 +2615,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>61</v>
       </c>
@@ -2635,7 +2652,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>61</v>
       </c>
@@ -2676,7 +2693,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>61</v>
       </c>
@@ -2713,7 +2730,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>61</v>
       </c>
@@ -2753,7 +2770,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>61</v>
       </c>
@@ -2791,7 +2808,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>62</v>
       </c>
@@ -2822,13 +2839,13 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M36" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>62</v>
       </c>
@@ -2860,7 +2877,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>62</v>
       </c>
@@ -2898,7 +2915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>62</v>
       </c>
@@ -2942,7 +2959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>62</v>
       </c>
@@ -2986,7 +3003,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>62</v>
       </c>
@@ -3030,7 +3047,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>62</v>
       </c>
@@ -3074,7 +3091,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>63</v>
       </c>
@@ -3118,7 +3135,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>63</v>
       </c>
@@ -3150,7 +3167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -3185,7 +3202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>63</v>
       </c>
@@ -3220,7 +3237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -3263,7 +3280,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="26"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>64</v>
       </c>
@@ -3322,7 +3339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>64</v>
       </c>
@@ -3379,7 +3396,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>65</v>
       </c>
@@ -3436,7 +3453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>65</v>
       </c>
@@ -3493,7 +3510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>65</v>
       </c>
@@ -3550,7 +3567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -3607,7 +3624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>66</v>
       </c>
@@ -3639,7 +3656,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>66</v>
       </c>
@@ -3671,7 +3688,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>68</v>
       </c>
@@ -3703,7 +3720,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>68</v>
       </c>
@@ -3735,7 +3752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -3767,7 +3784,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>69</v>
       </c>
@@ -3799,7 +3816,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>70</v>
       </c>
@@ -3834,7 +3851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>70</v>
       </c>
@@ -3866,7 +3883,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="73">
         <v>71</v>
       </c>
@@ -3897,13 +3914,13 @@
       <c r="J62" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N62" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="78"/>
-      <c r="P62" s="78"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N62" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>72</v>
       </c>
@@ -3932,10 +3949,10 @@
         <v>235</v>
       </c>
       <c r="J63" s="49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>72</v>
       </c>
@@ -3964,7 +3981,7 @@
         <v>235</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="16"/>
@@ -3973,7 +3990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>74</v>
       </c>
@@ -4002,7 +4019,7 @@
         <v>235</v>
       </c>
       <c r="J65" s="49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M65" s="12" t="s">
         <v>7</v>
@@ -4017,7 +4034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>74</v>
       </c>
@@ -4046,7 +4063,7 @@
         <v>235</v>
       </c>
       <c r="J66" s="50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M66" s="41">
         <v>15</v>
@@ -4061,7 +4078,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>75</v>
       </c>
@@ -4090,7 +4107,7 @@
         <v>235</v>
       </c>
       <c r="J67" s="77" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M67">
         <v>30</v>
@@ -4105,7 +4122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>75</v>
       </c>
@@ -4134,7 +4151,7 @@
         <v>235</v>
       </c>
       <c r="J68" s="49" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M68">
         <v>60</v>
@@ -4149,7 +4166,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>75</v>
       </c>
@@ -4178,7 +4195,7 @@
         <v>235</v>
       </c>
       <c r="J69" s="49" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M69">
         <v>60</v>
@@ -4193,7 +4210,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>75</v>
       </c>
@@ -4222,13 +4239,13 @@
         <v>235</v>
       </c>
       <c r="J70" s="50" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="N70" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -4257,10 +4274,10 @@
         <v>235</v>
       </c>
       <c r="J71" s="49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>76</v>
       </c>
@@ -4289,7 +4306,7 @@
         <v>235</v>
       </c>
       <c r="J72" s="49" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="16"/>
@@ -4300,7 +4317,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="26"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>76</v>
       </c>
@@ -4329,7 +4346,7 @@
         <v>235</v>
       </c>
       <c r="J73" s="50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M73" s="12" t="s">
         <v>7</v>
@@ -4359,7 +4376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>77</v>
       </c>
@@ -4378,7 +4395,7 @@
       <c r="F74" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="G74" s="83">
+      <c r="G74" s="52">
         <v>12</v>
       </c>
       <c r="H74" s="16">
@@ -4387,8 +4404,8 @@
       <c r="I74" s="52">
         <v>235</v>
       </c>
-      <c r="J74" s="84" t="s">
-        <v>162</v>
+      <c r="J74" s="78" t="s">
+        <v>158</v>
       </c>
       <c r="M74" s="15">
         <v>15</v>
@@ -4419,36 +4436,36 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A75" s="85">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>77</v>
       </c>
-      <c r="B75" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="86" t="s">
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D75" s="4">
         <v>60</v>
       </c>
-      <c r="E75" s="86">
-        <v>6</v>
-      </c>
-      <c r="F75" s="86" t="s">
+      <c r="E75" s="1">
+        <v>6</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G75" s="82">
+      <c r="G75" s="6">
         <v>12</v>
       </c>
-      <c r="H75" s="86">
+      <c r="H75" s="1">
         <v>3936</v>
       </c>
       <c r="I75" s="6">
         <v>235</v>
       </c>
-      <c r="J75" s="87" t="s">
-        <v>163</v>
+      <c r="J75" s="79" t="s">
+        <v>159</v>
       </c>
       <c r="M75" s="1">
         <v>15</v>
@@ -4476,36 +4493,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A76" s="85">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>77</v>
       </c>
-      <c r="B76" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="86" t="s">
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D76" s="4">
         <v>60</v>
       </c>
-      <c r="E76" s="86">
-        <v>6</v>
-      </c>
-      <c r="F76" s="86" t="s">
+      <c r="E76" s="1">
+        <v>6</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G76" s="82">
+      <c r="G76" s="6">
         <v>12</v>
       </c>
-      <c r="H76" s="86">
+      <c r="H76" s="1">
         <v>3928</v>
       </c>
       <c r="I76" s="6">
         <v>235</v>
       </c>
-      <c r="J76" s="87" t="s">
-        <v>164</v>
+      <c r="J76" s="79" t="s">
+        <v>160</v>
       </c>
       <c r="M76" s="41">
         <v>15</v>
@@ -4533,40 +4550,40 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A77" s="85">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>77</v>
       </c>
-      <c r="B77" s="86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="86" t="s">
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D77" s="4">
         <v>60</v>
       </c>
-      <c r="E77" s="86">
-        <v>6</v>
-      </c>
-      <c r="F77" s="86" t="s">
+      <c r="E77" s="1">
+        <v>6</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G77" s="82">
+      <c r="G77" s="6">
         <v>12</v>
       </c>
-      <c r="H77" s="86">
+      <c r="H77" s="1">
         <v>3936</v>
       </c>
       <c r="I77" s="6">
         <v>235</v>
       </c>
-      <c r="J77" s="87" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A78" s="88">
+      <c r="J77" s="79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -4575,16 +4592,16 @@
       <c r="C78" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="4">
         <v>60</v>
       </c>
-      <c r="E78" s="8">
-        <v>6</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="E78" s="90">
+        <v>6</v>
+      </c>
+      <c r="F78" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="G78" s="89">
+      <c r="G78" s="6">
         <v>12</v>
       </c>
       <c r="H78" s="8">
@@ -4593,11 +4610,43 @@
       <c r="I78" s="9">
         <v>235</v>
       </c>
-      <c r="J78" s="90" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="13:22" x14ac:dyDescent="0.3">
+      <c r="J78" s="80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="85">
+        <v>78</v>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="73">
+        <v>60</v>
+      </c>
+      <c r="E79" s="74">
+        <v>6</v>
+      </c>
+      <c r="F79" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="G79" s="75">
+        <v>12</v>
+      </c>
+      <c r="H79" s="86">
+        <v>3914</v>
+      </c>
+      <c r="I79" s="87">
+        <v>235</v>
+      </c>
+      <c r="J79" s="88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M81" s="61"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -4609,7 +4658,7 @@
       </c>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" spans="13:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M82" s="58">
         <v>60</v>
       </c>
@@ -4639,7 +4688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="13:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M83" s="58">
         <v>60</v>
       </c>
@@ -4669,7 +4718,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="13:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M84" s="58">
         <v>60</v>
       </c>
@@ -4696,7 +4745,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="13:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M85" s="58">
         <v>60</v>
       </c>
@@ -4723,7 +4772,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="13:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M86" s="59">
         <v>60</v>
       </c>
@@ -4750,7 +4799,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="13:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M88">
         <v>60</v>
       </c>
@@ -4777,7 +4826,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="13:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="13:22" x14ac:dyDescent="0.25">
       <c r="M89">
         <v>60</v>
       </c>
@@ -4830,61 +4879,21 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="iconSet" priority="75">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
         <cfvo type="num" val="3810"/>
         <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="76">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -4906,8 +4915,398 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="69">
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67:I68">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74:I79">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4915,7 +5314,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4938,26 +5337,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="I6:J9">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4965,6 +5346,38 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J37">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -4975,8 +5388,14 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -4985,44 +5404,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="60">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="61">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5037,35 +5418,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="55">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5073,6 +5426,14 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5087,23 +5448,23 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="50">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J42">
@@ -5115,6 +5476,16 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -5126,45 +5497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5175,8 +5508,14 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5188,24 +5527,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -5215,18 +5536,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5237,35 +5546,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5287,27 +5568,17 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5315,6 +5586,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:J46">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -5325,8 +5598,6 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:J46">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -5337,42 +5608,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5387,231 +5628,21 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I78">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E5A2E-3499-45C3-9DF1-C7CBD1CA5C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F71D1-7911-4B1E-9136-D0D94954251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,7 +833,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1033,6 +1033,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,24 +1049,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1349,7 +1337,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,16 +1360,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="M1" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="M1" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J2" s="72" t="s">
@@ -1392,12 +1380,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -2839,11 +2827,11 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
+      <c r="M36" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -3914,11 +3902,11 @@
       <c r="J62" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N62" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="81"/>
-      <c r="P62" s="81"/>
+      <c r="N62" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -4595,10 +4583,10 @@
       <c r="D78" s="4">
         <v>60</v>
       </c>
-      <c r="E78" s="90">
-        <v>6</v>
-      </c>
-      <c r="F78" s="90" t="s">
+      <c r="E78" s="1">
+        <v>6</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G78" s="6">
@@ -4615,7 +4603,7 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="85">
+      <c r="A79" s="73">
         <v>78</v>
       </c>
       <c r="B79" s="74" t="s">
@@ -4630,19 +4618,19 @@
       <c r="E79" s="74">
         <v>6</v>
       </c>
-      <c r="F79" s="89" t="s">
+      <c r="F79" s="82" t="s">
         <v>169</v>
       </c>
       <c r="G79" s="75">
         <v>12</v>
       </c>
-      <c r="H79" s="86">
+      <c r="H79" s="74">
         <v>3914</v>
       </c>
-      <c r="I79" s="87">
+      <c r="I79" s="75">
         <v>235</v>
       </c>
-      <c r="J79" s="88" t="s">
+      <c r="J79" s="81" t="s">
         <v>168</v>
       </c>
     </row>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F71D1-7911-4B1E-9136-D0D94954251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFE687F-E5AE-4833-8022-B62DCD7E5903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="174">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -546,6 +546,18 @@
   </si>
   <si>
     <t>PHYLLOSILICATES 189 190 191 192 193 201 500MS</t>
+  </si>
+  <si>
+    <t>2024-04-27T11:29:39</t>
+  </si>
+  <si>
+    <t>2024-05-02T13:20:13</t>
+  </si>
+  <si>
+    <t>2024-05-03T12:54:38</t>
+  </si>
+  <si>
+    <t>2024-05-08T06:53:49</t>
   </si>
 </sst>
 </file>
@@ -833,7 +845,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1051,6 +1063,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1336,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,7 +4650,69 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="87">
+        <v>79</v>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="73">
+        <v>60</v>
+      </c>
+      <c r="E80" s="74">
+        <v>6</v>
+      </c>
+      <c r="F80" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G80" s="75">
+        <v>12</v>
+      </c>
+      <c r="H80" s="74">
+        <v>3914</v>
+      </c>
+      <c r="I80" s="75">
+        <v>235</v>
+      </c>
+      <c r="J80" s="88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="87">
+        <v>79</v>
+      </c>
+      <c r="B81" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="73">
+        <v>60</v>
+      </c>
+      <c r="E81" s="74">
+        <v>6</v>
+      </c>
+      <c r="F81" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G81" s="75">
+        <v>12</v>
+      </c>
+      <c r="H81" s="74">
+        <v>3914</v>
+      </c>
+      <c r="I81" s="75">
+        <v>235</v>
+      </c>
+      <c r="J81" s="88" t="s">
+        <v>171</v>
+      </c>
       <c r="M81" s="61"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -4646,7 +4724,37 @@
       </c>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="87">
+        <v>79</v>
+      </c>
+      <c r="B82" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" s="73">
+        <v>60</v>
+      </c>
+      <c r="E82" s="74">
+        <v>6</v>
+      </c>
+      <c r="F82" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G82" s="75">
+        <v>12</v>
+      </c>
+      <c r="H82" s="74">
+        <v>3914</v>
+      </c>
+      <c r="I82" s="75">
+        <v>235</v>
+      </c>
+      <c r="J82" s="88" t="s">
+        <v>172</v>
+      </c>
       <c r="M82" s="58">
         <v>60</v>
       </c>
@@ -4676,7 +4784,37 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="87">
+        <v>79</v>
+      </c>
+      <c r="B83" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="73">
+        <v>60</v>
+      </c>
+      <c r="E83" s="74">
+        <v>6</v>
+      </c>
+      <c r="F83" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" s="75">
+        <v>12</v>
+      </c>
+      <c r="H83" s="74">
+        <v>3914</v>
+      </c>
+      <c r="I83" s="75">
+        <v>235</v>
+      </c>
+      <c r="J83" s="88" t="s">
+        <v>173</v>
+      </c>
       <c r="M83" s="58">
         <v>60</v>
       </c>
@@ -4706,7 +4844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M84" s="58">
         <v>60</v>
       </c>
@@ -4733,7 +4871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M85" s="58">
         <v>60</v>
       </c>
@@ -4760,7 +4898,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M86" s="59">
         <v>60</v>
       </c>
@@ -4787,7 +4925,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M88">
         <v>60</v>
       </c>
@@ -4814,7 +4952,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="13:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M89">
         <v>60</v>
       </c>
@@ -5281,7 +5419,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I79">
+  <conditionalFormatting sqref="I74:I83">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFE687F-E5AE-4833-8022-B62DCD7E5903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92E01CE-69EC-4D2F-AEC8-6A46B3B41EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="174">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -845,7 +845,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1063,10 +1063,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1353,29 +1361,29 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="47" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.42578125" customWidth="1"/>
+    <col min="18" max="18" width="41.44140625" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
@@ -1387,12 +1395,12 @@
       <c r="N1" s="83"/>
       <c r="O1" s="83"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1414,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>51</v>
       </c>
@@ -1502,7 +1510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>51</v>
       </c>
@@ -1546,7 +1554,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>52</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>52</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1678,7 +1686,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>52</v>
       </c>
@@ -1714,7 +1722,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>56</v>
       </c>
@@ -1758,7 +1766,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>56</v>
       </c>
@@ -1802,7 +1810,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1846,7 +1854,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>56</v>
       </c>
@@ -1890,7 +1898,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>56</v>
       </c>
@@ -1934,7 +1942,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>57</v>
       </c>
@@ -1966,7 +1974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>57</v>
       </c>
@@ -2001,7 +2009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>57</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>57</v>
       </c>
@@ -2073,7 +2081,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>58</v>
       </c>
@@ -2132,7 +2140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>58</v>
       </c>
@@ -2189,7 +2197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>58</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>59</v>
       </c>
@@ -2309,7 +2317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>59</v>
       </c>
@@ -2369,7 +2377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>59</v>
       </c>
@@ -2429,7 +2437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>60</v>
       </c>
@@ -2470,7 +2478,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>60</v>
       </c>
@@ -2508,7 +2516,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>60</v>
       </c>
@@ -2545,7 +2553,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>60</v>
       </c>
@@ -2582,7 +2590,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>61</v>
       </c>
@@ -2619,7 +2627,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>61</v>
       </c>
@@ -2656,7 +2664,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>61</v>
       </c>
@@ -2697,7 +2705,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>61</v>
       </c>
@@ -2734,7 +2742,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>61</v>
       </c>
@@ -2774,7 +2782,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>61</v>
       </c>
@@ -2812,7 +2820,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>62</v>
       </c>
@@ -2849,7 +2857,7 @@
       <c r="N36" s="83"/>
       <c r="O36" s="83"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>62</v>
       </c>
@@ -2881,7 +2889,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>62</v>
       </c>
@@ -2919,7 +2927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>62</v>
       </c>
@@ -2963,7 +2971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>62</v>
       </c>
@@ -3007,7 +3015,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>62</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>62</v>
       </c>
@@ -3095,7 +3103,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>63</v>
       </c>
@@ -3139,7 +3147,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>63</v>
       </c>
@@ -3171,7 +3179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -3206,7 +3214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>63</v>
       </c>
@@ -3241,7 +3249,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -3284,7 +3292,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="26"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>64</v>
       </c>
@@ -3343,7 +3351,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>64</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>65</v>
       </c>
@@ -3457,7 +3465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>65</v>
       </c>
@@ -3514,7 +3522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>65</v>
       </c>
@@ -3571,7 +3579,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -3628,7 +3636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>66</v>
       </c>
@@ -3660,7 +3668,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>66</v>
       </c>
@@ -3692,7 +3700,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>68</v>
       </c>
@@ -3724,7 +3732,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>68</v>
       </c>
@@ -3756,7 +3764,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -3788,7 +3796,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>69</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>70</v>
       </c>
@@ -3855,7 +3863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>70</v>
       </c>
@@ -3887,7 +3895,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="73">
         <v>71</v>
       </c>
@@ -3924,7 +3932,7 @@
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>72</v>
       </c>
@@ -3956,7 +3964,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>72</v>
       </c>
@@ -3994,7 +4002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>74</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>74</v>
       </c>
@@ -4082,7 +4090,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>75</v>
       </c>
@@ -4126,7 +4134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>75</v>
       </c>
@@ -4170,7 +4178,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>75</v>
       </c>
@@ -4214,7 +4222,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>75</v>
       </c>
@@ -4249,7 +4257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>76</v>
       </c>
@@ -4321,7 +4329,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="26"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>76</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>77</v>
       </c>
@@ -4440,7 +4448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>77</v>
       </c>
@@ -4497,7 +4505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>77</v>
       </c>
@@ -4554,7 +4562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>77</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -4618,7 +4626,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="73">
         <v>78</v>
       </c>
@@ -4650,67 +4658,67 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="87">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="74" t="s">
+      <c r="B80" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D80" s="73">
+      <c r="D80" s="15">
         <v>60</v>
       </c>
-      <c r="E80" s="74">
-        <v>6</v>
-      </c>
-      <c r="F80" s="82" t="s">
+      <c r="E80" s="16">
+        <v>6</v>
+      </c>
+      <c r="F80" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="G80" s="75">
-        <v>12</v>
-      </c>
-      <c r="H80" s="74">
+      <c r="G80" s="52">
+        <v>12</v>
+      </c>
+      <c r="H80" s="15">
         <v>3914</v>
       </c>
-      <c r="I80" s="75">
+      <c r="I80" s="52">
         <v>235</v>
       </c>
-      <c r="J80" s="88" t="s">
+      <c r="J80" s="78" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="87">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A81" s="88">
         <v>79</v>
       </c>
-      <c r="B81" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="74" t="s">
+      <c r="B81" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="73">
+      <c r="D81" s="4">
         <v>60</v>
       </c>
-      <c r="E81" s="74">
-        <v>6</v>
-      </c>
-      <c r="F81" s="82" t="s">
+      <c r="E81" s="88">
+        <v>6</v>
+      </c>
+      <c r="F81" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="G81" s="75">
-        <v>12</v>
-      </c>
-      <c r="H81" s="74">
+      <c r="G81" s="6">
+        <v>12</v>
+      </c>
+      <c r="H81" s="4">
         <v>3914</v>
       </c>
-      <c r="I81" s="75">
+      <c r="I81" s="88">
         <v>235</v>
       </c>
-      <c r="J81" s="88" t="s">
+      <c r="J81" s="79" t="s">
         <v>171</v>
       </c>
       <c r="M81" s="61"/>
@@ -4724,35 +4732,35 @@
       </c>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="87">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A82" s="88">
         <v>79</v>
       </c>
-      <c r="B82" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="74" t="s">
+      <c r="B82" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="73">
+      <c r="D82" s="4">
         <v>60</v>
       </c>
-      <c r="E82" s="74">
-        <v>6</v>
-      </c>
-      <c r="F82" s="82" t="s">
+      <c r="E82" s="88">
+        <v>6</v>
+      </c>
+      <c r="F82" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="G82" s="75">
-        <v>12</v>
-      </c>
-      <c r="H82" s="74">
+      <c r="G82" s="6">
+        <v>12</v>
+      </c>
+      <c r="H82" s="4">
         <v>3914</v>
       </c>
-      <c r="I82" s="75">
+      <c r="I82" s="88">
         <v>235</v>
       </c>
-      <c r="J82" s="88" t="s">
+      <c r="J82" s="79" t="s">
         <v>172</v>
       </c>
       <c r="M82" s="58">
@@ -4784,35 +4792,35 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="87">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A83" s="88">
         <v>79</v>
       </c>
-      <c r="B83" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="74" t="s">
+      <c r="B83" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="73">
+      <c r="D83" s="4">
         <v>60</v>
       </c>
-      <c r="E83" s="74">
-        <v>6</v>
-      </c>
-      <c r="F83" s="82" t="s">
+      <c r="E83" s="88">
+        <v>6</v>
+      </c>
+      <c r="F83" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="G83" s="75">
-        <v>12</v>
-      </c>
-      <c r="H83" s="74">
+      <c r="G83" s="6">
+        <v>12</v>
+      </c>
+      <c r="H83" s="4">
         <v>3914</v>
       </c>
-      <c r="I83" s="75">
+      <c r="I83" s="88">
         <v>235</v>
       </c>
-      <c r="J83" s="88" t="s">
+      <c r="J83" s="79" t="s">
         <v>173</v>
       </c>
       <c r="M83" s="58">
@@ -4844,7 +4852,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A84" s="15">
+        <v>80</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="15">
+        <v>60</v>
+      </c>
+      <c r="E84" s="16">
+        <v>6</v>
+      </c>
+      <c r="F84" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" s="52">
+        <v>12</v>
+      </c>
+      <c r="H84" s="15">
+        <v>3914</v>
+      </c>
+      <c r="I84" s="16">
+        <v>235</v>
+      </c>
+      <c r="J84" s="78"/>
       <c r="M84" s="58">
         <v>60</v>
       </c>
@@ -4871,7 +4907,35 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>80</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="7">
+        <v>60</v>
+      </c>
+      <c r="E85" s="8">
+        <v>6</v>
+      </c>
+      <c r="F85" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" s="9">
+        <v>12</v>
+      </c>
+      <c r="H85" s="7">
+        <v>3914</v>
+      </c>
+      <c r="I85" s="8">
+        <v>235</v>
+      </c>
+      <c r="J85" s="80"/>
       <c r="M85" s="58">
         <v>60</v>
       </c>
@@ -4898,7 +4962,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M86" s="59">
         <v>60</v>
       </c>
@@ -4925,7 +4989,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M88">
         <v>60</v>
       </c>
@@ -4952,7 +5016,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="M89">
         <v>60</v>
       </c>
@@ -5419,7 +5483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I83">
+  <conditionalFormatting sqref="I74:I85">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92E01CE-69EC-4D2F-AEC8-6A46B3B41EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35321E8B-2C77-4D66-A807-057B8E808868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="180">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -558,6 +558,24 @@
   </si>
   <si>
     <t>2024-05-08T06:53:49</t>
+  </si>
+  <si>
+    <t>2024-06-14T08:06:51</t>
+  </si>
+  <si>
+    <t>2024-06-20T09:31:50</t>
+  </si>
+  <si>
+    <t>2024-06-27T02:39:58</t>
+  </si>
+  <si>
+    <t>2024-07-02T04:30:22</t>
+  </si>
+  <si>
+    <t>2024-05-31T08:04:42</t>
+  </si>
+  <si>
+    <t>2024-06-06T01:38:08</t>
   </si>
 </sst>
 </file>
@@ -845,7 +863,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1051,6 +1069,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1063,18 +1090,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1358,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,16 +1414,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="M1" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="M1" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
@@ -1404,12 +1434,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
+      <c r="D3" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -2851,11 +2881,11 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
+      <c r="M36" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -3926,11 +3956,11 @@
       <c r="J62" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N62" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
+      <c r="N62" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="86"/>
+      <c r="P62" s="86"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -4674,7 +4704,7 @@
       <c r="E80" s="16">
         <v>6</v>
       </c>
-      <c r="F80" s="87" t="s">
+      <c r="F80" s="83" t="s">
         <v>169</v>
       </c>
       <c r="G80" s="52">
@@ -4691,22 +4721,22 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A81" s="88">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="88" t="s">
+      <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D81" s="4">
         <v>60</v>
       </c>
-      <c r="E81" s="88">
-        <v>6</v>
-      </c>
-      <c r="F81" s="89" t="s">
+      <c r="E81" s="1">
+        <v>6</v>
+      </c>
+      <c r="F81" s="84" t="s">
         <v>169</v>
       </c>
       <c r="G81" s="6">
@@ -4715,7 +4745,7 @@
       <c r="H81" s="4">
         <v>3914</v>
       </c>
-      <c r="I81" s="88">
+      <c r="I81" s="1">
         <v>235</v>
       </c>
       <c r="J81" s="79" t="s">
@@ -4733,22 +4763,22 @@
       <c r="R81" s="11"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A82" s="88">
+      <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="88" t="s">
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D82" s="4">
         <v>60</v>
       </c>
-      <c r="E82" s="88">
-        <v>6</v>
-      </c>
-      <c r="F82" s="89" t="s">
+      <c r="E82" s="1">
+        <v>6</v>
+      </c>
+      <c r="F82" s="84" t="s">
         <v>169</v>
       </c>
       <c r="G82" s="6">
@@ -4757,7 +4787,7 @@
       <c r="H82" s="4">
         <v>3914</v>
       </c>
-      <c r="I82" s="88">
+      <c r="I82" s="1">
         <v>235</v>
       </c>
       <c r="J82" s="79" t="s">
@@ -4793,22 +4823,22 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A83" s="88">
+      <c r="A83" s="1">
         <v>79</v>
       </c>
-      <c r="B83" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="88" t="s">
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D83" s="4">
         <v>60</v>
       </c>
-      <c r="E83" s="88">
-        <v>6</v>
-      </c>
-      <c r="F83" s="89" t="s">
+      <c r="E83" s="1">
+        <v>6</v>
+      </c>
+      <c r="F83" s="84" t="s">
         <v>169</v>
       </c>
       <c r="G83" s="6">
@@ -4817,7 +4847,7 @@
       <c r="H83" s="4">
         <v>3914</v>
       </c>
-      <c r="I83" s="88">
+      <c r="I83" s="1">
         <v>235</v>
       </c>
       <c r="J83" s="79" t="s">
@@ -4868,7 +4898,7 @@
       <c r="E84" s="16">
         <v>6</v>
       </c>
-      <c r="F84" s="87" t="s">
+      <c r="F84" s="83" t="s">
         <v>169</v>
       </c>
       <c r="G84" s="52">
@@ -4880,7 +4910,9 @@
       <c r="I84" s="16">
         <v>235</v>
       </c>
-      <c r="J84" s="78"/>
+      <c r="J84" s="94" t="s">
+        <v>178</v>
+      </c>
       <c r="M84" s="58">
         <v>60</v>
       </c>
@@ -4923,7 +4955,7 @@
       <c r="E85" s="8">
         <v>6</v>
       </c>
-      <c r="F85" s="90" t="s">
+      <c r="F85" s="85" t="s">
         <v>169</v>
       </c>
       <c r="G85" s="9">
@@ -4935,7 +4967,9 @@
       <c r="I85" s="8">
         <v>235</v>
       </c>
-      <c r="J85" s="80"/>
+      <c r="J85" s="95" t="s">
+        <v>179</v>
+      </c>
       <c r="M85" s="58">
         <v>60</v>
       </c>
@@ -4963,6 +4997,36 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A86" s="90">
+        <v>81</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="15">
+        <v>60</v>
+      </c>
+      <c r="E86" s="16">
+        <v>6</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" s="52">
+        <v>12</v>
+      </c>
+      <c r="H86" s="16">
+        <v>3928</v>
+      </c>
+      <c r="I86" s="52">
+        <v>235</v>
+      </c>
+      <c r="J86" s="94" t="s">
+        <v>174</v>
+      </c>
       <c r="M86" s="59">
         <v>60</v>
       </c>
@@ -4989,7 +5053,69 @@
         <v>103</v>
       </c>
     </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A87" s="91">
+        <v>81</v>
+      </c>
+      <c r="B87" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="4">
+        <v>60</v>
+      </c>
+      <c r="E87" s="92">
+        <v>6</v>
+      </c>
+      <c r="F87" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="G87" s="6">
+        <v>12</v>
+      </c>
+      <c r="H87" s="92">
+        <v>3936</v>
+      </c>
+      <c r="I87" s="6">
+        <v>235</v>
+      </c>
+      <c r="J87" s="96" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A88" s="91">
+        <v>81</v>
+      </c>
+      <c r="B88" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="4">
+        <v>60</v>
+      </c>
+      <c r="E88" s="92">
+        <v>6</v>
+      </c>
+      <c r="F88" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="6">
+        <v>12</v>
+      </c>
+      <c r="H88" s="92">
+        <v>3928</v>
+      </c>
+      <c r="I88" s="6">
+        <v>235</v>
+      </c>
+      <c r="J88" s="96" t="s">
+        <v>176</v>
+      </c>
       <c r="M88">
         <v>60</v>
       </c>
@@ -5017,6 +5143,36 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A89" s="93">
+        <v>81</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="7">
+        <v>60</v>
+      </c>
+      <c r="E89" s="8">
+        <v>6</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="9">
+        <v>12</v>
+      </c>
+      <c r="H89" s="8">
+        <v>3936</v>
+      </c>
+      <c r="I89" s="9">
+        <v>235</v>
+      </c>
+      <c r="J89" s="95" t="s">
+        <v>177</v>
+      </c>
       <c r="M89">
         <v>60</v>
       </c>
@@ -5041,6 +5197,11 @@
       </c>
       <c r="U89" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A90" s="91">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5483,7 +5644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I85">
+  <conditionalFormatting sqref="I74:I89">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35321E8B-2C77-4D66-A807-057B8E808868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC9622-D5BE-4DE6-83E8-79079EDE8889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="183">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -576,6 +576,15 @@
   </si>
   <si>
     <t>2024-06-06T01:38:08</t>
+  </si>
+  <si>
+    <t>3770,3794,3808,3828,0,0 # ORDERS 163 165 167 169 -- NADIR_12ROWS_60SECS_4SUBDS -- EXECTIME=59492MS</t>
+  </si>
+  <si>
+    <t>Hydration band 2: 163, 165, 167, 169 500ms</t>
+  </si>
+  <si>
+    <t>HYDRATION BAND#2 163 165 167 169</t>
   </si>
 </sst>
 </file>
@@ -1078,33 +1087,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1388,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,16 +1417,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="M1" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="M1" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
@@ -1434,12 +1437,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
+      <c r="D3" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -2881,11 +2884,11 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
+      <c r="M36" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -3956,11 +3959,11 @@
       <c r="J62" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N62" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="86"/>
-      <c r="P62" s="86"/>
+      <c r="N62" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="89"/>
+      <c r="P62" s="89"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -4910,7 +4913,7 @@
       <c r="I84" s="16">
         <v>235</v>
       </c>
-      <c r="J84" s="94" t="s">
+      <c r="J84" s="86" t="s">
         <v>178</v>
       </c>
       <c r="M84" s="58">
@@ -4967,7 +4970,7 @@
       <c r="I85" s="8">
         <v>235</v>
       </c>
-      <c r="J85" s="95" t="s">
+      <c r="J85" s="87" t="s">
         <v>179</v>
       </c>
       <c r="M85" s="58">
@@ -4997,7 +5000,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A86" s="90">
+      <c r="A86" s="15">
         <v>81</v>
       </c>
       <c r="B86" s="16" t="s">
@@ -5010,21 +5013,21 @@
         <v>60</v>
       </c>
       <c r="E86" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="G86" s="52">
         <v>12</v>
       </c>
       <c r="H86" s="16">
-        <v>3928</v>
+        <v>3951</v>
       </c>
       <c r="I86" s="52">
         <v>235</v>
       </c>
-      <c r="J86" s="94" t="s">
+      <c r="J86" s="86" t="s">
         <v>174</v>
       </c>
       <c r="M86" s="59">
@@ -5054,84 +5057,90 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A87" s="91">
+      <c r="A87" s="4">
         <v>81</v>
       </c>
-      <c r="B87" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="92" t="s">
+      <c r="B87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D87" s="4">
         <v>60</v>
       </c>
-      <c r="E87" s="92">
-        <v>6</v>
-      </c>
-      <c r="F87" s="92" t="s">
-        <v>144</v>
+      <c r="E87" s="1">
+        <v>4</v>
+      </c>
+      <c r="F87" s="93" t="s">
+        <v>182</v>
       </c>
       <c r="G87" s="6">
         <v>12</v>
       </c>
-      <c r="H87" s="92">
-        <v>3936</v>
+      <c r="H87" s="1">
+        <v>3951</v>
       </c>
       <c r="I87" s="6">
         <v>235</v>
       </c>
-      <c r="J87" s="96" t="s">
+      <c r="J87" s="88" t="s">
         <v>175</v>
       </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="26"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A88" s="91">
+      <c r="A88" s="4">
         <v>81</v>
       </c>
-      <c r="B88" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="92" t="s">
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D88" s="4">
         <v>60</v>
       </c>
-      <c r="E88" s="92">
-        <v>6</v>
-      </c>
-      <c r="F88" s="92" t="s">
-        <v>143</v>
+      <c r="E88" s="1">
+        <v>4</v>
+      </c>
+      <c r="F88" s="93" t="s">
+        <v>182</v>
       </c>
       <c r="G88" s="6">
         <v>12</v>
       </c>
-      <c r="H88" s="92">
-        <v>3928</v>
+      <c r="H88" s="1">
+        <v>3951</v>
       </c>
       <c r="I88" s="6">
         <v>235</v>
       </c>
-      <c r="J88" s="96" t="s">
+      <c r="J88" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="58">
         <v>60</v>
       </c>
-      <c r="N88">
-        <v>6</v>
-      </c>
-      <c r="O88">
-        <v>12</v>
-      </c>
-      <c r="P88" s="23">
+      <c r="N88" s="94">
+        <v>6</v>
+      </c>
+      <c r="O88" s="94">
+        <v>12</v>
+      </c>
+      <c r="P88" s="95">
         <v>3928</v>
       </c>
-      <c r="Q88">
+      <c r="Q88" s="94">
         <v>235</v>
       </c>
-      <c r="R88" t="s">
+      <c r="R88" s="27" t="s">
         <v>142</v>
       </c>
       <c r="T88">
@@ -5143,7 +5152,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A89" s="93">
+      <c r="A89" s="7">
         <v>81</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -5156,43 +5165,43 @@
         <v>60</v>
       </c>
       <c r="E89" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="G89" s="9">
         <v>12</v>
       </c>
       <c r="H89" s="8">
-        <v>3936</v>
+        <v>3951</v>
       </c>
       <c r="I89" s="9">
         <v>235</v>
       </c>
-      <c r="J89" s="95" t="s">
+      <c r="J89" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="58">
         <v>60</v>
       </c>
-      <c r="N89">
-        <v>6</v>
-      </c>
-      <c r="O89">
-        <v>12</v>
-      </c>
-      <c r="P89" s="23">
+      <c r="N89" s="94">
+        <v>6</v>
+      </c>
+      <c r="O89" s="94">
+        <v>12</v>
+      </c>
+      <c r="P89" s="95">
         <v>3936</v>
       </c>
-      <c r="Q89">
+      <c r="Q89" s="94">
         <v>235</v>
       </c>
-      <c r="R89" t="s">
+      <c r="R89" s="27" t="s">
         <v>141</v>
       </c>
       <c r="T89">
-        <f t="shared" ref="T89" si="1">P89+2</f>
+        <f t="shared" ref="T89:T91" si="1">P89+2</f>
         <v>3938</v>
       </c>
       <c r="U89" t="s">
@@ -5200,8 +5209,41 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A90" s="91">
+      <c r="A90" s="4">
         <v>82</v>
+      </c>
+      <c r="M90" s="58"/>
+      <c r="N90" s="94"/>
+      <c r="O90" s="94"/>
+      <c r="P90" s="94"/>
+      <c r="Q90" s="94"/>
+      <c r="R90" s="27"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M91" s="59">
+        <v>60</v>
+      </c>
+      <c r="N91" s="57">
+        <v>4</v>
+      </c>
+      <c r="O91" s="57">
+        <v>12</v>
+      </c>
+      <c r="P91" s="60">
+        <v>3951</v>
+      </c>
+      <c r="Q91" s="57">
+        <v>235</v>
+      </c>
+      <c r="R91" s="96" t="s">
+        <v>181</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="1"/>
+        <v>3953</v>
+      </c>
+      <c r="U91" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC9622-D5BE-4DE6-83E8-79079EDE8889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E4F1B-7C78-47C8-8A00-02F7CF3B6BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="187">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -585,6 +585,18 @@
   </si>
   <si>
     <t>HYDRATION BAND#2 163 165 167 169</t>
+  </si>
+  <si>
+    <t>2024-08-05T16:48:09</t>
+  </si>
+  <si>
+    <t>2024-08-19T01:07:00</t>
+  </si>
+  <si>
+    <t>2024-08-25T02:32:02</t>
+  </si>
+  <si>
+    <t>2024-08-31T03:57:04</t>
   </si>
 </sst>
 </file>
@@ -872,7 +884,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1090,6 +1102,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1102,12 +1115,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1391,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,16 +1427,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="M1" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="M1" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
@@ -1437,12 +1447,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
+      <c r="D3" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -2884,11 +2894,11 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
+      <c r="M36" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -3959,11 +3969,11 @@
       <c r="J62" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N62" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="89"/>
-      <c r="P62" s="89"/>
+      <c r="N62" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -5072,7 +5082,7 @@
       <c r="E87" s="1">
         <v>4</v>
       </c>
-      <c r="F87" s="93" t="s">
+      <c r="F87" s="1" t="s">
         <v>182</v>
       </c>
       <c r="G87" s="6">
@@ -5110,7 +5120,7 @@
       <c r="E88" s="1">
         <v>4</v>
       </c>
-      <c r="F88" s="93" t="s">
+      <c r="F88" s="1" t="s">
         <v>182</v>
       </c>
       <c r="G88" s="6">
@@ -5128,16 +5138,16 @@
       <c r="M88" s="58">
         <v>60</v>
       </c>
-      <c r="N88" s="94">
-        <v>6</v>
-      </c>
-      <c r="O88" s="94">
-        <v>12</v>
-      </c>
-      <c r="P88" s="95">
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <v>12</v>
+      </c>
+      <c r="P88" s="23">
         <v>3928</v>
       </c>
-      <c r="Q88" s="94">
+      <c r="Q88">
         <v>235</v>
       </c>
       <c r="R88" s="27" t="s">
@@ -5185,16 +5195,16 @@
       <c r="M89" s="58">
         <v>60</v>
       </c>
-      <c r="N89" s="94">
-        <v>6</v>
-      </c>
-      <c r="O89" s="94">
-        <v>12</v>
-      </c>
-      <c r="P89" s="95">
+      <c r="N89">
+        <v>6</v>
+      </c>
+      <c r="O89">
+        <v>12</v>
+      </c>
+      <c r="P89" s="23">
         <v>3936</v>
       </c>
-      <c r="Q89" s="94">
+      <c r="Q89">
         <v>235</v>
       </c>
       <c r="R89" s="27" t="s">
@@ -5210,16 +5220,69 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B90" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="15">
+        <v>60</v>
+      </c>
+      <c r="E90" s="16">
+        <v>4</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G90" s="52">
+        <v>12</v>
+      </c>
+      <c r="H90" s="16">
+        <v>3951</v>
+      </c>
+      <c r="I90" s="52">
+        <v>235</v>
+      </c>
+      <c r="J90" s="86" t="s">
+        <v>183</v>
       </c>
       <c r="M90" s="58"/>
-      <c r="N90" s="94"/>
-      <c r="O90" s="94"/>
-      <c r="P90" s="94"/>
-      <c r="Q90" s="94"/>
       <c r="R90" s="27"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>83</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" s="4">
+        <v>60</v>
+      </c>
+      <c r="E91" s="1">
+        <v>4</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G91" s="6">
+        <v>12</v>
+      </c>
+      <c r="H91" s="1">
+        <v>3951</v>
+      </c>
+      <c r="I91" s="6">
+        <v>235</v>
+      </c>
+      <c r="J91" s="88" t="s">
+        <v>184</v>
+      </c>
       <c r="M91" s="59">
         <v>60</v>
       </c>
@@ -5235,7 +5298,7 @@
       <c r="Q91" s="57">
         <v>235</v>
       </c>
-      <c r="R91" s="96" t="s">
+      <c r="R91" s="89" t="s">
         <v>181</v>
       </c>
       <c r="T91">
@@ -5244,6 +5307,70 @@
       </c>
       <c r="U91" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>83</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" s="4">
+        <v>60</v>
+      </c>
+      <c r="E92" s="1">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="6">
+        <v>12</v>
+      </c>
+      <c r="H92" s="1">
+        <v>3951</v>
+      </c>
+      <c r="I92" s="6">
+        <v>235</v>
+      </c>
+      <c r="J92" s="88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>83</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="7">
+        <v>60</v>
+      </c>
+      <c r="E93" s="8">
+        <v>4</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G93" s="9">
+        <v>12</v>
+      </c>
+      <c r="H93" s="8">
+        <v>3951</v>
+      </c>
+      <c r="I93" s="9">
+        <v>235</v>
+      </c>
+      <c r="J93" s="87" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5686,7 +5813,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I89">
+  <conditionalFormatting sqref="I74:I93">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E4F1B-7C78-47C8-8A00-02F7CF3B6BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85565126-E490-4D98-B3F7-DEB2A7D85507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="189">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>2024-08-31T03:57:04</t>
+  </si>
+  <si>
+    <t>2024-09-11T22:55:33</t>
+  </si>
+  <si>
+    <t>2024-09-22T21:16:02</t>
   </si>
 </sst>
 </file>
@@ -884,7 +890,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,9 +1119,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1401,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5222,7 +5225,7 @@
       <c r="A90" s="4">
         <v>83</v>
       </c>
-      <c r="B90" s="94" t="s">
+      <c r="B90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="16" t="s">
@@ -5371,6 +5374,70 @@
       </c>
       <c r="J93" s="87" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A94" s="15">
+        <v>84</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" s="15">
+        <v>60</v>
+      </c>
+      <c r="E94" s="16">
+        <v>6</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" s="52">
+        <v>12</v>
+      </c>
+      <c r="H94" s="16">
+        <v>3922</v>
+      </c>
+      <c r="I94" s="52">
+        <v>235</v>
+      </c>
+      <c r="J94" s="78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>84</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="7">
+        <v>60</v>
+      </c>
+      <c r="E95" s="8">
+        <v>6</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" s="9">
+        <v>12</v>
+      </c>
+      <c r="H95" s="8">
+        <v>3922</v>
+      </c>
+      <c r="I95" s="9">
+        <v>235</v>
+      </c>
+      <c r="J95" s="80" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5382,7 +5449,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="116">
+    <cfRule type="iconSet" priority="117">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5390,7 +5457,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="117">
+    <cfRule type="iconSet" priority="118">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5400,7 +5467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="76">
+    <cfRule type="iconSet" priority="77">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5408,7 +5475,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="75">
+    <cfRule type="iconSet" priority="76">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5418,7 +5485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="71">
+    <cfRule type="iconSet" priority="72">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5426,7 +5493,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="72">
+    <cfRule type="iconSet" priority="73">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5436,7 +5503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="66">
+    <cfRule type="iconSet" priority="67">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5444,7 +5511,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="65">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5454,7 +5521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="60">
+    <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5462,7 +5529,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="61">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5472,7 +5539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="56">
+    <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5480,7 +5547,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="55">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5490,7 +5557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="51">
+    <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5498,7 +5565,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5508,7 +5575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5516,7 +5583,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5526,7 +5593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="41">
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5534,7 +5601,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="40">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5544,7 +5611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5552,7 +5619,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5562,7 +5629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5570,7 +5637,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5580,7 +5647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5588,7 +5655,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5598,6 +5665,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5609,7 +5688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5621,7 +5700,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5633,8 +5712,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5645,7 +5724,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I60">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5657,7 +5736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I61">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5669,7 +5748,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5681,7 +5760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5693,7 +5772,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5705,7 +5784,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5717,7 +5796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5729,7 +5808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5741,8 +5820,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="I69">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5753,7 +5832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I70">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5765,7 +5844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I71">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5777,7 +5856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5789,7 +5868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5801,7 +5880,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="I74:I93">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5813,7 +5892,349 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I93">
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:J9">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:J40">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:J42">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:J44">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:J45">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:J46">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94:I95">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5825,348 +6246,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85565126-E490-4D98-B3F7-DEB2A7D85507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E2B73-A394-4BB2-9635-694B34917D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="192">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -603,6 +603,15 @@
   </si>
   <si>
     <t>2024-09-22T21:16:02</t>
+  </si>
+  <si>
+    <t>2024-10-01T19:27:47</t>
+  </si>
+  <si>
+    <t>2024-10-05T00:06:07</t>
+  </si>
+  <si>
+    <t>2024-10-11T01:31:06</t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5440,6 +5449,102 @@
         <v>188</v>
       </c>
     </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>85</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" s="4">
+        <v>60</v>
+      </c>
+      <c r="E96" s="1">
+        <v>6</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" s="6">
+        <v>12</v>
+      </c>
+      <c r="H96" s="1">
+        <v>3922</v>
+      </c>
+      <c r="I96" s="6">
+        <v>235</v>
+      </c>
+      <c r="J96" s="86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>85</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" s="4">
+        <v>60</v>
+      </c>
+      <c r="E97" s="1">
+        <v>6</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G97" s="6">
+        <v>12</v>
+      </c>
+      <c r="H97" s="1">
+        <v>3922</v>
+      </c>
+      <c r="I97" s="6">
+        <v>235</v>
+      </c>
+      <c r="J97" s="88" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>85</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D98" s="7">
+        <v>60</v>
+      </c>
+      <c r="E98" s="8">
+        <v>6</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G98" s="9">
+        <v>12</v>
+      </c>
+      <c r="H98" s="8">
+        <v>3922</v>
+      </c>
+      <c r="I98" s="9">
+        <v>235</v>
+      </c>
+      <c r="J98" s="87" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
@@ -5449,7 +5554,15 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="117">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="120">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5457,7 +5570,9 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="118">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H30 H32:H35">
+    <cfRule type="iconSet" priority="80">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5465,9 +5580,25 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="77">
+  <conditionalFormatting sqref="H31">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="76">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5475,7 +5606,17 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="76">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="69">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5484,8 +5625,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="72">
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5493,7 +5634,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="73">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5502,8 +5643,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="67">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5511,7 +5652,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="66">
+    <cfRule type="iconSet" priority="59">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5520,8 +5661,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="61">
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5529,7 +5678,9 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="62">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5537,9 +5688,25 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="57">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5547,7 +5714,17 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="56">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="39">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5556,8 +5733,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="52">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5565,7 +5750,17 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="51">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5574,97 +5769,43 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="47">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="32">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="27">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5676,19 +5817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I59">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5700,7 +5829,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
+  <conditionalFormatting sqref="I60">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5712,7 +5841,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I61">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5724,7 +5865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5736,7 +5877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5748,7 +5889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5760,7 +5901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5772,7 +5913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5784,19 +5925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I69">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5808,7 +5937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
+  <conditionalFormatting sqref="I70">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5820,7 +5949,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I71">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5832,7 +5973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5844,7 +5985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I74:I93">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5856,7 +5997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="I94:I95">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5868,7 +6009,349 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:J9">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:J40">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:J42">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:J44">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:J45">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:J46">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I96">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5880,7 +6363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I93">
+  <conditionalFormatting sqref="I97">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5892,349 +6375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I95">
+  <conditionalFormatting sqref="I98">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E2B73-A394-4BB2-9635-694B34917D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB96287-203E-438D-8A46-759588EF6A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="192">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -1413,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5545,6 +5545,96 @@
         <v>191</v>
       </c>
     </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
+        <v>87</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="15">
+        <v>60</v>
+      </c>
+      <c r="E99" s="16">
+        <v>6</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G99" s="52">
+        <v>12</v>
+      </c>
+      <c r="H99" s="16">
+        <v>3928</v>
+      </c>
+      <c r="I99" s="52">
+        <v>235</v>
+      </c>
+      <c r="J99" s="78"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>87</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100" s="4">
+        <v>60</v>
+      </c>
+      <c r="E100" s="1">
+        <v>6</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G100" s="6">
+        <v>12</v>
+      </c>
+      <c r="H100" s="1">
+        <v>3928</v>
+      </c>
+      <c r="I100" s="6">
+        <v>235</v>
+      </c>
+      <c r="J100" s="79"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>87</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D101" s="7">
+        <v>60</v>
+      </c>
+      <c r="E101" s="8">
+        <v>6</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G101" s="9">
+        <v>12</v>
+      </c>
+      <c r="H101" s="8">
+        <v>3928</v>
+      </c>
+      <c r="I101" s="9">
+        <v>235</v>
+      </c>
+      <c r="J101" s="80"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
@@ -5554,7 +5644,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="121">
+    <cfRule type="iconSet" priority="122">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5562,7 +5652,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="120">
+    <cfRule type="iconSet" priority="121">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5572,7 +5662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="80">
+    <cfRule type="iconSet" priority="81">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5580,7 +5670,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="79">
+    <cfRule type="iconSet" priority="80">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5590,7 +5680,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="75">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="76">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5598,7 +5696,9 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="76">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5606,9 +5706,17 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="70">
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5616,7 +5724,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="69">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5625,8 +5733,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="64">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5634,7 +5750,17 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="65">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5643,8 +5769,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="60">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5652,7 +5786,9 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="59">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5660,9 +5796,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="55">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5670,7 +5804,17 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="54">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5679,8 +5823,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="50">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5688,7 +5840,9 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="49">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5696,17 +5850,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5715,61 +5859,19 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I56">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5781,7 +5883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5793,7 +5895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5805,8 +5907,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5817,7 +5919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I60">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5829,7 +5931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I61">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5841,7 +5943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5853,7 +5955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5865,7 +5967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5877,7 +5979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5889,7 +5991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5901,7 +6003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5913,8 +6015,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="I69">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5925,7 +6027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I70">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5937,7 +6039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I71">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5949,7 +6051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5961,7 +6063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5973,7 +6075,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="I74:I93">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5985,7 +6087,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I93">
+  <conditionalFormatting sqref="I94:I95">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5997,7 +6099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I95">
+  <conditionalFormatting sqref="I96">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6009,349 +6111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
+  <conditionalFormatting sqref="I97">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6363,7 +6123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97">
+  <conditionalFormatting sqref="I98">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6375,7 +6135,349 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:J9">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:J40">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:J42">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:J44">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:J45">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:J46">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99:I101">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB96287-203E-438D-8A46-759588EF6A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A6E2F-7DF5-4C66-96CB-C4F7D5F15B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="192">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -1413,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5635,6 +5635,36 @@
       </c>
       <c r="J101" s="80"/>
     </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>88</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="7">
+        <v>60</v>
+      </c>
+      <c r="E102" s="8">
+        <v>6</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G102" s="9">
+        <v>12</v>
+      </c>
+      <c r="H102" s="8">
+        <v>3928</v>
+      </c>
+      <c r="I102" s="9">
+        <v>235</v>
+      </c>
+      <c r="J102" s="80"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
@@ -5662,20 +5692,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="iconSet" priority="81">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
         <cfvo type="percent" val="50"/>
         <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="80">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -5734,6 +5764,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5742,30 +5780,22 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="60">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
     <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
         <cfvo type="num" val="3810"/>
         <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -5842,20 +5872,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
         <cfvo type="num" val="3810"/>
         <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -6135,6 +6165,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I99:I102">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
     <cfRule type="colorScale" priority="118">
       <colorScale>
@@ -6477,18 +6519,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I99:I101">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A6E2F-7DF5-4C66-96CB-C4F7D5F15B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2571BE7B-7073-4B93-8C3A-9D0087B74EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="192">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -899,7 +899,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1129,6 +1129,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1413,32 +1422,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" style="47" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="47" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.44140625" customWidth="1"/>
+    <col min="18" max="18" width="41.42578125" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -1450,12 +1459,12 @@
       <c r="N1" s="90"/>
       <c r="O1" s="90"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J2" s="72" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1477,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>51</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>51</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>52</v>
       </c>
@@ -1653,7 +1662,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>52</v>
       </c>
@@ -1697,7 +1706,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1741,7 +1750,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>52</v>
       </c>
@@ -1777,7 +1786,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>56</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>56</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>56</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>56</v>
       </c>
@@ -1997,7 +2006,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>57</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>57</v>
       </c>
@@ -2064,7 +2073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>57</v>
       </c>
@@ -2096,7 +2105,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>57</v>
       </c>
@@ -2136,7 +2145,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>58</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>58</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>58</v>
       </c>
@@ -2312,7 +2321,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>59</v>
       </c>
@@ -2372,7 +2381,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>59</v>
       </c>
@@ -2432,7 +2441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>59</v>
       </c>
@@ -2492,7 +2501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>60</v>
       </c>
@@ -2533,7 +2542,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>60</v>
       </c>
@@ -2571,7 +2580,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>60</v>
       </c>
@@ -2608,7 +2617,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>60</v>
       </c>
@@ -2645,7 +2654,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>61</v>
       </c>
@@ -2682,7 +2691,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>61</v>
       </c>
@@ -2719,7 +2728,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>61</v>
       </c>
@@ -2760,7 +2769,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>61</v>
       </c>
@@ -2797,7 +2806,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>61</v>
       </c>
@@ -2837,7 +2846,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>61</v>
       </c>
@@ -2875,7 +2884,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>62</v>
       </c>
@@ -2912,7 +2921,7 @@
       <c r="N36" s="90"/>
       <c r="O36" s="90"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>62</v>
       </c>
@@ -2944,7 +2953,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>62</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>62</v>
       </c>
@@ -3026,7 +3035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>62</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>62</v>
       </c>
@@ -3114,7 +3123,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>62</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>63</v>
       </c>
@@ -3202,7 +3211,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>63</v>
       </c>
@@ -3234,7 +3243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>63</v>
       </c>
@@ -3304,7 +3313,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -3347,7 +3356,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="26"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>64</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>64</v>
       </c>
@@ -3463,7 +3472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>65</v>
       </c>
@@ -3520,7 +3529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>65</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>65</v>
       </c>
@@ -3634,7 +3643,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>66</v>
       </c>
@@ -3723,7 +3732,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>66</v>
       </c>
@@ -3755,7 +3764,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>68</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>68</v>
       </c>
@@ -3819,7 +3828,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>69</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>70</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>70</v>
       </c>
@@ -3950,7 +3959,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="73">
         <v>71</v>
       </c>
@@ -3987,7 +3996,7 @@
       <c r="O62" s="90"/>
       <c r="P62" s="90"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>72</v>
       </c>
@@ -4019,7 +4028,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>72</v>
       </c>
@@ -4057,7 +4066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>74</v>
       </c>
@@ -4101,7 +4110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>74</v>
       </c>
@@ -4145,7 +4154,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>75</v>
       </c>
@@ -4189,7 +4198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>75</v>
       </c>
@@ -4233,7 +4242,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>75</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>75</v>
       </c>
@@ -4312,7 +4321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -4344,7 +4353,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>76</v>
       </c>
@@ -4384,7 +4393,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="26"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>76</v>
       </c>
@@ -4443,7 +4452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>77</v>
       </c>
@@ -4503,7 +4512,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>77</v>
       </c>
@@ -4560,7 +4569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>77</v>
       </c>
@@ -4617,7 +4626,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>77</v>
       </c>
@@ -4649,7 +4658,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -4681,7 +4690,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="73">
         <v>78</v>
       </c>
@@ -4713,7 +4722,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4745,7 +4754,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4787,7 +4796,7 @@
       </c>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -4847,7 +4856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -4907,7 +4916,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>80</v>
       </c>
@@ -4964,7 +4973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>80</v>
       </c>
@@ -5021,7 +5030,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>81</v>
       </c>
@@ -5078,7 +5087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>81</v>
       </c>
@@ -5116,7 +5125,7 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="26"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>81</v>
       </c>
@@ -5173,7 +5182,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>81</v>
       </c>
@@ -5230,7 +5239,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>83</v>
       </c>
@@ -5264,7 +5273,7 @@
       <c r="M90" s="58"/>
       <c r="R90" s="27"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>83</v>
       </c>
@@ -5321,7 +5330,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>83</v>
       </c>
@@ -5353,7 +5362,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>83</v>
       </c>
@@ -5385,7 +5394,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <v>84</v>
       </c>
@@ -5417,7 +5426,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>84</v>
       </c>
@@ -5449,7 +5458,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>85</v>
       </c>
@@ -5481,7 +5490,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>85</v>
       </c>
@@ -5513,7 +5522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>85</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <v>87</v>
       </c>
@@ -5575,7 +5584,7 @@
       </c>
       <c r="J99" s="78"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>87</v>
       </c>
@@ -5605,7 +5614,7 @@
       </c>
       <c r="J100" s="79"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>87</v>
       </c>
@@ -5635,7 +5644,7 @@
       </c>
       <c r="J101" s="80"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>88</v>
       </c>
@@ -5664,6 +5673,152 @@
         <v>235</v>
       </c>
       <c r="J102" s="80"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="94">
+        <v>91</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D103" s="4">
+        <v>60</v>
+      </c>
+      <c r="E103" s="1">
+        <v>6</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G103" s="6">
+        <v>12</v>
+      </c>
+      <c r="H103" s="1">
+        <v>3936</v>
+      </c>
+      <c r="I103" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="94">
+        <v>91</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" s="4">
+        <v>60</v>
+      </c>
+      <c r="E104" s="1">
+        <v>6</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G104" s="6">
+        <v>12</v>
+      </c>
+      <c r="H104" s="1">
+        <v>3936</v>
+      </c>
+      <c r="I104" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="94">
+        <v>91</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105" s="4">
+        <v>60</v>
+      </c>
+      <c r="E105" s="1">
+        <v>6</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G105" s="6">
+        <v>12</v>
+      </c>
+      <c r="H105" s="1">
+        <v>3936</v>
+      </c>
+      <c r="I105" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="94">
+        <v>91</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="4">
+        <v>60</v>
+      </c>
+      <c r="E106" s="1">
+        <v>6</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G106" s="6">
+        <v>12</v>
+      </c>
+      <c r="H106" s="1">
+        <v>3936</v>
+      </c>
+      <c r="I106" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="95">
+        <v>91</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D107" s="7">
+        <v>60</v>
+      </c>
+      <c r="E107" s="8">
+        <v>6</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G107" s="9">
+        <v>12</v>
+      </c>
+      <c r="H107" s="8">
+        <v>3936</v>
+      </c>
+      <c r="I107" s="9">
+        <v>235</v>
+      </c>
+      <c r="J107" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5674,7 +5829,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="122">
+    <cfRule type="iconSet" priority="123">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5682,7 +5837,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="121">
+    <cfRule type="iconSet" priority="122">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5692,7 +5847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="80">
+    <cfRule type="iconSet" priority="81">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5700,7 +5855,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="81">
+    <cfRule type="iconSet" priority="82">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5710,7 +5865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="77">
+    <cfRule type="iconSet" priority="78">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5718,7 +5873,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="76">
+    <cfRule type="iconSet" priority="77">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5728,7 +5883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="71">
+    <cfRule type="iconSet" priority="72">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5736,7 +5891,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="70">
+    <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5746,7 +5901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="66">
+    <cfRule type="iconSet" priority="67">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5754,7 +5909,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="65">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5764,7 +5919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="60">
+    <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5772,7 +5927,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="61">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5782,7 +5937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="56">
+    <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5790,7 +5945,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="55">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5800,7 +5955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5808,7 +5963,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="51">
+    <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5818,7 +5973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5826,7 +5981,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5836,7 +5991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="41">
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5844,7 +5999,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="40">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5854,7 +6009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5862,7 +6017,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5872,7 +6027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5880,7 +6035,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5890,6 +6045,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -5901,7 +6068,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5913,7 +6080,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5925,8 +6092,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5937,7 +6104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I60">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5949,7 +6116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I61">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5961,7 +6128,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5973,7 +6140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5985,7 +6152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5997,7 +6164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -6009,7 +6176,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6021,7 +6188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6033,8 +6200,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="I69">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6045,7 +6212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I70">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6057,7 +6224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I71">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6069,7 +6236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6081,7 +6248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6093,7 +6260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="I74:I93">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6105,7 +6272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I93">
+  <conditionalFormatting sqref="I94:I95">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6117,7 +6284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I95">
+  <conditionalFormatting sqref="I96">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6129,7 +6296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
+  <conditionalFormatting sqref="I97">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6141,7 +6308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97">
+  <conditionalFormatting sqref="I98">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6153,7 +6320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
+  <conditionalFormatting sqref="I99:I102">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6165,7 +6332,349 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I99:I102">
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:J9">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:J40">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:J42">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:J44">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:J45">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:J46">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103:I107">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6177,348 +6686,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2571BE7B-7073-4B93-8C3A-9D0087B74EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D8BDAF-E658-4BD1-9ACA-22489D9353D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="192">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -899,7 +899,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1118,6 +1118,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,12 +1135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1422,58 +1419,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="47" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.42578125" customWidth="1"/>
+    <col min="18" max="18" width="41.44140625" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="M1" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="M1" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
+      <c r="D3" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -1486,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>51</v>
       </c>
@@ -1574,7 +1571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>51</v>
       </c>
@@ -1618,7 +1615,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>52</v>
       </c>
@@ -1662,7 +1659,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>52</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1750,7 +1747,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>52</v>
       </c>
@@ -1786,7 +1783,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>56</v>
       </c>
@@ -1830,7 +1827,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>56</v>
       </c>
@@ -1874,7 +1871,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1918,7 +1915,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>56</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>56</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>57</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>57</v>
       </c>
@@ -2073,7 +2070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>57</v>
       </c>
@@ -2105,7 +2102,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>57</v>
       </c>
@@ -2145,7 +2142,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="26"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>58</v>
       </c>
@@ -2204,7 +2201,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>58</v>
       </c>
@@ -2261,7 +2258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>58</v>
       </c>
@@ -2321,7 +2318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>59</v>
       </c>
@@ -2381,7 +2378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>59</v>
       </c>
@@ -2441,7 +2438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>59</v>
       </c>
@@ -2501,7 +2498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>60</v>
       </c>
@@ -2542,7 +2539,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>60</v>
       </c>
@@ -2580,7 +2577,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>60</v>
       </c>
@@ -2617,7 +2614,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>60</v>
       </c>
@@ -2654,7 +2651,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>61</v>
       </c>
@@ -2691,7 +2688,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>61</v>
       </c>
@@ -2728,7 +2725,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>61</v>
       </c>
@@ -2769,7 +2766,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>61</v>
       </c>
@@ -2806,7 +2803,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>61</v>
       </c>
@@ -2846,7 +2843,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>61</v>
       </c>
@@ -2884,7 +2881,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>62</v>
       </c>
@@ -2915,13 +2912,13 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M36" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>62</v>
       </c>
@@ -2953,7 +2950,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>62</v>
       </c>
@@ -2991,7 +2988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>62</v>
       </c>
@@ -3035,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>62</v>
       </c>
@@ -3079,7 +3076,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>62</v>
       </c>
@@ -3123,7 +3120,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>62</v>
       </c>
@@ -3167,7 +3164,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>63</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>63</v>
       </c>
@@ -3243,7 +3240,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>63</v>
       </c>
@@ -3278,7 +3275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>63</v>
       </c>
@@ -3313,7 +3310,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -3356,7 +3353,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="26"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>64</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>64</v>
       </c>
@@ -3472,7 +3469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>65</v>
       </c>
@@ -3529,7 +3526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>65</v>
       </c>
@@ -3586,7 +3583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>65</v>
       </c>
@@ -3643,7 +3640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -3700,7 +3697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>66</v>
       </c>
@@ -3732,7 +3729,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>66</v>
       </c>
@@ -3764,7 +3761,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>68</v>
       </c>
@@ -3796,7 +3793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>68</v>
       </c>
@@ -3828,7 +3825,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>69</v>
       </c>
@@ -3860,7 +3857,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>69</v>
       </c>
@@ -3892,7 +3889,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>70</v>
       </c>
@@ -3927,7 +3924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>70</v>
       </c>
@@ -3959,7 +3956,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="73">
         <v>71</v>
       </c>
@@ -3990,13 +3987,13 @@
       <c r="J62" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N62" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N62" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="91"/>
+      <c r="P62" s="91"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>72</v>
       </c>
@@ -4028,7 +4025,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>72</v>
       </c>
@@ -4066,7 +4063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>74</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>74</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>75</v>
       </c>
@@ -4198,7 +4195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>75</v>
       </c>
@@ -4242,7 +4239,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>75</v>
       </c>
@@ -4286,7 +4283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>75</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -4353,7 +4350,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>76</v>
       </c>
@@ -4393,7 +4390,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="26"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>76</v>
       </c>
@@ -4452,7 +4449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>77</v>
       </c>
@@ -4512,7 +4509,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>77</v>
       </c>
@@ -4569,7 +4566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>77</v>
       </c>
@@ -4626,7 +4623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>77</v>
       </c>
@@ -4658,7 +4655,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="73">
         <v>78</v>
       </c>
@@ -4722,7 +4719,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4796,7 +4793,7 @@
       </c>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>79</v>
       </c>
@@ -4856,7 +4853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -4916,7 +4913,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>80</v>
       </c>
@@ -4973,7 +4970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>80</v>
       </c>
@@ -5030,7 +5027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>81</v>
       </c>
@@ -5087,7 +5084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>81</v>
       </c>
@@ -5125,7 +5122,7 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="26"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>81</v>
       </c>
@@ -5182,7 +5179,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>81</v>
       </c>
@@ -5239,7 +5236,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>83</v>
       </c>
@@ -5273,7 +5270,7 @@
       <c r="M90" s="58"/>
       <c r="R90" s="27"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>83</v>
       </c>
@@ -5330,7 +5327,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>83</v>
       </c>
@@ -5362,7 +5359,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>83</v>
       </c>
@@ -5394,7 +5391,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>84</v>
       </c>
@@ -5426,7 +5423,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>84</v>
       </c>
@@ -5458,7 +5455,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>85</v>
       </c>
@@ -5490,7 +5487,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>85</v>
       </c>
@@ -5522,7 +5519,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>85</v>
       </c>
@@ -5554,7 +5551,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>87</v>
       </c>
@@ -5584,7 +5581,7 @@
       </c>
       <c r="J99" s="78"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>87</v>
       </c>
@@ -5614,7 +5611,7 @@
       </c>
       <c r="J100" s="79"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>87</v>
       </c>
@@ -5644,7 +5641,7 @@
       </c>
       <c r="J101" s="80"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>88</v>
       </c>
@@ -5674,8 +5671,8 @@
       </c>
       <c r="J102" s="80"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="94">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
         <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -5703,8 +5700,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="94">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
         <v>91</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -5732,8 +5729,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="94">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
         <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -5761,8 +5758,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="94">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
         <v>91</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -5790,8 +5787,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="95">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
         <v>91</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -5818,7 +5815,123 @@
       <c r="I107" s="9">
         <v>235</v>
       </c>
-      <c r="J107" s="96"/>
+      <c r="J107" s="90"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="95">
+        <v>94</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D108" s="4">
+        <v>60</v>
+      </c>
+      <c r="E108" s="1">
+        <v>6</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G108" s="6">
+        <v>12</v>
+      </c>
+      <c r="H108" s="1">
+        <v>3928</v>
+      </c>
+      <c r="I108" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="95">
+        <v>94</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D109" s="4">
+        <v>60</v>
+      </c>
+      <c r="E109" s="1">
+        <v>6</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G109" s="6">
+        <v>12</v>
+      </c>
+      <c r="H109" s="1">
+        <v>3928</v>
+      </c>
+      <c r="I109" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="95">
+        <v>94</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" s="4">
+        <v>60</v>
+      </c>
+      <c r="E110" s="1">
+        <v>6</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G110" s="6">
+        <v>12</v>
+      </c>
+      <c r="H110" s="1">
+        <v>3928</v>
+      </c>
+      <c r="I110" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="95">
+        <v>94</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D111" s="4">
+        <v>60</v>
+      </c>
+      <c r="E111" s="1">
+        <v>6</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G111" s="6">
+        <v>12</v>
+      </c>
+      <c r="H111" s="1">
+        <v>3928</v>
+      </c>
+      <c r="I111" s="6">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5829,7 +5942,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="123">
+    <cfRule type="iconSet" priority="126">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5837,7 +5950,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="122">
+    <cfRule type="iconSet" priority="125">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5847,7 +5960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="81">
+    <cfRule type="iconSet" priority="84">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5855,7 +5968,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="82">
+    <cfRule type="iconSet" priority="85">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5865,7 +5978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="78">
+    <cfRule type="iconSet" priority="81">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5873,7 +5986,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="77">
+    <cfRule type="iconSet" priority="80">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5883,7 +5996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="72">
+    <cfRule type="iconSet" priority="75">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5891,7 +6004,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="71">
+    <cfRule type="iconSet" priority="74">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5901,7 +6014,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="67">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="70">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5909,7 +6030,17 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="66">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5918,8 +6049,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="61">
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="iconSet" priority="59">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5927,7 +6058,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="62">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5936,8 +6067,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="57">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5945,7 +6076,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="56">
+    <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5954,8 +6085,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="51">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="iconSet" priority="49">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5963,7 +6094,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="52">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5972,8 +6103,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="46">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="44">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5981,7 +6120,9 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="47">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5989,9 +6130,17 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="42">
+  <conditionalFormatting sqref="H49">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5999,7 +6148,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="41">
+    <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -6008,43 +6157,43 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="32">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I57">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -6056,19 +6205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
+  <conditionalFormatting sqref="I59">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -6080,7 +6217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
+  <conditionalFormatting sqref="I60">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6092,7 +6229,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I61">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -6104,7 +6253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6116,7 +6265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -6128,7 +6277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6140,7 +6289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6152,7 +6301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6164,19 +6313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I69">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6188,7 +6325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
+  <conditionalFormatting sqref="I70">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6200,7 +6337,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I71">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6212,7 +6361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6224,7 +6373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I74:I93">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6236,7 +6385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="I94:I95">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6248,7 +6397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="I96">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6260,7 +6409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I93">
+  <conditionalFormatting sqref="I97">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6272,7 +6421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I95">
+  <conditionalFormatting sqref="I98">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6284,7 +6433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
+  <conditionalFormatting sqref="I99:I102">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6296,7 +6445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97">
+  <conditionalFormatting sqref="I103:I108">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6308,7 +6457,349 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:J9">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:J40">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:J42">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:J44">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:J45">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:J46">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6320,7 +6811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I99:I102">
+  <conditionalFormatting sqref="I110">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6332,349 +6823,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I107">
+  <conditionalFormatting sqref="I111">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D8BDAF-E658-4BD1-9ACA-22489D9353D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BCDAD5-4617-4F94-B6F7-04CEE0F5AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="194">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -612,6 +612,12 @@
   </si>
   <si>
     <t>2024-10-11T01:31:06</t>
+  </si>
+  <si>
+    <t>2025-10-06T13:56:30</t>
+  </si>
+  <si>
+    <t>2025-10-22T11:11:30</t>
   </si>
 </sst>
 </file>
@@ -899,7 +905,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1136,6 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1419,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5818,7 +5825,7 @@
       <c r="J107" s="90"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="95">
+      <c r="A108" s="4">
         <v>94</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -5847,7 +5854,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="95">
+      <c r="A109" s="4">
         <v>94</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -5876,7 +5883,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="95">
+      <c r="A110" s="4">
         <v>94</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -5905,32 +5912,97 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="95">
+      <c r="A111" s="7">
         <v>94</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D111" s="4">
-        <v>60</v>
-      </c>
-      <c r="E111" s="1">
-        <v>6</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="D111" s="7">
+        <v>60</v>
+      </c>
+      <c r="E111" s="8">
+        <v>6</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G111" s="6">
-        <v>12</v>
-      </c>
-      <c r="H111" s="1">
+      <c r="G111" s="9">
+        <v>12</v>
+      </c>
+      <c r="H111" s="8">
         <v>3928</v>
       </c>
-      <c r="I111" s="6">
-        <v>235</v>
+      <c r="I111" s="9">
+        <v>235</v>
+      </c>
+      <c r="J111" s="90"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="95">
+        <v>98</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" s="15">
+        <v>60</v>
+      </c>
+      <c r="E112" s="16">
+        <v>4</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112" s="52">
+        <v>12</v>
+      </c>
+      <c r="H112" s="16">
+        <v>3951</v>
+      </c>
+      <c r="I112" s="52">
+        <v>235</v>
+      </c>
+      <c r="J112" s="96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="95">
+        <v>98</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D113" s="4">
+        <v>60</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G113" s="6">
+        <v>12</v>
+      </c>
+      <c r="H113" s="1">
+        <v>3951</v>
+      </c>
+      <c r="I113" s="6">
+        <v>235</v>
+      </c>
+      <c r="J113" s="96" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5942,7 +6014,7 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
-    <cfRule type="iconSet" priority="126">
+    <cfRule type="iconSet" priority="128">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5950,7 +6022,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="125">
+    <cfRule type="iconSet" priority="127">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5960,7 +6032,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H30 H32:H35">
-    <cfRule type="iconSet" priority="84">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="86">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5968,7 +6048,17 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="85">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="83">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5977,8 +6067,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="iconSet" priority="81">
+  <conditionalFormatting sqref="H36:H37">
+    <cfRule type="iconSet" priority="77">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5986,7 +6076,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="80">
+    <cfRule type="iconSet" priority="76">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -5995,8 +6085,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H37">
-    <cfRule type="iconSet" priority="75">
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="iconSet" priority="72">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -6004,7 +6094,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="74">
+    <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -6013,8 +6103,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H39">
-    <cfRule type="iconSet" priority="69">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -6022,7 +6120,17 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="70">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -6031,8 +6139,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="iconSet" priority="65">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -6040,7 +6148,7 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="64">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -6049,8 +6157,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
-    <cfRule type="iconSet" priority="59">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -6058,7 +6174,9 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="60">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -6066,9 +6184,25 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="iconSet" priority="55">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -6076,7 +6210,9 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="54">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -6084,17 +6220,7 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="iconSet" priority="49">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -6103,61 +6229,31 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
+  <conditionalFormatting sqref="I57">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -6169,7 +6265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
+  <conditionalFormatting sqref="I58">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -6181,19 +6277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
+  <conditionalFormatting sqref="I59">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -6205,7 +6289,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59">
+  <conditionalFormatting sqref="I60">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -6217,7 +6313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60">
+  <conditionalFormatting sqref="I62">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6229,7 +6325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -6241,7 +6337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="I64">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -6253,7 +6349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I65">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6265,7 +6361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
+  <conditionalFormatting sqref="I66">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -6277,7 +6373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65">
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6289,19 +6385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I68">
+  <conditionalFormatting sqref="I69">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6313,7 +6397,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I70">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6325,7 +6421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70">
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6337,7 +6433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6349,7 +6445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="I74:I93">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6361,7 +6457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="I94:I95">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6373,7 +6469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I93">
+  <conditionalFormatting sqref="I96">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6385,7 +6481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I95">
+  <conditionalFormatting sqref="I97">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6397,7 +6493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
+  <conditionalFormatting sqref="I98">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6409,7 +6505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97">
+  <conditionalFormatting sqref="I99:I102">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6421,7 +6517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I98">
+  <conditionalFormatting sqref="I103:I108">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6433,7 +6529,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I99:I102">
+  <conditionalFormatting sqref="I109">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6445,7 +6541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I108">
+  <conditionalFormatting sqref="I110">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6457,349 +6553,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J5">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J37">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:J39">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:J43">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I45:J45">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:J46">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:J49">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I109">
+  <conditionalFormatting sqref="I111">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6811,7 +6565,349 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I110">
+  <conditionalFormatting sqref="I5:J5">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:J22 I47:J48 I24:J35 I23 J16:J31 I50:J52 I53:I54">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:J9">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:J40">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:J42">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:J44">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:J45">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:J46">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I112">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6823,7 +6919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111">
+  <conditionalFormatting sqref="I113">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/observations/phobos_deimos/phobos_deimos.xlsx
+++ b/observations/phobos_deimos/phobos_deimos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\phobos_deimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BCDAD5-4617-4F94-B6F7-04CEE0F5AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B11E37-A911-4298-AF65-D40D884AC4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="211">
   <si>
     <t>PHOBOS DEIMOS COP ROWS</t>
   </si>
@@ -494,15 +494,6 @@
     <t>20230903_022613</t>
   </si>
   <si>
-    <t>2024-01-26T12:41:00</t>
-  </si>
-  <si>
-    <t>2024-02-03T22:05:00</t>
-  </si>
-  <si>
-    <t>2024-02-15T17:04:00</t>
-  </si>
-  <si>
     <t>20231024_113219</t>
   </si>
   <si>
@@ -512,21 +503,6 @@
     <t>20231214_124745</t>
   </si>
   <si>
-    <t>2024-02-21T18:29:15</t>
-  </si>
-  <si>
-    <t>2024-02-22T02:21:00</t>
-  </si>
-  <si>
-    <t>2024-03-03T06:01:00</t>
-  </si>
-  <si>
-    <t>2024-03-12T04:13:10</t>
-  </si>
-  <si>
-    <t>2024-03-14T17:08:10</t>
-  </si>
-  <si>
     <t>20231220_141315</t>
   </si>
   <si>
@@ -542,42 +518,9 @@
     <t>20240114_173338</t>
   </si>
   <si>
-    <t>2024-04-12T19:44:00</t>
-  </si>
-  <si>
     <t>PHYLLOSILICATES 189 190 191 192 193 201 500MS</t>
   </si>
   <si>
-    <t>2024-04-27T11:29:39</t>
-  </si>
-  <si>
-    <t>2024-05-02T13:20:13</t>
-  </si>
-  <si>
-    <t>2024-05-03T12:54:38</t>
-  </si>
-  <si>
-    <t>2024-05-08T06:53:49</t>
-  </si>
-  <si>
-    <t>2024-06-14T08:06:51</t>
-  </si>
-  <si>
-    <t>2024-06-20T09:31:50</t>
-  </si>
-  <si>
-    <t>2024-06-27T02:39:58</t>
-  </si>
-  <si>
-    <t>2024-07-02T04:30:22</t>
-  </si>
-  <si>
-    <t>2024-05-31T08:04:42</t>
-  </si>
-  <si>
-    <t>2024-06-06T01:38:08</t>
-  </si>
-  <si>
     <t>3770,3794,3808,3828,0,0 # ORDERS 163 165 167 169 -- NADIR_12ROWS_60SECS_4SUBDS -- EXECTIME=59492MS</t>
   </si>
   <si>
@@ -587,37 +530,145 @@
     <t>HYDRATION BAND#2 163 165 167 169</t>
   </si>
   <si>
-    <t>2024-08-05T16:48:09</t>
-  </si>
-  <si>
-    <t>2024-08-19T01:07:00</t>
-  </si>
-  <si>
-    <t>2024-08-25T02:32:02</t>
-  </si>
-  <si>
-    <t>2024-08-31T03:57:04</t>
-  </si>
-  <si>
-    <t>2024-09-11T22:55:33</t>
-  </si>
-  <si>
-    <t>2024-09-22T21:16:02</t>
-  </si>
-  <si>
-    <t>2024-10-01T19:27:47</t>
-  </si>
-  <si>
-    <t>2024-10-05T00:06:07</t>
-  </si>
-  <si>
-    <t>2024-10-11T01:31:06</t>
-  </si>
-  <si>
     <t>2025-10-06T13:56:30</t>
   </si>
   <si>
     <t>2025-10-22T11:11:30</t>
+  </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>Linescan</t>
+  </si>
+  <si>
+    <t>Linescan?</t>
+  </si>
+  <si>
+    <t>20250628_083013</t>
+  </si>
+  <si>
+    <t>20250622_070511</t>
+  </si>
+  <si>
+    <t>20250619_101826</t>
+  </si>
+  <si>
+    <t>20250619_022647</t>
+  </si>
+  <si>
+    <t>20250411_203101</t>
+  </si>
+  <si>
+    <t>20250408_080101</t>
+  </si>
+  <si>
+    <t>20250405_190547</t>
+  </si>
+  <si>
+    <t>20250402_221907</t>
+  </si>
+  <si>
+    <t>20250402_142717</t>
+  </si>
+  <si>
+    <t>20241229_103444</t>
+  </si>
+  <si>
+    <t>20241213_052910</t>
+  </si>
+  <si>
+    <t>20241210_084211</t>
+  </si>
+  <si>
+    <t>20241207_040411</t>
+  </si>
+  <si>
+    <t>20241011_012228</t>
+  </si>
+  <si>
+    <t>20241004_235732</t>
+  </si>
+  <si>
+    <t>20241001_191914</t>
+  </si>
+  <si>
+    <t>20240922_210734</t>
+  </si>
+  <si>
+    <t>20240911_224710</t>
+  </si>
+  <si>
+    <t>good illum</t>
+  </si>
+  <si>
+    <t>20240126_123236</t>
+  </si>
+  <si>
+    <t>20240831_034846</t>
+  </si>
+  <si>
+    <t>20240825_022347</t>
+  </si>
+  <si>
+    <t>20240819_005847</t>
+  </si>
+  <si>
+    <t>20240805_163944</t>
+  </si>
+  <si>
+    <t>20240702_042211</t>
+  </si>
+  <si>
+    <t>20240627_023139</t>
+  </si>
+  <si>
+    <t>20240620_092319</t>
+  </si>
+  <si>
+    <t>20240614_075827</t>
+  </si>
+  <si>
+    <t>20240606_012950</t>
+  </si>
+  <si>
+    <t>20240531_075626</t>
+  </si>
+  <si>
+    <t>20240508_064538</t>
+  </si>
+  <si>
+    <t>20240503_124624</t>
+  </si>
+  <si>
+    <t>20240502_131156</t>
+  </si>
+  <si>
+    <t>20240427_112108</t>
+  </si>
+  <si>
+    <t>20240412_193543</t>
+  </si>
+  <si>
+    <t>20240314_165945</t>
+  </si>
+  <si>
+    <t>20240312_040447</t>
+  </si>
+  <si>
+    <t>20240303_055242</t>
+  </si>
+  <si>
+    <t>20240222_021248</t>
+  </si>
+  <si>
+    <t>20240221_182102</t>
+  </si>
+  <si>
+    <t>20240215_165550</t>
+  </si>
+  <si>
+    <t>20240203_215635</t>
   </si>
 </sst>
 </file>
@@ -905,7 +956,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,12 +1153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,13 +1165,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1139,10 +1180,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1428,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,16 +1504,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="M1" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="M1" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J2" s="72" t="s">
@@ -1472,12 +1524,12 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
+      <c r="D3" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="72" t="s">
@@ -2615,6 +2667,9 @@
       <c r="J28" s="63" t="s">
         <v>82</v>
       </c>
+      <c r="K28" t="s">
+        <v>167</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2651,6 +2706,9 @@
       </c>
       <c r="J29" s="65" t="s">
         <v>83</v>
+      </c>
+      <c r="K29" t="s">
+        <v>167</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2841,6 +2899,9 @@
       <c r="J34" s="63" t="s">
         <v>88</v>
       </c>
+      <c r="K34" t="s">
+        <v>167</v>
+      </c>
       <c r="M34" s="32" t="s">
         <v>47</v>
       </c>
@@ -2880,6 +2941,9 @@
       </c>
       <c r="J35" s="65" t="s">
         <v>89</v>
+      </c>
+      <c r="K35" t="s">
+        <v>167</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2919,11 +2983,11 @@
       <c r="J36" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
+      <c r="M36" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -2987,6 +3051,9 @@
       </c>
       <c r="J38" s="63" t="s">
         <v>135</v>
+      </c>
+      <c r="K38" t="s">
+        <v>167</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="16"/>
@@ -3026,6 +3093,9 @@
       <c r="J39" s="63" t="s">
         <v>91</v>
       </c>
+      <c r="K39" t="s">
+        <v>167</v>
+      </c>
       <c r="M39" s="12" t="s">
         <v>7</v>
       </c>
@@ -3070,6 +3140,9 @@
       <c r="J40" s="63" t="s">
         <v>92</v>
       </c>
+      <c r="K40" t="s">
+        <v>167</v>
+      </c>
       <c r="M40" s="4">
         <v>15</v>
       </c>
@@ -3114,6 +3187,9 @@
       <c r="J41" s="63" t="s">
         <v>93</v>
       </c>
+      <c r="K41" t="s">
+        <v>167</v>
+      </c>
       <c r="M41" s="4">
         <v>15</v>
       </c>
@@ -3158,6 +3234,9 @@
       <c r="J42" s="65" t="s">
         <v>94</v>
       </c>
+      <c r="K42" t="s">
+        <v>167</v>
+      </c>
       <c r="M42" s="33">
         <v>15</v>
       </c>
@@ -3246,6 +3325,9 @@
       <c r="J44" s="63" t="s">
         <v>95</v>
       </c>
+      <c r="K44" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -3277,6 +3359,9 @@
       </c>
       <c r="J45" s="63" t="s">
         <v>96</v>
+      </c>
+      <c r="K45" t="s">
+        <v>167</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>23</v>
@@ -3450,6 +3535,9 @@
       <c r="J49" s="65" t="s">
         <v>112</v>
       </c>
+      <c r="K49" t="s">
+        <v>168</v>
+      </c>
       <c r="M49" s="15">
         <v>15</v>
       </c>
@@ -3507,6 +3595,9 @@
       <c r="J50" s="63" t="s">
         <v>111</v>
       </c>
+      <c r="K50" t="s">
+        <v>166</v>
+      </c>
       <c r="M50" s="4">
         <v>15</v>
       </c>
@@ -3564,6 +3655,9 @@
       <c r="J51" s="63" t="s">
         <v>106</v>
       </c>
+      <c r="K51" t="s">
+        <v>166</v>
+      </c>
       <c r="M51" s="4">
         <v>15</v>
       </c>
@@ -3621,6 +3715,9 @@
       <c r="J52" s="65" t="s">
         <v>107</v>
       </c>
+      <c r="K52" t="s">
+        <v>166</v>
+      </c>
       <c r="M52" s="4">
         <v>15</v>
       </c>
@@ -3994,11 +4091,11 @@
       <c r="J62" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="N62" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="91"/>
-      <c r="P62" s="91"/>
+      <c r="N62" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="85"/>
+      <c r="P62" s="85"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -4029,7 +4126,7 @@
         <v>235</v>
       </c>
       <c r="J63" s="49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
@@ -4061,7 +4158,7 @@
         <v>235</v>
       </c>
       <c r="J64" s="50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="16"/>
@@ -4099,7 +4196,7 @@
         <v>235</v>
       </c>
       <c r="J65" s="49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M65" s="12" t="s">
         <v>7</v>
@@ -4143,7 +4240,7 @@
         <v>235</v>
       </c>
       <c r="J66" s="50" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M66" s="41">
         <v>15</v>
@@ -4187,7 +4284,7 @@
         <v>235</v>
       </c>
       <c r="J67" s="77" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M67">
         <v>30</v>
@@ -4231,7 +4328,7 @@
         <v>235</v>
       </c>
       <c r="J68" s="49" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M68">
         <v>60</v>
@@ -4274,8 +4371,8 @@
       <c r="I69" s="6">
         <v>235</v>
       </c>
-      <c r="J69" s="49" t="s">
-        <v>166</v>
+      <c r="J69" s="89" t="s">
+        <v>158</v>
       </c>
       <c r="M69">
         <v>60</v>
@@ -4318,8 +4415,8 @@
       <c r="I70" s="9">
         <v>235</v>
       </c>
-      <c r="J70" s="50" t="s">
-        <v>167</v>
+      <c r="J70" s="90" t="s">
+        <v>159</v>
       </c>
       <c r="N70" s="23" t="s">
         <v>23</v>
@@ -4353,8 +4450,11 @@
       <c r="I71" s="6">
         <v>235</v>
       </c>
-      <c r="J71" s="49" t="s">
-        <v>152</v>
+      <c r="J71" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="K71" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -4385,8 +4485,8 @@
       <c r="I72" s="6">
         <v>235</v>
       </c>
-      <c r="J72" s="49" t="s">
-        <v>153</v>
+      <c r="J72" s="89" t="s">
+        <v>210</v>
       </c>
       <c r="M72" s="15"/>
       <c r="N72" s="16"/>
@@ -4425,8 +4525,8 @@
       <c r="I73" s="9">
         <v>235</v>
       </c>
-      <c r="J73" s="50" t="s">
-        <v>154</v>
+      <c r="J73" s="90" t="s">
+        <v>209</v>
       </c>
       <c r="M73" s="12" t="s">
         <v>7</v>
@@ -4484,8 +4584,8 @@
       <c r="I74" s="52">
         <v>235</v>
       </c>
-      <c r="J74" s="78" t="s">
-        <v>158</v>
+      <c r="J74" s="91" t="s">
+        <v>208</v>
       </c>
       <c r="M74" s="15">
         <v>15</v>
@@ -4544,8 +4644,8 @@
       <c r="I75" s="6">
         <v>235</v>
       </c>
-      <c r="J75" s="79" t="s">
-        <v>159</v>
+      <c r="J75" s="92" t="s">
+        <v>207</v>
       </c>
       <c r="M75" s="1">
         <v>15</v>
@@ -4601,8 +4701,8 @@
       <c r="I76" s="6">
         <v>235</v>
       </c>
-      <c r="J76" s="79" t="s">
-        <v>160</v>
+      <c r="J76" s="92" t="s">
+        <v>206</v>
       </c>
       <c r="M76" s="41">
         <v>15</v>
@@ -4658,8 +4758,8 @@
       <c r="I77" s="6">
         <v>235</v>
       </c>
-      <c r="J77" s="79" t="s">
-        <v>161</v>
+      <c r="J77" s="92" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -4690,8 +4790,8 @@
       <c r="I78" s="9">
         <v>235</v>
       </c>
-      <c r="J78" s="80" t="s">
-        <v>162</v>
+      <c r="J78" s="93" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -4710,8 +4810,8 @@
       <c r="E79" s="74">
         <v>6</v>
       </c>
-      <c r="F79" s="82" t="s">
-        <v>169</v>
+      <c r="F79" s="78" t="s">
+        <v>160</v>
       </c>
       <c r="G79" s="75">
         <v>12</v>
@@ -4722,8 +4822,8 @@
       <c r="I79" s="75">
         <v>235</v>
       </c>
-      <c r="J79" s="81" t="s">
-        <v>168</v>
+      <c r="J79" s="94" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
@@ -4742,8 +4842,8 @@
       <c r="E80" s="16">
         <v>6</v>
       </c>
-      <c r="F80" s="83" t="s">
-        <v>169</v>
+      <c r="F80" s="79" t="s">
+        <v>160</v>
       </c>
       <c r="G80" s="52">
         <v>12</v>
@@ -4754,8 +4854,8 @@
       <c r="I80" s="52">
         <v>235</v>
       </c>
-      <c r="J80" s="78" t="s">
-        <v>170</v>
+      <c r="J80" s="91" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -4774,8 +4874,8 @@
       <c r="E81" s="1">
         <v>6</v>
       </c>
-      <c r="F81" s="84" t="s">
-        <v>169</v>
+      <c r="F81" s="80" t="s">
+        <v>160</v>
       </c>
       <c r="G81" s="6">
         <v>12</v>
@@ -4786,8 +4886,8 @@
       <c r="I81" s="1">
         <v>235</v>
       </c>
-      <c r="J81" s="79" t="s">
-        <v>171</v>
+      <c r="J81" s="92" t="s">
+        <v>201</v>
       </c>
       <c r="M81" s="61"/>
       <c r="N81" s="10"/>
@@ -4816,8 +4916,8 @@
       <c r="E82" s="1">
         <v>6</v>
       </c>
-      <c r="F82" s="84" t="s">
-        <v>169</v>
+      <c r="F82" s="80" t="s">
+        <v>160</v>
       </c>
       <c r="G82" s="6">
         <v>12</v>
@@ -4828,8 +4928,8 @@
       <c r="I82" s="1">
         <v>235</v>
       </c>
-      <c r="J82" s="79" t="s">
-        <v>172</v>
+      <c r="J82" s="92" t="s">
+        <v>200</v>
       </c>
       <c r="M82" s="58">
         <v>60</v>
@@ -4876,8 +4976,8 @@
       <c r="E83" s="1">
         <v>6</v>
       </c>
-      <c r="F83" s="84" t="s">
-        <v>169</v>
+      <c r="F83" s="80" t="s">
+        <v>160</v>
       </c>
       <c r="G83" s="6">
         <v>12</v>
@@ -4888,8 +4988,8 @@
       <c r="I83" s="1">
         <v>235</v>
       </c>
-      <c r="J83" s="79" t="s">
-        <v>173</v>
+      <c r="J83" s="92" t="s">
+        <v>199</v>
       </c>
       <c r="M83" s="58">
         <v>60</v>
@@ -4936,8 +5036,8 @@
       <c r="E84" s="16">
         <v>6</v>
       </c>
-      <c r="F84" s="83" t="s">
-        <v>169</v>
+      <c r="F84" s="79" t="s">
+        <v>160</v>
       </c>
       <c r="G84" s="52">
         <v>12</v>
@@ -4948,8 +5048,8 @@
       <c r="I84" s="16">
         <v>235</v>
       </c>
-      <c r="J84" s="86" t="s">
-        <v>178</v>
+      <c r="J84" s="95" t="s">
+        <v>198</v>
       </c>
       <c r="M84" s="58">
         <v>60</v>
@@ -4993,8 +5093,8 @@
       <c r="E85" s="8">
         <v>6</v>
       </c>
-      <c r="F85" s="85" t="s">
-        <v>169</v>
+      <c r="F85" s="81" t="s">
+        <v>160</v>
       </c>
       <c r="G85" s="9">
         <v>12</v>
@@ -5005,8 +5105,8 @@
       <c r="I85" s="8">
         <v>235</v>
       </c>
-      <c r="J85" s="87" t="s">
-        <v>179</v>
+      <c r="J85" s="96" t="s">
+        <v>197</v>
       </c>
       <c r="M85" s="58">
         <v>60</v>
@@ -5051,7 +5151,7 @@
         <v>4</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G86" s="52">
         <v>12</v>
@@ -5062,8 +5162,8 @@
       <c r="I86" s="52">
         <v>235</v>
       </c>
-      <c r="J86" s="86" t="s">
-        <v>174</v>
+      <c r="J86" s="95" t="s">
+        <v>196</v>
       </c>
       <c r="M86" s="59">
         <v>60</v>
@@ -5108,7 +5208,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G87" s="6">
         <v>12</v>
@@ -5119,8 +5219,8 @@
       <c r="I87" s="6">
         <v>235</v>
       </c>
-      <c r="J87" s="88" t="s">
-        <v>175</v>
+      <c r="J87" s="97" t="s">
+        <v>195</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="3"/>
@@ -5146,7 +5246,7 @@
         <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G88" s="6">
         <v>12</v>
@@ -5157,8 +5257,8 @@
       <c r="I88" s="6">
         <v>235</v>
       </c>
-      <c r="J88" s="88" t="s">
-        <v>176</v>
+      <c r="J88" s="97" t="s">
+        <v>194</v>
       </c>
       <c r="M88" s="58">
         <v>60</v>
@@ -5203,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G89" s="9">
         <v>12</v>
@@ -5214,8 +5314,8 @@
       <c r="I89" s="9">
         <v>235</v>
       </c>
-      <c r="J89" s="87" t="s">
-        <v>177</v>
+      <c r="J89" s="96" t="s">
+        <v>193</v>
       </c>
       <c r="M89" s="58">
         <v>60</v>
@@ -5260,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G90" s="52">
         <v>12</v>
@@ -5271,8 +5371,8 @@
       <c r="I90" s="52">
         <v>235</v>
       </c>
-      <c r="J90" s="86" t="s">
-        <v>183</v>
+      <c r="J90" s="95" t="s">
+        <v>192</v>
       </c>
       <c r="M90" s="58"/>
       <c r="R90" s="27"/>
@@ -5294,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G91" s="6">
         <v>12</v>
@@ -5305,8 +5405,8 @@
       <c r="I91" s="6">
         <v>235</v>
       </c>
-      <c r="J91" s="88" t="s">
-        <v>184</v>
+      <c r="J91" s="97" t="s">
+        <v>191</v>
       </c>
       <c r="M91" s="59">
         <v>60</v>
@@ -5323,15 +5423,15 @@
       <c r="Q91" s="57">
         <v>235</v>
       </c>
-      <c r="R91" s="89" t="s">
-        <v>181</v>
+      <c r="R91" s="84" t="s">
+        <v>162</v>
       </c>
       <c r="T91">
         <f t="shared" si="1"/>
         <v>3953</v>
       </c>
       <c r="U91" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
@@ -5351,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G92" s="6">
         <v>12</v>
@@ -5362,8 +5462,8 @@
       <c r="I92" s="6">
         <v>235</v>
       </c>
-      <c r="J92" s="88" t="s">
-        <v>185</v>
+      <c r="J92" s="97" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
@@ -5383,7 +5483,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G93" s="9">
         <v>12</v>
@@ -5394,8 +5494,8 @@
       <c r="I93" s="9">
         <v>235</v>
       </c>
-      <c r="J93" s="87" t="s">
-        <v>186</v>
+      <c r="J93" s="96" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
@@ -5426,8 +5526,8 @@
       <c r="I94" s="52">
         <v>235</v>
       </c>
-      <c r="J94" s="78" t="s">
-        <v>187</v>
+      <c r="J94" s="91" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
@@ -5458,8 +5558,8 @@
       <c r="I95" s="9">
         <v>235</v>
       </c>
-      <c r="J95" s="80" t="s">
-        <v>188</v>
+      <c r="J95" s="93" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
@@ -5490,11 +5590,11 @@
       <c r="I96" s="6">
         <v>235</v>
       </c>
-      <c r="J96" s="86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J96" s="95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>85</v>
       </c>
@@ -5522,11 +5622,11 @@
       <c r="I97" s="6">
         <v>235</v>
       </c>
-      <c r="J97" s="88" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J97" s="97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>85</v>
       </c>
@@ -5554,11 +5654,11 @@
       <c r="I98" s="9">
         <v>235</v>
       </c>
-      <c r="J98" s="87" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J98" s="96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>87</v>
       </c>
@@ -5586,9 +5686,11 @@
       <c r="I99" s="52">
         <v>235</v>
       </c>
-      <c r="J99" s="78"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J99" s="91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>87</v>
       </c>
@@ -5616,9 +5718,11 @@
       <c r="I100" s="6">
         <v>235</v>
       </c>
-      <c r="J100" s="79"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J100" s="92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>87</v>
       </c>
@@ -5646,9 +5750,11 @@
       <c r="I101" s="9">
         <v>235</v>
       </c>
-      <c r="J101" s="80"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J101" s="93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>88</v>
       </c>
@@ -5676,9 +5782,11 @@
       <c r="I102" s="9">
         <v>235</v>
       </c>
-      <c r="J102" s="80"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J102" s="93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>91</v>
       </c>
@@ -5706,8 +5814,14 @@
       <c r="I103" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J103" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="K103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>91</v>
       </c>
@@ -5735,8 +5849,14 @@
       <c r="I104" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J104" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="K104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>91</v>
       </c>
@@ -5764,8 +5884,14 @@
       <c r="I105" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J105" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="K105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>91</v>
       </c>
@@ -5793,8 +5919,14 @@
       <c r="I106" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J106" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="K106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>91</v>
       </c>
@@ -5822,9 +5954,14 @@
       <c r="I107" s="9">
         <v>235</v>
       </c>
-      <c r="J107" s="90"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J107" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="K107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>94</v>
       </c>
@@ -5840,8 +5977,8 @@
       <c r="E108" s="1">
         <v>6</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>144</v>
+      <c r="F108" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="G108" s="6">
         <v>12</v>
@@ -5852,8 +5989,14 @@
       <c r="I108" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J108" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="K108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>94</v>
       </c>
@@ -5881,8 +6024,14 @@
       <c r="I109" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J109" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="K109" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>94</v>
       </c>
@@ -5910,8 +6059,14 @@
       <c r="I110" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J110" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="K110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>94</v>
       </c>
@@ -5939,10 +6094,15 @@
       <c r="I111" s="9">
         <v>235</v>
       </c>
-      <c r="J111" s="90"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="95">
+      <c r="J111" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="K111" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
         <v>98</v>
       </c>
       <c r="B112" s="16" t="s">
@@ -5958,7 +6118,7 @@
         <v>4</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G112" s="52">
         <v>12</v>
@@ -5969,12 +6129,15 @@
       <c r="I112" s="52">
         <v>235</v>
       </c>
-      <c r="J112" s="96" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="95">
+      <c r="J112" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="K112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
         <v>98</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -5990,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G113" s="6">
         <v>12</v>
@@ -6001,8 +6164,11 @@
       <c r="I113" s="6">
         <v>235</v>
       </c>
-      <c r="J113" s="96" t="s">
-        <v>193</v>
+      <c r="J113" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="K113" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6014,6 +6180,14 @@
     <mergeCell ref="N62:P62"/>
   </mergeCells>
   <conditionalFormatting sqref="H5">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="iconSet" priority="128">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -6022,7 +6196,9 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="127">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H30 H32:H35">
+    <cfRule type="iconSet" priority="86">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -6030,8 +6206,6 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H30 H32:H35">
     <cfRule type="iconSet" priority="87">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -6040,30 +6214,22 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="86">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="iconSet" priority="83">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
     <cfRule type="iconSet" priority="82">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
         <cfvo type="num" val="3810"/>
         <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="83">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -6086,6 +6252,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H39">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="iconSet" priority="72">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -6094,7 +6268,9 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="71">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -6102,8 +6278,6 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
     <cfRule type="iconSet" priority="67">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -6112,30 +6286,22 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="66">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H42">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H42">
     <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
         <cfvo type="num" val="3810"/>
         <cfvo type="num" val="3850"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -6158,6 +6324,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="500"/>
+        <cfvo type="num" val="3810"/>
+        <cfvo type="num" val="3850"/>
+      </iconSet>
+    </cfRule>
     <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -6166,7 +6340,9 @@
         <cfvo type="percent" val="75"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="51">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="500"/>
@@ -6174,22 +6350,12 @@
         <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
     <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
         <cfvo type="percent" val="50"/>
         <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="500"/>
-        <cfvo type="num" val="3810"/>
-        <cfvo type="num" val="3850"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -6565,6 +6731,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I112">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5">
     <cfRule type="colorScale" priority="124">
       <colorScale>
@@ -6598,14 +6788,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:J9">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -6616,9 +6798,7 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6626,6 +6806,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J22 I24:J35 I23 J16:J31">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -6636,8 +6818,34 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J37">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -6648,15 +6856,9 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="75">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6666,8 +6868,14 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:J39">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -6678,34 +6886,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -6726,9 +6908,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41:J42">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6736,6 +6916,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:J42">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -6746,6 +6928,14 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -6758,6 +6948,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:J43">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -6768,34 +6976,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J44">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -6806,6 +6988,14 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -6818,6 +7008,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -6826,24 +7034,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -6878,6 +7068,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:J49">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -6888,48 +7096,6 @@
         <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I112">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I113">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
